--- a/futures and spots.xlsx
+++ b/futures and spots.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumitro/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumitro/Documents/GitHub/ECO461-A1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F53FDF4-63C3-454E-8C42-B4ADBFA11CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FF792E-53E7-A645-85D5-67A6A92731FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15900" xr2:uid="{AA04A888-2475-BF4A-BA44-B75814E04E81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterateDelta="9.9999999999994451E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,6 +51,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="174" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -91,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -99,6 +102,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +420,7 @@
   <dimension ref="A1:D678"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,8 +452,8 @@
       <c r="B2">
         <v>-7.2000000000000064E-2</v>
       </c>
-      <c r="C2">
-        <v>-2.6200000000000045</v>
+      <c r="C2" s="3">
+        <v>-6.2380952380952426E-2</v>
       </c>
       <c r="D2">
         <v>-4.1000000000000147E-2</v>
@@ -462,8 +466,8 @@
       <c r="B3">
         <v>-6.2999999999999945E-2</v>
       </c>
-      <c r="C3">
-        <v>-2.6400000000000006</v>
+      <c r="C3" s="3">
+        <v>-6.2857142857142945E-2</v>
       </c>
       <c r="D3">
         <v>-3.3999999999999808E-2</v>
@@ -476,8 +480,8 @@
       <c r="B4">
         <v>6.6999999999999948E-2</v>
       </c>
-      <c r="C4">
-        <v>2.7600000000000051</v>
+      <c r="C4" s="3">
+        <v>6.5714285714285836E-2</v>
       </c>
       <c r="D4">
         <v>7.0999999999999952E-2</v>
@@ -490,8 +494,8 @@
       <c r="B5">
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="C5">
-        <v>2.8500000000000014</v>
+      <c r="C5" s="3">
+        <v>6.785714285714306E-2</v>
       </c>
       <c r="D5">
         <v>7.4999999999999956E-2</v>
@@ -504,8 +508,8 @@
       <c r="B6">
         <v>6.4000000000000057E-2</v>
       </c>
-      <c r="C6">
-        <v>1.8999999999999986</v>
+      <c r="C6" s="3">
+        <v>4.5238095238095077E-2</v>
       </c>
       <c r="D6">
         <v>6.0000000000000053E-2</v>
@@ -518,8 +522,8 @@
       <c r="B7">
         <v>2.8000000000000025E-2</v>
       </c>
-      <c r="C7">
-        <v>-0.53999999999999915</v>
+      <c r="C7" s="3">
+        <v>-1.2857142857142678E-2</v>
       </c>
       <c r="D7">
         <v>-4.2000000000000037E-2</v>
@@ -532,8 +536,8 @@
       <c r="B8">
         <v>0.11399999999999988</v>
       </c>
-      <c r="C8">
-        <v>1.6099999999999994</v>
+      <c r="C8" s="3">
+        <v>3.833333333333333E-2</v>
       </c>
       <c r="D8">
         <v>4.6000000000000041E-2</v>
@@ -546,8 +550,8 @@
       <c r="B9">
         <v>0.13300000000000001</v>
       </c>
-      <c r="C9">
-        <v>1.5999999999999943</v>
+      <c r="C9" s="3">
+        <v>3.809523809523796E-2</v>
       </c>
       <c r="D9">
         <v>7.0999999999999952E-2</v>
@@ -560,8 +564,8 @@
       <c r="B10">
         <v>3.2999999999999918E-2</v>
       </c>
-      <c r="C10">
-        <v>-0.80999999999999517</v>
+      <c r="C10" s="3">
+        <v>-1.928571428571435E-2</v>
       </c>
       <c r="D10">
         <v>-2.8999999999999915E-2</v>
@@ -574,8 +578,8 @@
       <c r="B11">
         <v>2.8000000000000025E-2</v>
       </c>
-      <c r="C11">
-        <v>-2.9200000000000017</v>
+      <c r="C11" s="3">
+        <v>-6.9523809523809543E-2</v>
       </c>
       <c r="D11">
         <v>-5.1000000000000156E-2</v>
@@ -588,8 +592,8 @@
       <c r="B12">
         <v>4.6000000000000041E-2</v>
       </c>
-      <c r="C12">
-        <v>1.4500000000000028</v>
+      <c r="C12" s="3">
+        <v>3.4523809523809623E-2</v>
       </c>
       <c r="D12">
         <v>-2.0000000000000018E-3</v>
@@ -602,8 +606,8 @@
       <c r="B13">
         <v>0.13100000000000001</v>
       </c>
-      <c r="C13">
-        <v>4.9799999999999969</v>
+      <c r="C13" s="3">
+        <v>0.11857142857142855</v>
       </c>
       <c r="D13">
         <v>0.13900000000000001</v>
@@ -616,8 +620,8 @@
       <c r="B14">
         <v>-1.5000000000000124E-2</v>
       </c>
-      <c r="C14">
-        <v>0.45000000000000284</v>
+      <c r="C14" s="3">
+        <v>1.0714285714285676E-2</v>
       </c>
       <c r="D14">
         <v>2.8000000000000025E-2</v>
@@ -630,8 +634,8 @@
       <c r="B15">
         <v>7.6000000000000068E-2</v>
       </c>
-      <c r="C15">
-        <v>-2.230000000000004</v>
+      <c r="C15" s="3">
+        <v>-5.3095238095238084E-2</v>
       </c>
       <c r="D15">
         <v>1.4000000000000012E-2</v>
@@ -644,8 +648,8 @@
       <c r="B16">
         <v>-5.3999999999999826E-2</v>
       </c>
-      <c r="C16">
-        <v>0.42999999999999972</v>
+      <c r="C16" s="3">
+        <v>1.0238095238095157E-2</v>
       </c>
       <c r="D16">
         <v>-5.0999999999999934E-2</v>
@@ -658,8 +662,8 @@
       <c r="B17">
         <v>0.17099999999999982</v>
       </c>
-      <c r="C17">
-        <v>2.5599999999999952</v>
+      <c r="C17" s="3">
+        <v>6.0952380952380869E-2</v>
       </c>
       <c r="D17">
         <v>6.899999999999995E-2</v>
@@ -672,8 +676,8 @@
       <c r="B18">
         <v>8.999999999999897E-3</v>
       </c>
-      <c r="C18">
-        <v>-1.789999999999992</v>
+      <c r="C18" s="3">
+        <v>-4.2619047619047334E-2</v>
       </c>
       <c r="D18">
         <v>-2.4000000000000021E-2</v>
@@ -686,8 +690,8 @@
       <c r="B19">
         <v>-1.499999999999968E-2</v>
       </c>
-      <c r="C19">
-        <v>-1.8900000000000006</v>
+      <c r="C19" s="3">
+        <v>-4.5000000000000151E-2</v>
       </c>
       <c r="D19">
         <v>-2.6000000000000023E-2</v>
@@ -700,8 +704,8 @@
       <c r="B20">
         <v>9.6000000000000085E-2</v>
       </c>
-      <c r="C20">
-        <v>1.7100000000000009</v>
+      <c r="C20" s="3">
+        <v>4.0714285714285703E-2</v>
       </c>
       <c r="D20">
         <v>5.600000000000005E-2</v>
@@ -714,8 +718,8 @@
       <c r="B21">
         <v>-1.000000000000334E-3</v>
       </c>
-      <c r="C21">
-        <v>1.6799999999999997</v>
+      <c r="C21" s="3">
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="D21">
         <v>3.6999999999999922E-2</v>
@@ -728,8 +732,8 @@
       <c r="B22">
         <v>-8.8999999999999968E-2</v>
       </c>
-      <c r="C22">
-        <v>-1.3500000000000014</v>
+      <c r="C22" s="3">
+        <v>-3.2142857142857029E-2</v>
       </c>
       <c r="D22">
         <v>-4.4000000000000039E-2</v>
@@ -742,8 +746,8 @@
       <c r="B23">
         <v>-7.6000000000000068E-2</v>
       </c>
-      <c r="C23">
-        <v>1.9600000000000009</v>
+      <c r="C23" s="3">
+        <v>4.6666666666666634E-2</v>
       </c>
       <c r="D23">
         <v>6.800000000000006E-2</v>
@@ -756,8 +760,8 @@
       <c r="B24">
         <v>-5.9999999999997833E-3</v>
       </c>
-      <c r="C24">
-        <v>0.76000000000000512</v>
+      <c r="C24" s="3">
+        <v>1.8095238095238164E-2</v>
       </c>
       <c r="D24">
         <v>1.0000000000000009E-2</v>
@@ -770,8 +774,8 @@
       <c r="B25">
         <v>6.6999999999999726E-2</v>
       </c>
-      <c r="C25">
-        <v>2.1799999999999926</v>
+      <c r="C25" s="3">
+        <v>5.1904761904761676E-2</v>
       </c>
       <c r="D25">
         <v>6.6000000000000059E-2</v>
@@ -784,8 +788,8 @@
       <c r="B26">
         <v>2.1000000000000352E-2</v>
       </c>
-      <c r="C26">
-        <v>0.40000000000000568</v>
+      <c r="C26" s="3">
+        <v>9.523809523809712E-3</v>
       </c>
       <c r="D26">
         <v>-1.0000000000000231E-2</v>
@@ -798,8 +802,8 @@
       <c r="B27">
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="C27">
-        <v>2.5499999999999972</v>
+      <c r="C27" s="3">
+        <v>6.0714285714285721E-2</v>
       </c>
       <c r="D27">
         <v>5.600000000000005E-2</v>
@@ -812,8 +816,8 @@
       <c r="B28">
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="C28">
-        <v>1.019999999999996</v>
+      <c r="C28" s="3">
+        <v>2.4285714285714022E-2</v>
       </c>
       <c r="D28">
         <v>2.7000000000000135E-2</v>
@@ -826,8 +830,8 @@
       <c r="B29">
         <v>-0.14599999999999991</v>
       </c>
-      <c r="C29">
-        <v>2.1400000000000006</v>
+      <c r="C29" s="3">
+        <v>5.0952380952381082E-2</v>
       </c>
       <c r="D29">
         <v>-2.4999999999999911E-2</v>
@@ -840,8 +844,8 @@
       <c r="B30">
         <v>-7.2999999999999954E-2</v>
       </c>
-      <c r="C30">
-        <v>0.32000000000000739</v>
+      <c r="C30" s="3">
+        <v>7.6190476190478584E-3</v>
       </c>
       <c r="D30">
         <v>-2.8000000000000025E-2</v>
@@ -854,8 +858,8 @@
       <c r="B31">
         <v>-1.9000000000000128E-2</v>
       </c>
-      <c r="C31">
-        <v>1.519999999999996</v>
+      <c r="C31" s="3">
+        <v>3.6190476190476106E-2</v>
       </c>
       <c r="D31">
         <v>1.6999999999999904E-2</v>
@@ -868,8 +872,8 @@
       <c r="B32">
         <v>-0.125</v>
       </c>
-      <c r="C32">
-        <v>-4.8400000000000034</v>
+      <c r="C32" s="3">
+        <v>-0.11523809523809536</v>
       </c>
       <c r="D32">
         <v>-0.10299999999999998</v>
@@ -882,8 +886,8 @@
       <c r="B33">
         <v>4.8000000000000043E-2</v>
       </c>
-      <c r="C33">
-        <v>0.12000000000000455</v>
+      <c r="C33" s="3">
+        <v>2.8571428571428914E-3</v>
       </c>
       <c r="D33">
         <v>2.9000000000000137E-2</v>
@@ -896,8 +900,8 @@
       <c r="B34">
         <v>-6.800000000000006E-2</v>
       </c>
-      <c r="C34">
-        <v>-1.9099999999999966</v>
+      <c r="C34" s="3">
+        <v>-4.5476190476190448E-2</v>
       </c>
       <c r="D34">
         <v>-2.7000000000000135E-2</v>
@@ -910,8 +914,8 @@
       <c r="B35">
         <v>0.13899999999999979</v>
       </c>
-      <c r="C35">
-        <v>2.769999999999996</v>
+      <c r="C35" s="3">
+        <v>6.5952380952380985E-2</v>
       </c>
       <c r="D35">
         <v>5.600000000000005E-2</v>
@@ -924,8 +928,8 @@
       <c r="B36">
         <v>-7.1999999999999842E-2</v>
       </c>
-      <c r="C36">
-        <v>3.0300000000000011</v>
+      <c r="C36" s="3">
+        <v>7.2142857142857064E-2</v>
       </c>
       <c r="D36">
         <v>9.1000000000000192E-2</v>
@@ -938,8 +942,8 @@
       <c r="B37">
         <v>2.6000000000000023E-2</v>
       </c>
-      <c r="C37">
-        <v>3.0099999999999909</v>
+      <c r="C37" s="3">
+        <v>7.1666666666666545E-2</v>
       </c>
       <c r="D37">
         <v>8.4999999999999964E-2</v>
@@ -952,8 +956,8 @@
       <c r="B38">
         <v>7.7999999999999847E-2</v>
       </c>
-      <c r="C38">
-        <v>2.8300000000000125</v>
+      <c r="C38" s="3">
+        <v>6.7380952380952541E-2</v>
       </c>
       <c r="D38">
         <v>4.6999999999999709E-2</v>
@@ -966,8 +970,8 @@
       <c r="B39">
         <v>-2.8000000000000025E-2</v>
       </c>
-      <c r="C39">
-        <v>-0.73000000000000398</v>
+      <c r="C39" s="3">
+        <v>-1.7380952380952275E-2</v>
       </c>
       <c r="D39">
         <v>-2.9999999999999805E-2</v>
@@ -980,8 +984,8 @@
       <c r="B40">
         <v>-4.9999999999999822E-2</v>
       </c>
-      <c r="C40">
-        <v>-0.48000000000000398</v>
+      <c r="C40" s="3">
+        <v>-1.1428571428571566E-2</v>
       </c>
       <c r="D40">
         <v>-2.2000000000000242E-2</v>
@@ -994,8 +998,8 @@
       <c r="B41">
         <v>2.8999999999999915E-2</v>
       </c>
-      <c r="C41">
-        <v>0.89000000000000057</v>
+      <c r="C41" s="3">
+        <v>2.1190476190476204E-2</v>
       </c>
       <c r="D41">
         <v>1.6000000000000014E-2</v>
@@ -1008,8 +1012,8 @@
       <c r="B42">
         <v>0.125</v>
       </c>
-      <c r="C42">
-        <v>6.3700000000000045</v>
+      <c r="C42" s="3">
+        <v>0.15166666666666684</v>
       </c>
       <c r="D42">
         <v>0.11800000000000033</v>
@@ -1022,8 +1026,8 @@
       <c r="B43">
         <v>1.4000000000000234E-2</v>
       </c>
-      <c r="C43">
-        <v>0.60999999999999943</v>
+      <c r="C43" s="3">
+        <v>1.4523809523809383E-2</v>
       </c>
       <c r="D43">
         <v>2.9999999999999805E-2</v>
@@ -1036,8 +1040,8 @@
       <c r="B44">
         <v>0.16100000000000003</v>
       </c>
-      <c r="C44">
-        <v>5.1199999999999903</v>
+      <c r="C44" s="3">
+        <v>0.12190476190476174</v>
       </c>
       <c r="D44">
         <v>0.1379999999999999</v>
@@ -1050,8 +1054,8 @@
       <c r="B45">
         <v>8.8999999999999968E-2</v>
       </c>
-      <c r="C45">
-        <v>2.2000000000000028</v>
+      <c r="C45" s="3">
+        <v>5.2380952380952195E-2</v>
       </c>
       <c r="D45">
         <v>0.10200000000000031</v>
@@ -1064,8 +1068,8 @@
       <c r="B46">
         <v>-6.7000000000000171E-2</v>
       </c>
-      <c r="C46">
-        <v>-2.0899999999999892</v>
+      <c r="C46" s="3">
+        <v>-4.976190476190423E-2</v>
       </c>
       <c r="D46">
         <v>-3.8000000000000256E-2</v>
@@ -1078,8 +1082,8 @@
       <c r="B47">
         <v>7.1000000000000174E-2</v>
       </c>
-      <c r="C47">
-        <v>3.3599999999999994</v>
+      <c r="C47" s="3">
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="D47">
         <v>0.10999999999999988</v>
@@ -1092,8 +1096,8 @@
       <c r="B48">
         <v>-0.11100000000000021</v>
       </c>
-      <c r="C48">
-        <v>-4.5500000000000114</v>
+      <c r="C48" s="3">
+        <v>-0.10833333333333384</v>
       </c>
       <c r="D48">
         <v>-6.2999999999999723E-2</v>
@@ -1106,8 +1110,8 @@
       <c r="B49">
         <v>-6.4999999999999947E-2</v>
       </c>
-      <c r="C49">
-        <v>-3.7599999999999909</v>
+      <c r="C49" s="3">
+        <v>-8.9523809523809117E-2</v>
       </c>
       <c r="D49">
         <v>-9.6000000000000085E-2</v>
@@ -1120,8 +1124,8 @@
       <c r="B50">
         <v>7.6000000000000068E-2</v>
       </c>
-      <c r="C50">
-        <v>2.4299999999999926</v>
+      <c r="C50" s="3">
+        <v>5.7857142857142385E-2</v>
       </c>
       <c r="D50">
         <v>6.0999999999999943E-2</v>
@@ -1134,8 +1138,8 @@
       <c r="B51">
         <v>1.9999999999997797E-3</v>
       </c>
-      <c r="C51">
-        <v>0.18999999999999773</v>
+      <c r="C51" s="3">
+        <v>4.5238095238095966E-3</v>
       </c>
       <c r="D51">
         <v>1.6999999999999904E-2</v>
@@ -1148,8 +1152,8 @@
       <c r="B52">
         <v>0.1120000000000001</v>
       </c>
-      <c r="C52">
-        <v>4.3300000000000125</v>
+      <c r="C52" s="3">
+        <v>0.10309523809523835</v>
       </c>
       <c r="D52">
         <v>4.8000000000000043E-2</v>
@@ -1162,8 +1166,8 @@
       <c r="B53">
         <v>7.6000000000000068E-2</v>
       </c>
-      <c r="C53">
-        <v>2.4899999999999949</v>
+      <c r="C53" s="3">
+        <v>5.9285714285714164E-2</v>
       </c>
       <c r="D53">
         <v>5.9000000000000163E-2</v>
@@ -1176,8 +1180,8 @@
       <c r="B54">
         <v>-0.12000000000000011</v>
       </c>
-      <c r="C54">
-        <v>-3.4699999999999989</v>
+      <c r="C54" s="3">
+        <v>-8.2619047619047592E-2</v>
       </c>
       <c r="D54">
         <v>-0.10999999999999988</v>
@@ -1190,8 +1194,8 @@
       <c r="B55">
         <v>-9.7999999999999865E-2</v>
       </c>
-      <c r="C55">
-        <v>-3.1700000000000017</v>
+      <c r="C55" s="3">
+        <v>-7.5476190476190474E-2</v>
       </c>
       <c r="D55">
         <v>-5.400000000000027E-2</v>
@@ -1204,8 +1208,8 @@
       <c r="B56">
         <v>-2.3000000000000131E-2</v>
       </c>
-      <c r="C56">
-        <v>-2.2900000000000063</v>
+      <c r="C56" s="3">
+        <v>-5.4523809523809419E-2</v>
       </c>
       <c r="D56">
         <v>-6.0000000000000053E-2</v>
@@ -1218,8 +1222,8 @@
       <c r="B57">
         <v>3.2999999999999918E-2</v>
       </c>
-      <c r="C57">
-        <v>1.8900000000000006</v>
+      <c r="C57" s="3">
+        <v>4.4999999999999929E-2</v>
       </c>
       <c r="D57">
         <v>4.7000000000000153E-2</v>
@@ -1232,8 +1236,8 @@
       <c r="B58">
         <v>-2.8000000000000025E-2</v>
       </c>
-      <c r="C58">
-        <v>-2.039999999999992</v>
+      <c r="C58" s="3">
+        <v>-4.8571428571428488E-2</v>
       </c>
       <c r="D58">
         <v>-4.8000000000000043E-2</v>
@@ -1246,8 +1250,8 @@
       <c r="B59">
         <v>0.13700000000000001</v>
       </c>
-      <c r="C59">
-        <v>5.0300000000000011</v>
+      <c r="C59" s="3">
+        <v>0.11976190476190496</v>
       </c>
       <c r="D59">
         <v>0.15300000000000002</v>
@@ -1260,8 +1264,8 @@
       <c r="B60">
         <v>0.13600000000000012</v>
       </c>
-      <c r="C60">
-        <v>5.3299999999999983</v>
+      <c r="C60" s="3">
+        <v>0.12690476190476163</v>
       </c>
       <c r="D60">
         <v>0.129</v>
@@ -1274,8 +1278,8 @@
       <c r="B61">
         <v>-4.4999999999999929E-2</v>
       </c>
-      <c r="C61">
-        <v>1.3900000000000006</v>
+      <c r="C61" s="3">
+        <v>3.3095238095238066E-2</v>
       </c>
       <c r="D61">
         <v>5.699999999999994E-2</v>
@@ -1288,8 +1292,8 @@
       <c r="B62">
         <v>0.12199999999999989</v>
       </c>
-      <c r="C62">
-        <v>2.5799999999999983</v>
+      <c r="C62" s="3">
+        <v>6.1428571428571388E-2</v>
       </c>
       <c r="D62">
         <v>8.8000000000000078E-2</v>
@@ -1302,8 +1306,8 @@
       <c r="B63">
         <v>7.0000000000000284E-2</v>
       </c>
-      <c r="C63">
-        <v>6</v>
+      <c r="C63" s="3">
+        <v>0.14285714285714279</v>
       </c>
       <c r="D63">
         <v>0.15399999999999991</v>
@@ -1316,8 +1320,8 @@
       <c r="B64">
         <v>-0.12600000000000033</v>
       </c>
-      <c r="C64">
-        <v>-4.0600000000000023</v>
+      <c r="C64" s="3">
+        <v>-9.6666666666666679E-2</v>
       </c>
       <c r="D64">
         <v>-3.0000000000001137E-3</v>
@@ -1330,8 +1334,8 @@
       <c r="B65">
         <v>0.11800000000000033</v>
       </c>
-      <c r="C65">
-        <v>-1.1200000000000045</v>
+      <c r="C65" s="3">
+        <v>-2.6666666666666838E-2</v>
       </c>
       <c r="D65">
         <v>-1.2999999999999901E-2</v>
@@ -1344,8 +1348,8 @@
       <c r="B66">
         <v>1.9999999999997797E-3</v>
       </c>
-      <c r="C66">
-        <v>-0.75</v>
+      <c r="C66" s="3">
+        <v>-1.7857142857142794E-2</v>
       </c>
       <c r="D66">
         <v>-7.7999999999999847E-2</v>
@@ -1358,8 +1362,8 @@
       <c r="B67">
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="C67">
-        <v>6.25</v>
+      <c r="C67" s="3">
+        <v>0.14880952380952372</v>
       </c>
       <c r="D67">
         <v>0.20500000000000007</v>
@@ -1372,8 +1376,8 @@
       <c r="B68">
         <v>0.13600000000000012</v>
       </c>
-      <c r="C68">
-        <v>4.6700000000000017</v>
+      <c r="C68" s="3">
+        <v>0.11119047619047651</v>
       </c>
       <c r="D68">
         <v>9.9999999999999645E-2</v>
@@ -1386,8 +1390,8 @@
       <c r="B69">
         <v>0.10599999999999987</v>
       </c>
-      <c r="C69">
-        <v>3.5400000000000063</v>
+      <c r="C69" s="3">
+        <v>8.4285714285714519E-2</v>
       </c>
       <c r="D69">
         <v>3.9000000000000146E-2</v>
@@ -1400,8 +1404,8 @@
       <c r="B70">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="C70">
-        <v>-2.6099999999999994</v>
+      <c r="C70" s="3">
+        <v>-6.2142857142857277E-2</v>
       </c>
       <c r="D70">
         <v>-9.0999999999999748E-2</v>
@@ -1414,8 +1418,8 @@
       <c r="B71">
         <v>0.17400000000000038</v>
       </c>
-      <c r="C71">
-        <v>7.6599999999999966</v>
+      <c r="C71" s="3">
+        <v>0.18238095238095209</v>
       </c>
       <c r="D71">
         <v>0.23899999999999988</v>
@@ -1428,8 +1432,8 @@
       <c r="B72">
         <v>6.3999999999999613E-2</v>
       </c>
-      <c r="C72">
-        <v>1.9300000000000068</v>
+      <c r="C72" s="3">
+        <v>4.5952380952381411E-2</v>
       </c>
       <c r="D72">
         <v>0.18900000000000006</v>
@@ -1442,8 +1446,8 @@
       <c r="B73">
         <v>0.14600000000000035</v>
       </c>
-      <c r="C73">
-        <v>5.5300000000000011</v>
+      <c r="C73" s="3">
+        <v>0.13166666666666638</v>
       </c>
       <c r="D73">
         <v>0.19599999999999973</v>
@@ -1456,8 +1460,8 @@
       <c r="B74">
         <v>7.7999999999999847E-2</v>
       </c>
-      <c r="C74">
-        <v>-2</v>
+      <c r="C74" s="3">
+        <v>-4.761904761904745E-2</v>
       </c>
       <c r="D74">
         <v>-9.2999999999999972E-2</v>
@@ -1470,8 +1474,8 @@
       <c r="B75">
         <v>-4.7000000000000153E-2</v>
       </c>
-      <c r="C75">
-        <v>-0.3200000000000216</v>
+      <c r="C75" s="3">
+        <v>-7.6190476190483025E-3</v>
       </c>
       <c r="D75">
         <v>-3.0999999999999694E-2</v>
@@ -1484,8 +1488,8 @@
       <c r="B76">
         <v>7.0000000000000284E-2</v>
       </c>
-      <c r="C76">
-        <v>6.5900000000000034</v>
+      <c r="C76" s="3">
+        <v>0.15690476190476232</v>
       </c>
       <c r="D76">
         <v>0.1769999999999996</v>
@@ -1498,8 +1502,8 @@
       <c r="B77">
         <v>-1.1000000000000121E-2</v>
       </c>
-      <c r="C77">
-        <v>-0.35999999999998522</v>
+      <c r="C77" s="3">
+        <v>-8.5714285714284522E-3</v>
       </c>
       <c r="D77">
         <v>-8.9999999999999858E-2</v>
@@ -1512,8 +1516,8 @@
       <c r="B78">
         <v>4.1999999999999815E-2</v>
       </c>
-      <c r="C78">
-        <v>3.2599999999999909</v>
+      <c r="C78" s="3">
+        <v>7.7619047619047699E-2</v>
       </c>
       <c r="D78">
         <v>3.1000000000000139E-2</v>
@@ -1526,8 +1530,8 @@
       <c r="B79">
         <v>6.899999999999995E-2</v>
       </c>
-      <c r="C79">
-        <v>4.8300000000000125</v>
+      <c r="C79" s="3">
+        <v>0.11500000000000021</v>
       </c>
       <c r="D79">
         <v>0.17600000000000016</v>
@@ -1540,8 +1544,8 @@
       <c r="B80">
         <v>-7.3999999999999844E-2</v>
       </c>
-      <c r="C80">
-        <v>-2.4200000000000159</v>
+      <c r="C80" s="3">
+        <v>-5.7619047619048125E-2</v>
       </c>
       <c r="D80">
         <v>-5.500000000000016E-2</v>
@@ -1554,8 +1558,8 @@
       <c r="B81">
         <v>-0.14900000000000002</v>
       </c>
-      <c r="C81">
-        <v>-4.6999999999999886</v>
+      <c r="C81" s="3">
+        <v>-0.11190476190476151</v>
       </c>
       <c r="D81">
         <v>-9.9000000000000199E-2</v>
@@ -1568,8 +1572,8 @@
       <c r="B82">
         <v>-0.21300000000000008</v>
       </c>
-      <c r="C82">
-        <v>-8.9000000000000057</v>
+      <c r="C82" s="3">
+        <v>-0.21190476190476204</v>
       </c>
       <c r="D82">
         <v>-0.23899999999999988</v>
@@ -1582,8 +1586,8 @@
       <c r="B83">
         <v>-2.8999999999999915E-2</v>
       </c>
-      <c r="C83">
-        <v>-1.8700000000000045</v>
+      <c r="C83" s="3">
+        <v>-4.4523809523809632E-2</v>
       </c>
       <c r="D83">
         <v>-0.12699999999999978</v>
@@ -1596,8 +1600,8 @@
       <c r="B84">
         <v>-0.10999999999999988</v>
       </c>
-      <c r="C84">
-        <v>-5.6899999999999977</v>
+      <c r="C84" s="3">
+        <v>-0.13547619047619053</v>
       </c>
       <c r="D84">
         <v>-0.24000000000000021</v>
@@ -1610,8 +1614,8 @@
       <c r="B85">
         <v>-7.6000000000000068E-2</v>
       </c>
-      <c r="C85">
-        <v>-4.4299999999999926</v>
+      <c r="C85" s="3">
+        <v>-0.10547619047619028</v>
       </c>
       <c r="D85">
         <v>-0.13600000000000012</v>
@@ -1624,8 +1628,8 @@
       <c r="B86">
         <v>1.7999999999999794E-2</v>
       </c>
-      <c r="C86">
-        <v>1.1799999999999926</v>
+      <c r="C86" s="3">
+        <v>2.8095238095237729E-2</v>
       </c>
       <c r="D86">
         <v>5.1000000000000156E-2</v>
@@ -1638,8 +1642,8 @@
       <c r="B87">
         <v>8.9000000000000412E-2</v>
       </c>
-      <c r="C87">
-        <v>0.49000000000000909</v>
+      <c r="C87" s="3">
+        <v>1.1666666666667158E-2</v>
       </c>
       <c r="D87">
         <v>3.6999999999999922E-2</v>
@@ -1652,8 +1656,8 @@
       <c r="B88">
         <v>-0.25800000000000001</v>
       </c>
-      <c r="C88">
-        <v>-7.8200000000000074</v>
+      <c r="C88" s="3">
+        <v>-0.18619047619047668</v>
       </c>
       <c r="D88">
         <v>-0.15799999999999992</v>
@@ -1666,8 +1670,8 @@
       <c r="B89">
         <v>-1.5000000000000124E-2</v>
       </c>
-      <c r="C89">
-        <v>-5.4500000000000028</v>
+      <c r="C89" s="3">
+        <v>-0.12976190476190474</v>
       </c>
       <c r="D89">
         <v>-0.10099999999999998</v>
@@ -1680,8 +1684,8 @@
       <c r="B90">
         <v>-0.21600000000000019</v>
       </c>
-      <c r="C90">
-        <v>-5.5599999999999881</v>
+      <c r="C90" s="3">
+        <v>-0.13238095238095182</v>
       </c>
       <c r="D90">
         <v>-0.13600000000000012</v>
@@ -1694,8 +1698,8 @@
       <c r="B91">
         <v>0.14999999999999991</v>
       </c>
-      <c r="C91">
-        <v>12.339999999999989</v>
+      <c r="C91" s="3">
+        <v>0.2938095238095233</v>
       </c>
       <c r="D91">
         <v>0.21200000000000019</v>
@@ -1708,8 +1712,8 @@
       <c r="B92">
         <v>-0.30599999999999961</v>
       </c>
-      <c r="C92">
-        <v>-12.949999999999989</v>
+      <c r="C92" s="3">
+        <v>-0.30833333333333313</v>
       </c>
       <c r="D92">
         <v>-0.24700000000000033</v>
@@ -1722,8 +1726,8 @@
       <c r="B93">
         <v>-0.34800000000000009</v>
       </c>
-      <c r="C93">
-        <v>-10.460000000000008</v>
+      <c r="C93" s="3">
+        <v>-0.24904761904761896</v>
       </c>
       <c r="D93">
         <v>-0.34699999999999998</v>
@@ -1736,8 +1740,8 @@
       <c r="B94">
         <v>-0.2220000000000002</v>
       </c>
-      <c r="C94">
-        <v>-11.010000000000005</v>
+      <c r="C94" s="3">
+        <v>-0.26214285714285745</v>
       </c>
       <c r="D94">
         <v>-0.21899999999999986</v>
@@ -1750,8 +1754,8 @@
       <c r="B95">
         <v>-0.16699999999999982</v>
       </c>
-      <c r="C95">
-        <v>-6.4299999999999926</v>
+      <c r="C95" s="3">
+        <v>-0.15309523809523773</v>
       </c>
       <c r="D95">
         <v>-0.12199999999999989</v>
@@ -1764,8 +1768,8 @@
       <c r="B96">
         <v>-0.13300000000000001</v>
       </c>
-      <c r="C96">
-        <v>-3.3400000000000034</v>
+      <c r="C96" s="3">
+        <v>-7.9523809523809774E-2</v>
       </c>
       <c r="D96">
         <v>-0.1160000000000001</v>
@@ -1778,8 +1782,8 @@
       <c r="B97">
         <v>-7.4000000000000066E-2</v>
       </c>
-      <c r="C97">
-        <v>-1.1299999999999955</v>
+      <c r="C97" s="3">
+        <v>-2.6904761904761765E-2</v>
       </c>
       <c r="D97">
         <v>6.0000000000000053E-2</v>
@@ -1792,8 +1796,8 @@
       <c r="B98">
         <v>-0.1080000000000001</v>
       </c>
-      <c r="C98">
-        <v>-5.6700000000000017</v>
+      <c r="C98" s="3">
+        <v>-0.13500000000000001</v>
       </c>
       <c r="D98">
         <v>-0.129</v>
@@ -1806,8 +1810,8 @@
       <c r="B99">
         <v>-0.19499999999999984</v>
       </c>
-      <c r="C99">
-        <v>-6.1400000000000006</v>
+      <c r="C99" s="3">
+        <v>-0.1461904761904762</v>
       </c>
       <c r="D99">
         <v>-0.15799999999999992</v>
@@ -1820,8 +1824,8 @@
       <c r="B100">
         <v>4.2999999999999927E-2</v>
       </c>
-      <c r="C100">
-        <v>1.0399999999999991</v>
+      <c r="C100" s="3">
+        <v>2.4761904761904763E-2</v>
       </c>
       <c r="D100">
         <v>-1.4000000000000012E-2</v>
@@ -1834,8 +1838,8 @@
       <c r="B101">
         <v>-0.125</v>
       </c>
-      <c r="C101">
-        <v>-8.0399999999999991</v>
+      <c r="C101" s="3">
+        <v>-0.1914285714285715</v>
       </c>
       <c r="D101">
         <v>-0.17900000000000005</v>
@@ -1848,8 +1852,8 @@
       <c r="B102">
         <v>-1.1000000000000121E-2</v>
       </c>
-      <c r="C102">
-        <v>-0.78999999999999915</v>
+      <c r="C102" s="3">
+        <v>-1.8809523809523609E-2</v>
       </c>
       <c r="D102">
         <v>-7.8000000000000069E-2</v>
@@ -1862,8 +1866,8 @@
       <c r="B103">
         <v>3.0000000000001137E-3</v>
       </c>
-      <c r="C103">
-        <v>-5.0600000000000023</v>
+      <c r="C103" s="3">
+        <v>-0.12047619047619063</v>
       </c>
       <c r="D103">
         <v>-4.0000000000000036E-2</v>
@@ -1876,8 +1880,8 @@
       <c r="B104">
         <v>-0.16300000000000003</v>
       </c>
-      <c r="C104">
-        <v>-1.6599999999999966</v>
+      <c r="C104" s="3">
+        <v>-3.9523809523809406E-2</v>
       </c>
       <c r="D104">
         <v>-0.14799999999999991</v>
@@ -1890,8 +1894,8 @@
       <c r="B105">
         <v>0.125</v>
       </c>
-      <c r="C105">
-        <v>4.509999999999998</v>
+      <c r="C105" s="3">
+        <v>0.10738095238095224</v>
       </c>
       <c r="D105">
         <v>8.6999999999999966E-2</v>
@@ -1904,8 +1908,8 @@
       <c r="B106">
         <v>0.15900000000000003</v>
       </c>
-      <c r="C106">
-        <v>2.009999999999998</v>
+      <c r="C106" s="3">
+        <v>4.785714285714282E-2</v>
       </c>
       <c r="D106">
         <v>0.18599999999999994</v>
@@ -1918,8 +1922,8 @@
       <c r="B107">
         <v>1.8999999999999906E-2</v>
       </c>
-      <c r="C107">
-        <v>-7.6000000000000014</v>
+      <c r="C107" s="3">
+        <v>-0.18095238095238098</v>
       </c>
       <c r="D107">
         <v>-6.899999999999995E-2</v>
@@ -1932,8 +1936,8 @@
       <c r="B108">
         <v>-6.9999999999998952E-3</v>
       </c>
-      <c r="C108">
-        <v>6.2000000000000028</v>
+      <c r="C108" s="3">
+        <v>0.14761904761904776</v>
       </c>
       <c r="D108">
         <v>-9.2000000000000082E-2</v>
@@ -1946,8 +1950,8 @@
       <c r="B109">
         <v>4.8000000000000043E-2</v>
       </c>
-      <c r="C109">
-        <v>-0.58999999999999631</v>
+      <c r="C109" s="3">
+        <v>-1.4047619047619087E-2</v>
       </c>
       <c r="D109">
         <v>3.1000000000000139E-2</v>
@@ -1960,8 +1964,8 @@
       <c r="B110">
         <v>2.2999999999999909E-2</v>
       </c>
-      <c r="C110">
-        <v>-2.0200000000000031</v>
+      <c r="C110" s="3">
+        <v>-4.809523809523808E-2</v>
       </c>
       <c r="D110">
         <v>-7.6999999999999957E-2</v>
@@ -1974,8 +1978,8 @@
       <c r="B111">
         <v>3.300000000000014E-2</v>
       </c>
-      <c r="C111">
-        <v>-3.5900000000000034</v>
+      <c r="C111" s="3">
+        <v>-8.5476190476190594E-2</v>
       </c>
       <c r="D111">
         <v>-2.6000000000000023E-2</v>
@@ -1988,8 +1992,8 @@
       <c r="B112">
         <v>-0.15700000000000003</v>
       </c>
-      <c r="C112">
-        <v>8.00000000000054E-2</v>
+      <c r="C112" s="3">
+        <v>1.9047619047620756E-3</v>
       </c>
       <c r="D112">
         <v>-0.13400000000000012</v>
@@ -2002,8 +2006,8 @@
       <c r="B113">
         <v>8.6999999999999966E-2</v>
       </c>
-      <c r="C113">
-        <v>5.1899999999999977</v>
+      <c r="C113" s="3">
+        <v>0.12357142857142844</v>
       </c>
       <c r="D113">
         <v>5.2000000000000046E-2</v>
@@ -2016,8 +2020,8 @@
       <c r="B114">
         <v>0.15100000000000002</v>
       </c>
-      <c r="C114">
-        <v>1.0799999999999983</v>
+      <c r="C114" s="3">
+        <v>2.5714285714285801E-2</v>
       </c>
       <c r="D114">
         <v>-4.8999999999999932E-2</v>
@@ -2030,8 +2034,8 @@
       <c r="B115">
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="C115">
-        <v>2.4200000000000017</v>
+      <c r="C115" s="3">
+        <v>5.7619047619047681E-2</v>
       </c>
       <c r="D115">
         <v>6.9999999999998952E-3</v>
@@ -2044,8 +2048,8 @@
       <c r="B116">
         <v>9.3999999999999861E-2</v>
       </c>
-      <c r="C116">
-        <v>3.7800000000000011</v>
+      <c r="C116" s="3">
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="D116">
         <v>0.10400000000000009</v>
@@ -2058,8 +2062,8 @@
       <c r="B117">
         <v>9.099999999999997E-2</v>
       </c>
-      <c r="C117">
-        <v>3.990000000000002</v>
+      <c r="C117" s="3">
+        <v>9.5000000000000195E-2</v>
       </c>
       <c r="D117">
         <v>0.17199999999999993</v>
@@ -2072,8 +2076,8 @@
       <c r="B118">
         <v>-7.7999999999999847E-2</v>
       </c>
-      <c r="C118">
-        <v>-3.1300000000000026</v>
+      <c r="C118" s="3">
+        <v>-7.4523809523809659E-2</v>
       </c>
       <c r="D118">
         <v>-8.6999999999999966E-2</v>
@@ -2086,8 +2090,8 @@
       <c r="B119">
         <v>4.0999999999999925E-2</v>
       </c>
-      <c r="C119">
-        <v>0.14000000000000057</v>
+      <c r="C119" s="3">
+        <v>3.3333333333334103E-3</v>
       </c>
       <c r="D119">
         <v>2.6000000000000023E-2</v>
@@ -2100,8 +2104,8 @@
       <c r="B120">
         <v>3.0000000000001137E-3</v>
       </c>
-      <c r="C120">
-        <v>-0.66000000000000369</v>
+      <c r="C120" s="3">
+        <v>-1.5714285714285792E-2</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2114,8 +2118,8 @@
       <c r="B121">
         <v>-5.600000000000005E-2</v>
       </c>
-      <c r="C121">
-        <v>-1.3200000000000003</v>
+      <c r="C121" s="3">
+        <v>-3.1428571428571583E-2</v>
       </c>
       <c r="D121">
         <v>-7.0000000000000062E-2</v>
@@ -2128,8 +2132,8 @@
       <c r="B122">
         <v>3.6999999999999922E-2</v>
       </c>
-      <c r="C122">
-        <v>2.5900000000000034</v>
+      <c r="C122" s="3">
+        <v>6.1666666666666758E-2</v>
       </c>
       <c r="D122">
         <v>-4.9999999999998934E-3</v>
@@ -2142,8 +2146,8 @@
       <c r="B123">
         <v>0.18300000000000005</v>
       </c>
-      <c r="C123">
-        <v>4.93</v>
+      <c r="C123" s="3">
+        <v>0.11738095238095236</v>
       </c>
       <c r="D123">
         <v>0.13300000000000001</v>
@@ -2156,8 +2160,8 @@
       <c r="B124">
         <v>5.699999999999994E-2</v>
       </c>
-      <c r="C124">
-        <v>2.0700000000000003</v>
+      <c r="C124" s="3">
+        <v>4.9285714285714377E-2</v>
       </c>
       <c r="D124">
         <v>1.4999999999999902E-2</v>
@@ -2170,8 +2174,8 @@
       <c r="B125">
         <v>0.1160000000000001</v>
       </c>
-      <c r="C125">
-        <v>2.6199999999999974</v>
+      <c r="C125" s="3">
+        <v>6.2380952380952204E-2</v>
       </c>
       <c r="D125">
         <v>3.2000000000000028E-2</v>
@@ -2184,8 +2188,8 @@
       <c r="B126">
         <v>9.199999999999986E-2</v>
       </c>
-      <c r="C126">
-        <v>3.6299999999999955</v>
+      <c r="C126" s="3">
+        <v>8.6428571428571521E-2</v>
       </c>
       <c r="D126">
         <v>7.4000000000000066E-2</v>
@@ -2198,8 +2202,8 @@
       <c r="B127">
         <v>3.8000000000000034E-2</v>
       </c>
-      <c r="C127">
-        <v>3.7800000000000011</v>
+      <c r="C127" s="3">
+        <v>8.9999999999999858E-2</v>
       </c>
       <c r="D127">
         <v>0.18499999999999983</v>
@@ -2212,8 +2216,8 @@
       <c r="B128">
         <v>7.0999999999999952E-2</v>
       </c>
-      <c r="C128">
-        <v>2.730000000000004</v>
+      <c r="C128" s="3">
+        <v>6.5000000000000169E-2</v>
       </c>
       <c r="D128">
         <v>4.7000000000000153E-2</v>
@@ -2226,8 +2230,8 @@
       <c r="B129">
         <v>1.2999999999999901E-2</v>
       </c>
-      <c r="C129">
-        <v>-0.21999999999999886</v>
+      <c r="C129" s="3">
+        <v>-5.2380952380952639E-3</v>
       </c>
       <c r="D129">
         <v>4.0000000000000036E-3</v>
@@ -2240,8 +2244,8 @@
       <c r="B130">
         <v>-0.14399999999999968</v>
       </c>
-      <c r="C130">
-        <v>-1.7600000000000051</v>
+      <c r="C130" s="3">
+        <v>-4.1904761904761889E-2</v>
       </c>
       <c r="D130">
         <v>-7.6000000000000068E-2</v>
@@ -2254,8 +2258,8 @@
       <c r="B131">
         <v>-3.0000000000001137E-3</v>
       </c>
-      <c r="C131">
-        <v>0.51000000000000512</v>
+      <c r="C131" s="3">
+        <v>1.2142857142857233E-2</v>
       </c>
       <c r="D131">
         <v>-6.0000000000000053E-3</v>
@@ -2268,8 +2272,8 @@
       <c r="B132">
         <v>-0.18700000000000006</v>
       </c>
-      <c r="C132">
-        <v>-7.8800000000000026</v>
+      <c r="C132" s="3">
+        <v>-0.1876190476190478</v>
       </c>
       <c r="D132">
         <v>-0.17500000000000004</v>
@@ -2282,8 +2286,8 @@
       <c r="B133">
         <v>1.2000000000000011E-2</v>
       </c>
-      <c r="C133">
-        <v>-0.20999999999999375</v>
+      <c r="C133" s="3">
+        <v>-4.9999999999998934E-3</v>
       </c>
       <c r="D133">
         <v>1.0000000000001119E-3</v>
@@ -2296,8 +2300,8 @@
       <c r="B134">
         <v>0.15800000000000014</v>
       </c>
-      <c r="C134">
-        <v>4.5899999999999963</v>
+      <c r="C134" s="3">
+        <v>0.10928571428571421</v>
       </c>
       <c r="D134">
         <v>0.16100000000000003</v>
@@ -2310,8 +2314,8 @@
       <c r="B135">
         <v>9.2999999999999972E-2</v>
       </c>
-      <c r="C135">
-        <v>1.2099999999999937</v>
+      <c r="C135" s="3">
+        <v>2.880952380952384E-2</v>
       </c>
       <c r="D135">
         <v>2.9999999999999805E-2</v>
@@ -2324,8 +2328,8 @@
       <c r="B136">
         <v>0.10199999999999987</v>
       </c>
-      <c r="C136">
-        <v>4.5</v>
+      <c r="C136" s="3">
+        <v>0.10714285714285698</v>
       </c>
       <c r="D136">
         <v>0.15700000000000003</v>
@@ -2338,8 +2342,8 @@
       <c r="B137">
         <v>-3.9000000000000146E-2</v>
       </c>
-      <c r="C137">
-        <v>-1.9199999999999875</v>
+      <c r="C137" s="3">
+        <v>-4.5714285714285374E-2</v>
       </c>
       <c r="D137">
         <v>-2.0999999999999908E-2</v>
@@ -2352,8 +2356,8 @@
       <c r="B138">
         <v>-1.6999999999999682E-2</v>
       </c>
-      <c r="C138">
-        <v>1.3099999999999881</v>
+      <c r="C138" s="3">
+        <v>3.1190476190475991E-2</v>
       </c>
       <c r="D138">
         <v>-1.5000000000000124E-2</v>
@@ -2366,8 +2370,8 @@
       <c r="B139">
         <v>3.2999999999999696E-2</v>
       </c>
-      <c r="C139">
-        <v>1.6600000000000108</v>
+      <c r="C139" s="3">
+        <v>3.9523809523809739E-2</v>
       </c>
       <c r="D139">
         <v>-9.9999999999997868E-3</v>
@@ -2380,8 +2384,8 @@
       <c r="B140">
         <v>-0.19699999999999984</v>
       </c>
-      <c r="C140">
-        <v>-4.210000000000008</v>
+      <c r="C140" s="3">
+        <v>-0.10023809523809546</v>
       </c>
       <c r="D140">
         <v>-0.121</v>
@@ -2394,8 +2398,8 @@
       <c r="B141">
         <v>-2.4000000000000021E-2</v>
       </c>
-      <c r="C141">
-        <v>2.5</v>
+      <c r="C141" s="3">
+        <v>5.9523809523809534E-2</v>
       </c>
       <c r="D141">
         <v>2.4999999999999911E-2</v>
@@ -2408,8 +2412,8 @@
       <c r="B142">
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="C142">
-        <v>0.45000000000000284</v>
+      <c r="C142" s="3">
+        <v>1.0714285714285898E-2</v>
       </c>
       <c r="D142">
         <v>2.8999999999999915E-2</v>
@@ -2422,8 +2426,8 @@
       <c r="B143">
         <v>-0.11399999999999988</v>
       </c>
-      <c r="C143">
-        <v>-2.9299999999999926</v>
+      <c r="C143" s="3">
+        <v>-6.9761904761904692E-2</v>
       </c>
       <c r="D143">
         <v>-6.6999999999999948E-2</v>
@@ -2436,8 +2440,8 @@
       <c r="B144">
         <v>-1.0000000000001119E-3</v>
       </c>
-      <c r="C144">
-        <v>0.55999999999998806</v>
+      <c r="C144" s="3">
+        <v>1.3333333333332975E-2</v>
       </c>
       <c r="D144">
         <v>2.6000000000000023E-2</v>
@@ -2450,8 +2454,8 @@
       <c r="B145">
         <v>6.0999999999999943E-2</v>
       </c>
-      <c r="C145">
-        <v>1.8700000000000045</v>
+      <c r="C145" s="3">
+        <v>4.4523809523809632E-2</v>
       </c>
       <c r="D145">
         <v>5.4999999999999938E-2</v>
@@ -2464,8 +2468,8 @@
       <c r="B146">
         <v>0.12400000000000011</v>
       </c>
-      <c r="C146">
-        <v>4.8799999999999955</v>
+      <c r="C146" s="3">
+        <v>0.11619047619047618</v>
       </c>
       <c r="D146">
         <v>0.14500000000000002</v>
@@ -2478,8 +2482,8 @@
       <c r="B147">
         <v>0.14000000000000012</v>
       </c>
-      <c r="C147">
-        <v>4.6099999999999994</v>
+      <c r="C147" s="3">
+        <v>0.10976190476190473</v>
       </c>
       <c r="D147">
         <v>0.11300000000000021</v>
@@ -2492,8 +2496,8 @@
       <c r="B148">
         <v>-1.2000000000000011E-2</v>
       </c>
-      <c r="C148">
-        <v>-1.8399999999999892</v>
+      <c r="C148" s="3">
+        <v>-4.3809523809523521E-2</v>
       </c>
       <c r="D148">
         <v>-5.1000000000000156E-2</v>
@@ -2506,8 +2510,8 @@
       <c r="B149">
         <v>-2.8000000000000025E-2</v>
       </c>
-      <c r="C149">
-        <v>0.53000000000000114</v>
+      <c r="C149" s="3">
+        <v>1.261904761904753E-2</v>
       </c>
       <c r="D149">
         <v>2.9999999999999805E-2</v>
@@ -2520,8 +2524,8 @@
       <c r="B150">
         <v>-2.100000000000013E-2</v>
       </c>
-      <c r="C150">
-        <v>-0.83000000000001251</v>
+      <c r="C150" s="3">
+        <v>-1.9761904761904869E-2</v>
       </c>
       <c r="D150">
         <v>-2.8000000000000025E-2</v>
@@ -2534,8 +2538,8 @@
       <c r="B151">
         <v>2.9000000000000137E-2</v>
       </c>
-      <c r="C151">
-        <v>0.15000000000000568</v>
+      <c r="C151" s="3">
+        <v>3.5714285714285587E-3</v>
       </c>
       <c r="D151">
         <v>-4.0000000000000036E-3</v>
@@ -2548,8 +2552,8 @@
       <c r="B152">
         <v>-3.0000000000000027E-2</v>
       </c>
-      <c r="C152">
-        <v>-1.4599999999999937</v>
+      <c r="C152" s="3">
+        <v>-3.476190476190455E-2</v>
       </c>
       <c r="D152">
         <v>-5.1999999999999824E-2</v>
@@ -2562,8 +2566,8 @@
       <c r="B153">
         <v>3.9999999999999813E-2</v>
       </c>
-      <c r="C153">
-        <v>-6.0000000000002274E-2</v>
+      <c r="C153" s="3">
+        <v>-1.4285714285715567E-3</v>
       </c>
       <c r="D153">
         <v>7.1999999999999842E-2</v>
@@ -2576,8 +2580,8 @@
       <c r="B154">
         <v>-0.121</v>
       </c>
-      <c r="C154">
-        <v>-5.3100000000000023</v>
+      <c r="C154" s="3">
+        <v>-0.12642857142857133</v>
       </c>
       <c r="D154">
         <v>-9.7999999999999865E-2</v>
@@ -2590,8 +2594,8 @@
       <c r="B155">
         <v>-2.0999999999999908E-2</v>
       </c>
-      <c r="C155">
-        <v>0.23999999999999488</v>
+      <c r="C155" s="3">
+        <v>5.7142857142855608E-3</v>
       </c>
       <c r="D155">
         <v>-6.0000000000000053E-3</v>
@@ -2604,8 +2608,8 @@
       <c r="B156">
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="C156">
-        <v>3.6300000000000097</v>
+      <c r="C156" s="3">
+        <v>8.6428571428571521E-2</v>
       </c>
       <c r="D156">
         <v>4.7000000000000153E-2</v>
@@ -2618,8 +2622,8 @@
       <c r="B157">
         <v>0.10200000000000009</v>
       </c>
-      <c r="C157">
-        <v>3.6699999999999875</v>
+      <c r="C157" s="3">
+        <v>8.7380952380952115E-2</v>
       </c>
       <c r="D157">
         <v>0.11599999999999988</v>
@@ -2632,8 +2636,8 @@
       <c r="B158">
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="C158">
-        <v>3.3000000000000114</v>
+      <c r="C158" s="3">
+        <v>7.8571428571428958E-2</v>
       </c>
       <c r="D158">
         <v>9.2999999999999972E-2</v>
@@ -2646,8 +2650,8 @@
       <c r="B159">
         <v>-4.6999999999999709E-2</v>
       </c>
-      <c r="C159">
-        <v>-2.3000000000000114</v>
+      <c r="C159" s="3">
+        <v>-5.4761904761905011E-2</v>
       </c>
       <c r="D159">
         <v>-8.6999999999999744E-2</v>
@@ -2660,8 +2664,8 @@
       <c r="B160">
         <v>-7.0000000000000284E-2</v>
       </c>
-      <c r="C160">
-        <v>-3.25</v>
+      <c r="C160" s="3">
+        <v>-7.738095238095255E-2</v>
       </c>
       <c r="D160">
         <v>-0.10900000000000021</v>
@@ -2674,8 +2678,8 @@
       <c r="B161">
         <v>-6.7999999999999838E-2</v>
       </c>
-      <c r="C161">
-        <v>-2.789999999999992</v>
+      <c r="C161" s="3">
+        <v>-6.6428571428571059E-2</v>
       </c>
       <c r="D161">
         <v>-6.6999999999999948E-2</v>
@@ -2688,8 +2692,8 @@
       <c r="B162">
         <v>1.9000000000000128E-2</v>
       </c>
-      <c r="C162">
-        <v>0.56000000000000227</v>
+      <c r="C162" s="3">
+        <v>1.3333333333333197E-2</v>
       </c>
       <c r="D162">
         <v>3.2000000000000028E-2</v>
@@ -2702,8 +2706,8 @@
       <c r="B163">
         <v>-4.2000000000000037E-2</v>
       </c>
-      <c r="C163">
-        <v>-0.68000000000000682</v>
+      <c r="C163" s="3">
+        <v>-1.6190476190476311E-2</v>
       </c>
       <c r="D163">
         <v>-3.300000000000014E-2</v>
@@ -2716,8 +2720,8 @@
       <c r="B164">
         <v>0.11499999999999977</v>
       </c>
-      <c r="C164">
-        <v>4.3900000000000006</v>
+      <c r="C164" s="3">
+        <v>0.10452380952380969</v>
       </c>
       <c r="D164">
         <v>0.1010000000000002</v>
@@ -2730,8 +2734,8 @@
       <c r="B165">
         <v>4.1000000000000369E-2</v>
       </c>
-      <c r="C165">
-        <v>1.0700000000000074</v>
+      <c r="C165" s="3">
+        <v>2.5476190476190652E-2</v>
       </c>
       <c r="D165">
         <v>1.9999999999997797E-3</v>
@@ -2744,8 +2748,8 @@
       <c r="B166">
         <v>0.1419999999999999</v>
       </c>
-      <c r="C166">
-        <v>0.81999999999999318</v>
+      <c r="C166" s="3">
+        <v>1.9523809523809277E-2</v>
       </c>
       <c r="D166">
         <v>3.5000000000000142E-2</v>
@@ -2758,8 +2762,8 @@
       <c r="B167">
         <v>5.0999999999999712E-2</v>
       </c>
-      <c r="C167">
-        <v>1.5700000000000074</v>
+      <c r="C167" s="3">
+        <v>3.7380952380952515E-2</v>
       </c>
       <c r="D167">
         <v>3.6000000000000032E-2</v>
@@ -2772,8 +2776,8 @@
       <c r="B168">
         <v>1.000000000000334E-3</v>
       </c>
-      <c r="C168">
-        <v>-0.30000000000001137</v>
+      <c r="C168" s="3">
+        <v>-7.1428571428573395E-3</v>
       </c>
       <c r="D168">
         <v>-3.0000000000001137E-3</v>
@@ -2786,8 +2790,8 @@
       <c r="B169">
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="C169">
-        <v>-0.59999999999999432</v>
+      <c r="C169" s="3">
+        <v>-1.4285714285714235E-2</v>
       </c>
       <c r="D169">
         <v>-2.1999999999999797E-2</v>
@@ -2800,8 +2804,8 @@
       <c r="B170">
         <v>5.8999999999999719E-2</v>
       </c>
-      <c r="C170">
-        <v>2.4300000000000068</v>
+      <c r="C170" s="3">
+        <v>5.7857142857143051E-2</v>
       </c>
       <c r="D170">
         <v>7.6999999999999957E-2</v>
@@ -2814,8 +2818,8 @@
       <c r="B171">
         <v>2.8000000000000025E-2</v>
       </c>
-      <c r="C171">
-        <v>2.6400000000000006</v>
+      <c r="C171" s="3">
+        <v>6.2857142857142723E-2</v>
       </c>
       <c r="D171">
         <v>9.0999999999999748E-2</v>
@@ -2828,8 +2832,8 @@
       <c r="B172">
         <v>-1.2000000000000011E-2</v>
       </c>
-      <c r="C172">
-        <v>-1.3300000000000125</v>
+      <c r="C172" s="3">
+        <v>-3.1666666666666732E-2</v>
       </c>
       <c r="D172">
         <v>-1.7999999999999794E-2</v>
@@ -2842,8 +2846,8 @@
       <c r="B173">
         <v>-1.399999999999979E-2</v>
       </c>
-      <c r="C173">
-        <v>-1.1199999999999903</v>
+      <c r="C173" s="3">
+        <v>-2.6666666666666616E-2</v>
       </c>
       <c r="D173">
         <v>-2.7000000000000135E-2</v>
@@ -2856,8 +2860,8 @@
       <c r="B174">
         <v>5.600000000000005E-2</v>
       </c>
-      <c r="C174">
-        <v>0.75999999999999091</v>
+      <c r="C174" s="3">
+        <v>1.8095238095238164E-2</v>
       </c>
       <c r="D174">
         <v>4.4999999999999929E-2</v>
@@ -2870,8 +2874,8 @@
       <c r="B175">
         <v>-9.8000000000000309E-2</v>
       </c>
-      <c r="C175">
-        <v>-4.019999999999996</v>
+      <c r="C175" s="3">
+        <v>-9.5714285714285863E-2</v>
       </c>
       <c r="D175">
         <v>-5.0999999999999712E-2</v>
@@ -2884,8 +2888,8 @@
       <c r="B176">
         <v>-7.099999999999973E-2</v>
       </c>
-      <c r="C176">
-        <v>-5.25</v>
+      <c r="C176" s="3">
+        <v>-0.125</v>
       </c>
       <c r="D176">
         <v>-7.4000000000000288E-2</v>
@@ -2898,8 +2902,8 @@
       <c r="B177">
         <v>-0.17600000000000016</v>
       </c>
-      <c r="C177">
-        <v>-5.4899999999999949</v>
+      <c r="C177" s="3">
+        <v>-0.13071428571428556</v>
       </c>
       <c r="D177">
         <v>-0.18399999999999994</v>
@@ -2912,8 +2916,8 @@
       <c r="B178">
         <v>-1.8999999999999906E-2</v>
       </c>
-      <c r="C178">
-        <v>2.3199999999999932</v>
+      <c r="C178" s="3">
+        <v>5.5238095238095086E-2</v>
       </c>
       <c r="D178">
         <v>-4.0000000000000036E-3</v>
@@ -2926,8 +2930,8 @@
       <c r="B179">
         <v>3.499999999999992E-2</v>
       </c>
-      <c r="C179">
-        <v>1.0900000000000034</v>
+      <c r="C179" s="3">
+        <v>2.5952380952380949E-2</v>
       </c>
       <c r="D179">
         <v>5.9000000000000163E-2</v>
@@ -2940,8 +2944,8 @@
       <c r="B180">
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="C180">
-        <v>0.51999999999999602</v>
+      <c r="C180" s="3">
+        <v>1.2380952380952381E-2</v>
       </c>
       <c r="D180">
         <v>2.9999999999998916E-3</v>
@@ -2954,8 +2958,8 @@
       <c r="B181">
         <v>0.10199999999999987</v>
       </c>
-      <c r="C181">
-        <v>3.3299999999999983</v>
+      <c r="C181" s="3">
+        <v>7.9285714285714182E-2</v>
       </c>
       <c r="D181">
         <v>0.10000000000000009</v>
@@ -2968,8 +2972,8 @@
       <c r="B182">
         <v>-6.9999999999996732E-3</v>
       </c>
-      <c r="C182">
-        <v>0.60999999999999943</v>
+      <c r="C182" s="3">
+        <v>1.4523809523809605E-2</v>
       </c>
       <c r="D182">
         <v>3.0000000000001137E-3</v>
@@ -2982,8 +2986,8 @@
       <c r="B183">
         <v>-7.5000000000000178E-2</v>
       </c>
-      <c r="C183">
-        <v>-2.3699999999999903</v>
+      <c r="C183" s="3">
+        <v>-5.6428571428571273E-2</v>
       </c>
       <c r="D183">
         <v>-0.10900000000000021</v>
@@ -2996,8 +3000,8 @@
       <c r="B184">
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="C184">
-        <v>-0.57999999999999829</v>
+      <c r="C184" s="3">
+        <v>-1.3809523809523716E-2</v>
       </c>
       <c r="D184">
         <v>-8.0000000000000071E-3</v>
@@ -3010,8 +3014,8 @@
       <c r="B185">
         <v>2.8000000000000025E-2</v>
       </c>
-      <c r="C185">
-        <v>1.9499999999999886</v>
+      <c r="C185" s="3">
+        <v>4.6428571428571042E-2</v>
       </c>
       <c r="D185">
         <v>3.8999999999999924E-2</v>
@@ -3024,8 +3028,8 @@
       <c r="B186">
         <v>3.8000000000000256E-2</v>
       </c>
-      <c r="C186">
-        <v>1.4100000000000108</v>
+      <c r="C186" s="3">
+        <v>3.3571428571429029E-2</v>
       </c>
       <c r="D186">
         <v>8.0000000000000071E-3</v>
@@ -3038,8 +3042,8 @@
       <c r="B187">
         <v>-8.0000000000000071E-3</v>
       </c>
-      <c r="C187">
-        <v>0.39999999999999147</v>
+      <c r="C187" s="3">
+        <v>9.5238095238092679E-3</v>
       </c>
       <c r="D187">
         <v>-4.9999999999998934E-3</v>
@@ -3052,8 +3056,8 @@
       <c r="B188">
         <v>7.5999999999999623E-2</v>
       </c>
-      <c r="C188">
-        <v>3.6500000000000057</v>
+      <c r="C188" s="3">
+        <v>8.690476190476204E-2</v>
       </c>
       <c r="D188">
         <v>0.15399999999999991</v>
@@ -3066,8 +3070,8 @@
       <c r="B189">
         <v>-0.14399999999999968</v>
       </c>
-      <c r="C189">
-        <v>-3.6299999999999955</v>
+      <c r="C189" s="3">
+        <v>-8.6428571428571299E-2</v>
       </c>
       <c r="D189">
         <v>-0.1080000000000001</v>
@@ -3080,8 +3084,8 @@
       <c r="B190">
         <v>-8.0000000000000071E-2</v>
       </c>
-      <c r="C190">
-        <v>-3.3200000000000074</v>
+      <c r="C190" s="3">
+        <v>-7.9047619047619255E-2</v>
       </c>
       <c r="D190">
         <v>-6.800000000000006E-2</v>
@@ -3094,8 +3098,8 @@
       <c r="B191">
         <v>-4.9000000000000155E-2</v>
       </c>
-      <c r="C191">
-        <v>-1.7000000000000028</v>
+      <c r="C191" s="3">
+        <v>-4.0476190476190554E-2</v>
       </c>
       <c r="D191">
         <v>-1.8999999999999684E-2</v>
@@ -3108,8 +3112,8 @@
       <c r="B192">
         <v>2.100000000000013E-2</v>
       </c>
-      <c r="C192">
-        <v>0.87000000000000455</v>
+      <c r="C192" s="3">
+        <v>2.0714285714285907E-2</v>
       </c>
       <c r="D192">
         <v>5.2999999999999936E-2</v>
@@ -3122,8 +3126,8 @@
       <c r="B193">
         <v>3.400000000000003E-2</v>
       </c>
-      <c r="C193">
-        <v>0.84000000000000341</v>
+      <c r="C193" s="3">
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="D193">
         <v>4.5999999999999819E-2</v>
@@ -3136,8 +3140,8 @@
       <c r="B194">
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="C194">
-        <v>0.78000000000000114</v>
+      <c r="C194" s="3">
+        <v>1.8571428571428461E-2</v>
       </c>
       <c r="D194">
         <v>3.4000000000000252E-2</v>
@@ -3150,8 +3154,8 @@
       <c r="B195">
         <v>-2.4000000000000021E-2</v>
       </c>
-      <c r="C195">
-        <v>-0.70000000000000284</v>
+      <c r="C195" s="3">
+        <v>-1.6666666666666607E-2</v>
       </c>
       <c r="D195">
         <v>5.9999999999997833E-3</v>
@@ -3164,8 +3168,8 @@
       <c r="B196">
         <v>7.7999999999999847E-2</v>
       </c>
-      <c r="C196">
-        <v>3.4699999999999989</v>
+      <c r="C196" s="3">
+        <v>8.2619047619047592E-2</v>
       </c>
       <c r="D196">
         <v>7.2999999999999954E-2</v>
@@ -3178,8 +3182,8 @@
       <c r="B197">
         <v>0.12400000000000011</v>
       </c>
-      <c r="C197">
-        <v>3.9500000000000028</v>
+      <c r="C197" s="3">
+        <v>9.4047619047619158E-2</v>
       </c>
       <c r="D197">
         <v>9.1000000000000192E-2</v>
@@ -3192,8 +3196,8 @@
       <c r="B198">
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="C198">
-        <v>-0.31000000000000227</v>
+      <c r="C198" s="3">
+        <v>-7.380952380952488E-3</v>
       </c>
       <c r="D198">
         <v>-1.5000000000000124E-2</v>
@@ -3206,8 +3210,8 @@
       <c r="B199">
         <v>-6.1999999999999833E-2</v>
       </c>
-      <c r="C199">
-        <v>-0.74000000000000909</v>
+      <c r="C199" s="3">
+        <v>-1.7619047619047867E-2</v>
       </c>
       <c r="D199">
         <v>-3.3999999999999808E-2</v>
@@ -3220,8 +3224,8 @@
       <c r="B200">
         <v>2.0999999999999908E-2</v>
       </c>
-      <c r="C200">
-        <v>0.80000000000001137</v>
+      <c r="C200" s="3">
+        <v>1.9047619047619424E-2</v>
       </c>
       <c r="D200">
         <v>4.0000000000000036E-3</v>
@@ -3234,8 +3238,8 @@
       <c r="B201">
         <v>4.2000000000000259E-2</v>
       </c>
-      <c r="C201">
-        <v>2.8599999999999994</v>
+      <c r="C201" s="3">
+        <v>6.8095238095237987E-2</v>
       </c>
       <c r="D201">
         <v>8.9999999999999858E-2</v>
@@ -3248,8 +3252,8 @@
       <c r="B202">
         <v>6.899999999999995E-2</v>
       </c>
-      <c r="C202">
-        <v>1.8799999999999955</v>
+      <c r="C202" s="3">
+        <v>4.4761904761904781E-2</v>
       </c>
       <c r="D202">
         <v>7.6000000000000068E-2</v>
@@ -3262,8 +3266,8 @@
       <c r="B203">
         <v>-2.2000000000000242E-2</v>
       </c>
-      <c r="C203">
-        <v>-4.6599999999999966</v>
+      <c r="C203" s="3">
+        <v>-0.11095238095238091</v>
       </c>
       <c r="D203">
         <v>-0.10700000000000021</v>
@@ -3276,8 +3280,8 @@
       <c r="B204">
         <v>-8.999999999999897E-3</v>
       </c>
-      <c r="C204">
-        <v>0.45000000000000284</v>
+      <c r="C204" s="3">
+        <v>1.0714285714285676E-2</v>
       </c>
       <c r="D204">
         <v>-9.9999999999997868E-3</v>
@@ -3290,8 +3294,8 @@
       <c r="B205">
         <v>0.1339999999999999</v>
       </c>
-      <c r="C205">
-        <v>4.1099999999999994</v>
+      <c r="C205" s="3">
+        <v>9.7857142857142865E-2</v>
       </c>
       <c r="D205">
         <v>0.11499999999999977</v>
@@ -3304,8 +3308,8 @@
       <c r="B206">
         <v>1.2000000000000011E-2</v>
       </c>
-      <c r="C206">
-        <v>1.7399999999999949</v>
+      <c r="C206" s="3">
+        <v>4.142857142857137E-2</v>
       </c>
       <c r="D206">
         <v>6.1000000000000387E-2</v>
@@ -3318,8 +3322,8 @@
       <c r="B207">
         <v>-1.499999999999968E-2</v>
       </c>
-      <c r="C207">
-        <v>-0.25</v>
+      <c r="C207" s="3">
+        <v>-5.9523809523809312E-3</v>
       </c>
       <c r="D207">
         <v>6.9999999999996732E-3</v>
@@ -3332,8 +3336,8 @@
       <c r="B208">
         <v>0.10199999999999987</v>
       </c>
-      <c r="C208">
-        <v>1.9099999999999966</v>
+      <c r="C208" s="3">
+        <v>4.5476190476190226E-2</v>
       </c>
       <c r="D208">
         <v>4.6000000000000263E-2</v>
@@ -3346,8 +3350,8 @@
       <c r="B209">
         <v>9.9999999999988987E-4</v>
       </c>
-      <c r="C209">
-        <v>0.81000000000000227</v>
+      <c r="C209" s="3">
+        <v>1.9285714285714572E-2</v>
       </c>
       <c r="D209">
         <v>-1.000000000000334E-3</v>
@@ -3360,8 +3364,8 @@
       <c r="B210">
         <v>1.6999999999999904E-2</v>
       </c>
-      <c r="C210">
-        <v>-1.4399999999999977</v>
+      <c r="C210" s="3">
+        <v>-3.4285714285714253E-2</v>
       </c>
       <c r="D210">
         <v>2.0000000000002238E-3</v>
@@ -3374,8 +3378,8 @@
       <c r="B211">
         <v>3.8000000000000256E-2</v>
       </c>
-      <c r="C211">
-        <v>1.5</v>
+      <c r="C211" s="3">
+        <v>3.5714285714285587E-2</v>
       </c>
       <c r="D211">
         <v>8.8000000000000078E-2</v>
@@ -3388,8 +3392,8 @@
       <c r="B212">
         <v>-6.0000000000002274E-3</v>
       </c>
-      <c r="C212">
-        <v>-0.98000000000000398</v>
+      <c r="C212" s="3">
+        <v>-2.3333333333333428E-2</v>
       </c>
       <c r="D212">
         <v>3.6000000000000032E-2</v>
@@ -3402,8 +3406,8 @@
       <c r="B213">
         <v>-5.600000000000005E-2</v>
       </c>
-      <c r="C213">
-        <v>-2.7800000000000011</v>
+      <c r="C213" s="3">
+        <v>-6.6190476190476133E-2</v>
       </c>
       <c r="D213">
         <v>9.9999999999988987E-4</v>
@@ -3416,8 +3420,8 @@
       <c r="B214">
         <v>8.4000000000000075E-2</v>
       </c>
-      <c r="C214">
-        <v>3.4100000000000108</v>
+      <c r="C214" s="3">
+        <v>8.1190476190476257E-2</v>
       </c>
       <c r="D214">
         <v>0.10899999999999999</v>
@@ -3430,8 +3434,8 @@
       <c r="B215">
         <v>-8.0000000000000071E-3</v>
       </c>
-      <c r="C215">
-        <v>-3.9900000000000091</v>
+      <c r="C215" s="3">
+        <v>-9.5000000000000195E-2</v>
       </c>
       <c r="D215">
         <v>-3.1000000000000139E-2</v>
@@ -3444,8 +3448,8 @@
       <c r="B216">
         <v>4.4999999999999929E-2</v>
       </c>
-      <c r="C216">
-        <v>-1.3499999999999943</v>
+      <c r="C216" s="3">
+        <v>-3.2142857142857029E-2</v>
       </c>
       <c r="D216">
         <v>1.7000000000000348E-2</v>
@@ -3458,8 +3462,8 @@
       <c r="B217">
         <v>0.16700000000000026</v>
       </c>
-      <c r="C217">
-        <v>11.36999999999999</v>
+      <c r="C217" s="3">
+        <v>0.27071428571428546</v>
       </c>
       <c r="D217">
         <v>0.13599999999999968</v>
@@ -3472,8 +3476,8 @@
       <c r="B218">
         <v>0.27</v>
       </c>
-      <c r="C218">
-        <v>4.3200000000000074</v>
+      <c r="C218" s="3">
+        <v>0.1028571428571432</v>
       </c>
       <c r="D218">
         <v>0.15300000000000002</v>
@@ -3486,8 +3490,8 @@
       <c r="B219">
         <v>3.3999999999999808E-2</v>
       </c>
-      <c r="C219">
-        <v>2.7099999999999937</v>
+      <c r="C219" s="3">
+        <v>6.4523809523809206E-2</v>
       </c>
       <c r="D219">
         <v>1.5000000000000124E-2</v>
@@ -3500,8 +3504,8 @@
       <c r="B220">
         <v>-9.6000000000000085E-2</v>
       </c>
-      <c r="C220">
-        <v>-3.9699999999999989</v>
+      <c r="C220" s="3">
+        <v>-9.4523809523809454E-2</v>
       </c>
       <c r="D220">
         <v>-2.3000000000000131E-2</v>
@@ -3514,8 +3518,8 @@
       <c r="B221">
         <v>0.12200000000000033</v>
       </c>
-      <c r="C221">
-        <v>4.8500000000000085</v>
+      <c r="C221" s="3">
+        <v>0.11547619047619095</v>
       </c>
       <c r="D221">
         <v>3.9000000000000146E-2</v>
@@ -3528,8 +3532,8 @@
       <c r="B222">
         <v>5.600000000000005E-2</v>
       </c>
-      <c r="C222">
-        <v>0.92000000000000171</v>
+      <c r="C222" s="3">
+        <v>2.1904761904761649E-2</v>
       </c>
       <c r="D222">
         <v>5.9999999999997833E-3</v>
@@ -3542,8 +3546,8 @@
       <c r="B223">
         <v>0.12299999999999978</v>
       </c>
-      <c r="C223">
-        <v>4.2099999999999937</v>
+      <c r="C223" s="3">
+        <v>0.10023809523809524</v>
       </c>
       <c r="D223">
         <v>0.14900000000000002</v>
@@ -3556,8 +3560,8 @@
       <c r="B224">
         <v>2.4000000000000021E-2</v>
       </c>
-      <c r="C224">
-        <v>-1.5400000000000063</v>
+      <c r="C224" s="3">
+        <v>-3.6666666666667069E-2</v>
       </c>
       <c r="D224">
         <v>-6.9999999999996732E-3</v>
@@ -3570,8 +3574,8 @@
       <c r="B225">
         <v>4.1999999999999815E-2</v>
       </c>
-      <c r="C225">
-        <v>1.5400000000000063</v>
+      <c r="C225" s="3">
+        <v>3.6666666666667069E-2</v>
       </c>
       <c r="D225">
         <v>-1.8000000000000238E-2</v>
@@ -3584,8 +3588,8 @@
       <c r="B226">
         <v>0.13100000000000023</v>
       </c>
-      <c r="C226">
-        <v>3.0600000000000023</v>
+      <c r="C226" s="3">
+        <v>7.2857142857142954E-2</v>
       </c>
       <c r="D226">
         <v>3.2999999999999918E-2</v>
@@ -3598,8 +3602,8 @@
       <c r="B227">
         <v>-0.16199999999999992</v>
       </c>
-      <c r="C227">
-        <v>-6.6500000000000057</v>
+      <c r="C227" s="3">
+        <v>-0.15833333333333366</v>
       </c>
       <c r="D227">
         <v>-0.15899999999999981</v>
@@ -3612,8 +3616,8 @@
       <c r="B228">
         <v>-5.2999999999999936E-2</v>
       </c>
-      <c r="C228">
-        <v>-5.5099999999999909</v>
+      <c r="C228" s="3">
+        <v>-0.13119047619047608</v>
       </c>
       <c r="D228">
         <v>-0.121</v>
@@ -3626,8 +3630,8 @@
       <c r="B229">
         <v>-0.25</v>
       </c>
-      <c r="C229">
-        <v>-2.1900000000000119</v>
+      <c r="C229" s="3">
+        <v>-5.2142857142857046E-2</v>
       </c>
       <c r="D229">
         <v>-5.500000000000016E-2</v>
@@ -3640,8 +3644,8 @@
       <c r="B230">
         <v>8.2999999999999741E-2</v>
       </c>
-      <c r="C230">
-        <v>1.4300000000000068</v>
+      <c r="C230" s="3">
+        <v>3.4047619047619104E-2</v>
       </c>
       <c r="D230">
         <v>5.400000000000027E-2</v>
@@ -3654,8 +3658,8 @@
       <c r="B231">
         <v>4.9999999999998934E-3</v>
       </c>
-      <c r="C231">
-        <v>1.0100000000000051</v>
+      <c r="C231" s="3">
+        <v>2.4047619047619317E-2</v>
       </c>
       <c r="D231">
         <v>9.8999999999999755E-2</v>
@@ -3668,8 +3672,8 @@
       <c r="B232">
         <v>-2.1999999999999797E-2</v>
       </c>
-      <c r="C232">
-        <v>-0.89000000000000057</v>
+      <c r="C232" s="3">
+        <v>-2.1190476190476204E-2</v>
       </c>
       <c r="D232">
         <v>4.4999999999999929E-2</v>
@@ -3682,8 +3686,8 @@
       <c r="B233">
         <v>-2.4000000000000021E-2</v>
       </c>
-      <c r="C233">
-        <v>-4.1200000000000045</v>
+      <c r="C233" s="3">
+        <v>-9.8095238095238457E-2</v>
       </c>
       <c r="D233">
         <v>-4.4999999999999929E-2</v>
@@ -3696,8 +3700,8 @@
       <c r="B234">
         <v>-0.10000000000000009</v>
       </c>
-      <c r="C234">
-        <v>-3.0400000000000063</v>
+      <c r="C234" s="3">
+        <v>-7.2380952380952657E-2</v>
       </c>
       <c r="D234">
         <v>-0.17899999999999983</v>
@@ -3710,8 +3714,8 @@
       <c r="B235">
         <v>6.6000000000000281E-2</v>
       </c>
-      <c r="C235">
-        <v>0.88000000000000966</v>
+      <c r="C235" s="3">
+        <v>2.09523809523815E-2</v>
       </c>
       <c r="D235">
         <v>1.2000000000000011E-2</v>
@@ -3724,8 +3728,8 @@
       <c r="B236">
         <v>0.10699999999999976</v>
       </c>
-      <c r="C236">
-        <v>3.3699999999999903</v>
+      <c r="C236" s="3">
+        <v>8.0238095238094775E-2</v>
       </c>
       <c r="D236">
         <v>0.15599999999999969</v>
@@ -3738,8 +3742,8 @@
       <c r="B237">
         <v>6.6000000000000281E-2</v>
       </c>
-      <c r="C237">
-        <v>-0.39000000000000057</v>
+      <c r="C237" s="3">
+        <v>-9.2857142857143415E-3</v>
       </c>
       <c r="D237">
         <v>6.6000000000000281E-2</v>
@@ -3752,8 +3756,8 @@
       <c r="B238">
         <v>2.9999999999996696E-3</v>
       </c>
-      <c r="C238">
-        <v>1.4000000000000057</v>
+      <c r="C238" s="3">
+        <v>3.3333333333333659E-2</v>
       </c>
       <c r="D238">
         <v>8.0000000000000071E-3</v>
@@ -3766,8 +3770,8 @@
       <c r="B239">
         <v>1.2999999999999901E-2</v>
       </c>
-      <c r="C239">
-        <v>-0.23999999999999488</v>
+      <c r="C239" s="3">
+        <v>-5.7142857142857828E-3</v>
       </c>
       <c r="D239">
         <v>-3.0000000000001137E-3</v>
@@ -3780,8 +3784,8 @@
       <c r="B240">
         <v>-0.21799999999999997</v>
       </c>
-      <c r="C240">
-        <v>-7.0500000000000114</v>
+      <c r="C240" s="3">
+        <v>-0.16785714285714315</v>
       </c>
       <c r="D240">
         <v>-9.2000000000000082E-2</v>
@@ -3794,8 +3798,8 @@
       <c r="B241">
         <v>-0.1549999999999998</v>
       </c>
-      <c r="C241">
-        <v>-7.8999999999999915</v>
+      <c r="C241" s="3">
+        <v>-0.18809523809523765</v>
       </c>
       <c r="D241">
         <v>-0.16199999999999992</v>
@@ -3808,8 +3812,8 @@
       <c r="B242">
         <v>8.7000000000000188E-2</v>
       </c>
-      <c r="C242">
-        <v>2.4299999999999926</v>
+      <c r="C242" s="3">
+        <v>5.7857142857142607E-2</v>
       </c>
       <c r="D242">
         <v>7.6999999999999957E-2</v>
@@ -3822,8 +3826,8 @@
       <c r="B243">
         <v>5.3999999999999826E-2</v>
       </c>
-      <c r="C243">
-        <v>-0.26999999999999602</v>
+      <c r="C243" s="3">
+        <v>-6.4285714285712281E-3</v>
       </c>
       <c r="D243">
         <v>3.8000000000000256E-2</v>
@@ -3836,8 +3840,8 @@
       <c r="B244">
         <v>3.3999999999999808E-2</v>
       </c>
-      <c r="C244">
-        <v>2.9899999999999949</v>
+      <c r="C244" s="3">
+        <v>7.1190476190476026E-2</v>
       </c>
       <c r="D244">
         <v>7.8999999999999737E-2</v>
@@ -3850,8 +3854,8 @@
       <c r="B245">
         <v>-8.5999999999999854E-2</v>
       </c>
-      <c r="C245">
-        <v>-0.15999999999999659</v>
+      <c r="C245" s="3">
+        <v>-3.8095238095237072E-3</v>
       </c>
       <c r="D245">
         <v>-1.2000000000000011E-2</v>
@@ -3864,8 +3868,8 @@
       <c r="B246">
         <v>-9.2000000000000082E-2</v>
       </c>
-      <c r="C246">
-        <v>1.0200000000000102</v>
+      <c r="C246" s="3">
+        <v>2.4285714285714466E-2</v>
       </c>
       <c r="D246">
         <v>-5.699999999999994E-2</v>
@@ -3878,8 +3882,8 @@
       <c r="B247">
         <v>-0.11899999999999977</v>
       </c>
-      <c r="C247">
-        <v>-5.1600000000000108</v>
+      <c r="C247" s="3">
+        <v>-0.12285714285714322</v>
       </c>
       <c r="D247">
         <v>-7.5000000000000178E-2</v>
@@ -3892,8 +3896,8 @@
       <c r="B248">
         <v>-4.0000000000000036E-3</v>
       </c>
-      <c r="C248">
-        <v>-2.3199999999999932</v>
+      <c r="C248" s="3">
+        <v>-5.5238095238095086E-2</v>
       </c>
       <c r="D248">
         <v>-7.6999999999999957E-2</v>
@@ -3906,8 +3910,8 @@
       <c r="B249">
         <v>-5.2000000000000046E-2</v>
       </c>
-      <c r="C249">
-        <v>-1.7400000000000091</v>
+      <c r="C249" s="3">
+        <v>-4.1428571428571592E-2</v>
       </c>
       <c r="D249">
         <v>-2.4999999999999911E-2</v>
@@ -3920,8 +3924,8 @@
       <c r="B250">
         <v>0.17499999999999982</v>
       </c>
-      <c r="C250">
-        <v>5.8500000000000085</v>
+      <c r="C250" s="3">
+        <v>0.13928571428571468</v>
       </c>
       <c r="D250">
         <v>0.15900000000000025</v>
@@ -3934,8 +3938,8 @@
       <c r="B251">
         <v>-5.0999999999999712E-2</v>
       </c>
-      <c r="C251">
-        <v>1.1499999999999915</v>
+      <c r="C251" s="3">
+        <v>2.738095238095184E-2</v>
       </c>
       <c r="D251">
         <v>5.9999999999999609E-2</v>
@@ -3948,8 +3952,8 @@
       <c r="B252">
         <v>-1.1000000000000121E-2</v>
       </c>
-      <c r="C252">
-        <v>5.6700000000000017</v>
+      <c r="C252" s="3">
+        <v>0.13500000000000023</v>
       </c>
       <c r="D252">
         <v>4.2000000000000259E-2</v>
@@ -3962,8 +3966,8 @@
       <c r="B253">
         <v>-5.2999999999999936E-2</v>
       </c>
-      <c r="C253">
-        <v>0.85999999999999943</v>
+      <c r="C253" s="3">
+        <v>2.0476190476190315E-2</v>
       </c>
       <c r="D253">
         <v>-1.8000000000000238E-2</v>
@@ -3976,8 +3980,8 @@
       <c r="B254">
         <v>2.4000000000000021E-2</v>
       </c>
-      <c r="C254">
-        <v>3.730000000000004</v>
+      <c r="C254" s="3">
+        <v>8.8809523809524116E-2</v>
       </c>
       <c r="D254">
         <v>9.2999999999999972E-2</v>
@@ -3990,8 +3994,8 @@
       <c r="B255">
         <v>-0.11699999999999999</v>
       </c>
-      <c r="C255">
-        <v>2.2999999999999972</v>
+      <c r="C255" s="3">
+        <v>5.4761904761904567E-2</v>
       </c>
       <c r="D255">
         <v>-1.399999999999979E-2</v>
@@ -4004,8 +4008,8 @@
       <c r="B256">
         <v>-4.3000000000000149E-2</v>
       </c>
-      <c r="C256">
-        <v>-2.2999999999999972</v>
+      <c r="C256" s="3">
+        <v>-5.4761904761904567E-2</v>
       </c>
       <c r="D256">
         <v>-0.1379999999999999</v>
@@ -4018,8 +4022,8 @@
       <c r="B257">
         <v>5.600000000000005E-2</v>
       </c>
-      <c r="C257">
-        <v>2.9300000000000068</v>
+      <c r="C257" s="3">
+        <v>6.9761904761904692E-2</v>
       </c>
       <c r="D257">
         <v>1.5000000000000124E-2</v>
@@ -4032,8 +4036,8 @@
       <c r="B258">
         <v>4.1999999999999815E-2</v>
       </c>
-      <c r="C258">
-        <v>0.19999999999998863</v>
+      <c r="C258" s="3">
+        <v>4.761904761904745E-3</v>
       </c>
       <c r="D258">
         <v>-4.0000000000000036E-2</v>
@@ -4046,8 +4050,8 @@
       <c r="B259">
         <v>-6.899999999999995E-2</v>
       </c>
-      <c r="C259">
-        <v>-4.0499999999999972</v>
+      <c r="C259" s="3">
+        <v>-9.642857142857153E-2</v>
       </c>
       <c r="D259">
         <v>-9.8000000000000309E-2</v>
@@ -4060,8 +4064,8 @@
       <c r="B260">
         <v>7.0000000000000284E-2</v>
       </c>
-      <c r="C260">
-        <v>1.75</v>
+      <c r="C260" s="3">
+        <v>4.1666666666666519E-2</v>
       </c>
       <c r="D260">
         <v>1.1000000000000121E-2</v>
@@ -4074,8 +4078,8 @@
       <c r="B261">
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="C261">
-        <v>2</v>
+      <c r="C261" s="3">
+        <v>4.7619047619047894E-2</v>
       </c>
       <c r="D261">
         <v>3.9000000000000146E-2</v>
@@ -4088,8 +4092,8 @@
       <c r="B262">
         <v>8.1999999999999851E-2</v>
       </c>
-      <c r="C262">
-        <v>2.5900000000000034</v>
+      <c r="C262" s="3">
+        <v>6.1666666666666536E-2</v>
       </c>
       <c r="D262">
         <v>0.15300000000000002</v>
@@ -4102,8 +4106,8 @@
       <c r="B263">
         <v>-3.0000000000001137E-3</v>
       </c>
-      <c r="C263">
-        <v>-1.9500000000000028</v>
+      <c r="C263" s="3">
+        <v>-4.6428571428571264E-2</v>
       </c>
       <c r="D263">
         <v>4.9999999999998934E-3</v>
@@ -4116,8 +4120,8 @@
       <c r="B264">
         <v>4.7000000000000153E-2</v>
       </c>
-      <c r="C264">
-        <v>-0.39999999999999147</v>
+      <c r="C264" s="3">
+        <v>-9.52380952380949E-3</v>
       </c>
       <c r="D264">
         <v>-4.4999999999999929E-2</v>
@@ -4130,8 +4134,8 @@
       <c r="B265">
         <v>3.9000000000000146E-2</v>
       </c>
-      <c r="C265">
-        <v>-0.60000000000000853</v>
+      <c r="C265" s="3">
+        <v>-1.4285714285714235E-2</v>
       </c>
       <c r="D265">
         <v>1.6000000000000014E-2</v>
@@ -4144,8 +4148,8 @@
       <c r="B266">
         <v>4.8999999999999932E-2</v>
       </c>
-      <c r="C266">
-        <v>-1.6299999999999955</v>
+      <c r="C266" s="3">
+        <v>-3.8809523809523849E-2</v>
       </c>
       <c r="D266">
         <v>2.9999999999999805E-2</v>
@@ -4158,8 +4162,8 @@
       <c r="B267">
         <v>7.6999999999999957E-2</v>
       </c>
-      <c r="C267">
-        <v>0.70000000000000284</v>
+      <c r="C267" s="3">
+        <v>1.6666666666666607E-2</v>
       </c>
       <c r="D267">
         <v>0.12300000000000022</v>
@@ -4172,8 +4176,8 @@
       <c r="B268">
         <v>4.8999999999999932E-2</v>
       </c>
-      <c r="C268">
-        <v>3.289999999999992</v>
+      <c r="C268" s="3">
+        <v>7.8333333333333144E-2</v>
       </c>
       <c r="D268">
         <v>-1.2000000000000011E-2</v>
@@ -4186,8 +4190,8 @@
       <c r="B269">
         <v>9.2999999999999972E-2</v>
       </c>
-      <c r="C269">
-        <v>5.6300000000000097</v>
+      <c r="C269" s="3">
+        <v>0.13404761904761919</v>
       </c>
       <c r="D269">
         <v>0.10499999999999998</v>
@@ -4200,8 +4204,8 @@
       <c r="B270">
         <v>6.0999999999999943E-2</v>
       </c>
-      <c r="C270">
-        <v>0.10999999999999943</v>
+      <c r="C270" s="3">
+        <v>2.619047619047965E-3</v>
       </c>
       <c r="D270">
         <v>-4.6000000000000263E-2</v>
@@ -4214,8 +4218,8 @@
       <c r="B271">
         <v>0.11699999999999999</v>
       </c>
-      <c r="C271">
-        <v>-1.230000000000004</v>
+      <c r="C271" s="3">
+        <v>-2.9285714285714359E-2</v>
       </c>
       <c r="D271">
         <v>-2.9999999999996696E-3</v>
@@ -4228,8 +4232,8 @@
       <c r="B272">
         <v>5.0000000000000266E-2</v>
       </c>
-      <c r="C272">
-        <v>-0.18000000000000682</v>
+      <c r="C272" s="3">
+        <v>-4.2857142857144481E-3</v>
       </c>
       <c r="D272">
         <v>2.3999999999999577E-2</v>
@@ -4242,8 +4246,8 @@
       <c r="B273">
         <v>2.8999999999999915E-2</v>
       </c>
-      <c r="C273">
-        <v>0.51000000000000512</v>
+      <c r="C273" s="3">
+        <v>1.2142857142857011E-2</v>
       </c>
       <c r="D273">
         <v>-3.4999999999999698E-2</v>
@@ -4256,8 +4260,8 @@
       <c r="B274">
         <v>3.9000000000000146E-2</v>
       </c>
-      <c r="C274">
-        <v>-1.5300000000000011</v>
+      <c r="C274" s="3">
+        <v>-3.6428571428571477E-2</v>
       </c>
       <c r="D274">
         <v>-2.4000000000000021E-2</v>
@@ -4270,8 +4274,8 @@
       <c r="B275">
         <v>-3.9000000000000146E-2</v>
       </c>
-      <c r="C275">
-        <v>-1.5999999999999943</v>
+      <c r="C275" s="3">
+        <v>-3.809523809523796E-2</v>
       </c>
       <c r="D275">
         <v>4.9999999999998934E-3</v>
@@ -4284,8 +4288,8 @@
       <c r="B276">
         <v>-5.3999999999999826E-2</v>
       </c>
-      <c r="C276">
-        <v>-0.98000000000000398</v>
+      <c r="C276" s="3">
+        <v>-2.3333333333333428E-2</v>
       </c>
       <c r="D276">
         <v>-6.3000000000000167E-2</v>
@@ -4298,8 +4302,8 @@
       <c r="B277">
         <v>-0.10899999999999999</v>
       </c>
-      <c r="C277">
-        <v>0.48999999999999488</v>
+      <c r="C277" s="3">
+        <v>1.1666666666666714E-2</v>
       </c>
       <c r="D277">
         <v>-1.399999999999979E-2</v>
@@ -4312,8 +4316,8 @@
       <c r="B278">
         <v>-2.2000000000000242E-2</v>
       </c>
-      <c r="C278">
-        <v>1.0300000000000011</v>
+      <c r="C278" s="3">
+        <v>2.4523809523809614E-2</v>
       </c>
       <c r="D278">
         <v>3.6000000000000032E-2</v>
@@ -4326,8 +4330,8 @@
       <c r="B279">
         <v>-0.10099999999999998</v>
       </c>
-      <c r="C279">
-        <v>-0.59000000000000341</v>
+      <c r="C279" s="3">
+        <v>-1.4047619047619087E-2</v>
       </c>
       <c r="D279">
         <v>-4.0999999999999925E-2</v>
@@ -4340,8 +4344,8 @@
       <c r="B280">
         <v>-7.6000000000000068E-2</v>
       </c>
-      <c r="C280">
-        <v>-6.4699999999999989</v>
+      <c r="C280" s="3">
+        <v>-0.15404761904761921</v>
       </c>
       <c r="D280">
         <v>-0.13600000000000012</v>
@@ -4354,8 +4358,8 @@
       <c r="B281">
         <v>-8.2999999999999741E-2</v>
       </c>
-      <c r="C281">
-        <v>-3.8699999999999903</v>
+      <c r="C281" s="3">
+        <v>-9.2142857142857082E-2</v>
       </c>
       <c r="D281">
         <v>-9.6000000000000085E-2</v>
@@ -4368,8 +4372,8 @@
       <c r="B282">
         <v>-1.4000000000000234E-2</v>
       </c>
-      <c r="C282">
-        <v>-1.9900000000000091</v>
+      <c r="C282" s="3">
+        <v>-4.7380952380952301E-2</v>
       </c>
       <c r="D282">
         <v>-5.0999999999999712E-2</v>
@@ -4382,8 +4386,8 @@
       <c r="B283">
         <v>-9.2000000000000082E-2</v>
       </c>
-      <c r="C283">
-        <v>-4.039999999999992</v>
+      <c r="C283" s="3">
+        <v>-9.6190476190475938E-2</v>
       </c>
       <c r="D283">
         <v>-0.1160000000000001</v>
@@ -4396,8 +4400,8 @@
       <c r="B284">
         <v>-0.129</v>
       </c>
-      <c r="C284">
-        <v>-2.6500000000000057</v>
+      <c r="C284" s="3">
+        <v>-6.3095238095238315E-2</v>
       </c>
       <c r="D284">
         <v>-6.7000000000000171E-2</v>
@@ -4410,8 +4414,8 @@
       <c r="B285">
         <v>-1.499999999999968E-2</v>
       </c>
-      <c r="C285">
-        <v>-1.1200000000000045</v>
+      <c r="C285" s="3">
+        <v>-2.6666666666666838E-2</v>
       </c>
       <c r="D285">
         <v>-2.5999999999999801E-2</v>
@@ -4424,8 +4428,8 @@
       <c r="B286">
         <v>-6.4999999999999947E-2</v>
       </c>
-      <c r="C286">
-        <v>-1.9099999999999966</v>
+      <c r="C286" s="3">
+        <v>-4.5476190476190448E-2</v>
       </c>
       <c r="D286">
         <v>-4.8000000000000043E-2</v>
@@ -4438,8 +4442,8 @@
       <c r="B287">
         <v>4.7999999999999599E-2</v>
       </c>
-      <c r="C287">
-        <v>-1.1199999999999903</v>
+      <c r="C287" s="3">
+        <v>-2.6666666666666394E-2</v>
       </c>
       <c r="D287">
         <v>1.1000000000000121E-2</v>
@@ -4452,8 +4456,8 @@
       <c r="B288">
         <v>5.600000000000005E-2</v>
       </c>
-      <c r="C288">
-        <v>5.4799999999999898</v>
+      <c r="C288" s="3">
+        <v>0.13047619047619041</v>
       </c>
       <c r="D288">
         <v>0.13700000000000001</v>
@@ -4466,8 +4470,8 @@
       <c r="B289">
         <v>7.2999999999999954E-2</v>
       </c>
-      <c r="C289">
-        <v>1.0000000000005116E-2</v>
+      <c r="C289" s="3">
+        <v>2.3809523809514843E-4</v>
       </c>
       <c r="D289">
         <v>2.9999999999999805E-2</v>
@@ -4480,8 +4484,8 @@
       <c r="B290">
         <v>0.11299999999999999</v>
       </c>
-      <c r="C290">
-        <v>4.539999999999992</v>
+      <c r="C290" s="3">
+        <v>0.1080952380952378</v>
       </c>
       <c r="D290">
         <v>0.12599999999999989</v>
@@ -4494,8 +4498,8 @@
       <c r="B291">
         <v>-5.2999999999999936E-2</v>
       </c>
-      <c r="C291">
-        <v>-1.289999999999992</v>
+      <c r="C291" s="3">
+        <v>-3.071428571428525E-2</v>
       </c>
       <c r="D291">
         <v>-3.4999999999999698E-2</v>
@@ -4508,8 +4512,8 @@
       <c r="B292">
         <v>5.699999999999994E-2</v>
       </c>
-      <c r="C292">
-        <v>3.0000000000001137E-2</v>
+      <c r="C292" s="3">
+        <v>7.1428571428544529E-4</v>
       </c>
       <c r="D292">
         <v>2.0999999999999908E-2</v>
@@ -4522,8 +4526,8 @@
       <c r="B293">
         <v>8.3000000000000185E-2</v>
       </c>
-      <c r="C293">
-        <v>4.0300000000000011</v>
+      <c r="C293" s="3">
+        <v>9.5952380952381233E-2</v>
       </c>
       <c r="D293">
         <v>0.1339999999999999</v>
@@ -4536,8 +4540,8 @@
       <c r="B294">
         <v>5.699999999999994E-2</v>
       </c>
-      <c r="C294">
-        <v>1.3299999999999983</v>
+      <c r="C294" s="3">
+        <v>3.1666666666666288E-2</v>
       </c>
       <c r="D294">
         <v>6.7000000000000171E-2</v>
@@ -4550,8 +4554,8 @@
       <c r="B295">
         <v>4.2000000000000259E-2</v>
       </c>
-      <c r="C295">
-        <v>2.0499999999999972</v>
+      <c r="C295" s="3">
+        <v>4.880952380952408E-2</v>
       </c>
       <c r="D295">
         <v>4.6999999999999709E-2</v>
@@ -4564,8 +4568,8 @@
       <c r="B296">
         <v>3.4999999999999698E-2</v>
       </c>
-      <c r="C296">
-        <v>-0.78999999999999204</v>
+      <c r="C296" s="3">
+        <v>-1.8809523809523832E-2</v>
       </c>
       <c r="D296">
         <v>1.0000000000000231E-2</v>
@@ -4578,8 +4582,8 @@
       <c r="B297">
         <v>-0.13599999999999968</v>
       </c>
-      <c r="C297">
-        <v>-3.0000000000001137E-2</v>
+      <c r="C297" s="3">
+        <v>-7.1428571428544529E-4</v>
       </c>
       <c r="D297">
         <v>1.0999999999999677E-2</v>
@@ -4592,8 +4596,8 @@
       <c r="B298">
         <v>3.0999999999999694E-2</v>
       </c>
-      <c r="C298">
-        <v>1.9599999999999937</v>
+      <c r="C298" s="3">
+        <v>4.6666666666666412E-2</v>
       </c>
       <c r="D298">
         <v>6.5000000000000391E-2</v>
@@ -4606,8 +4610,8 @@
       <c r="B299">
         <v>-0.10599999999999987</v>
       </c>
-      <c r="C299">
-        <v>-3.8799999999999955</v>
+      <c r="C299" s="3">
+        <v>-9.238095238095223E-2</v>
       </c>
       <c r="D299">
         <v>-9.2999999999999972E-2</v>
@@ -4620,8 +4624,8 @@
       <c r="B300">
         <v>0.18699999999999983</v>
       </c>
-      <c r="C300">
-        <v>-2.2700000000000102</v>
+      <c r="C300" s="3">
+        <v>-5.4047619047619566E-2</v>
       </c>
       <c r="D300">
         <v>1.6999999999999904E-2</v>
@@ -4634,8 +4638,8 @@
       <c r="B301">
         <v>-0.19300000000000006</v>
       </c>
-      <c r="C301">
-        <v>-0.64000000000000057</v>
+      <c r="C301" s="3">
+        <v>-1.5238095238095273E-2</v>
       </c>
       <c r="D301">
         <v>5.9999999999997833E-3</v>
@@ -4648,8 +4652,8 @@
       <c r="B302">
         <v>3.5000000000000142E-2</v>
       </c>
-      <c r="C302">
-        <v>0.56000000000000227</v>
+      <c r="C302" s="3">
+        <v>1.3333333333333641E-2</v>
       </c>
       <c r="D302">
         <v>7.4000000000000288E-2</v>
@@ -4662,8 +4666,8 @@
       <c r="B303">
         <v>-0.14800000000000013</v>
       </c>
-      <c r="C303">
-        <v>0.26000000000000512</v>
+      <c r="C303" s="3">
+        <v>6.1904761904760797E-3</v>
       </c>
       <c r="D303">
         <v>-2.4000000000000021E-2</v>
@@ -4676,8 +4680,8 @@
       <c r="B304">
         <v>-0.1379999999999999</v>
       </c>
-      <c r="C304">
-        <v>-4.9500000000000028</v>
+      <c r="C304" s="3">
+        <v>-0.11785714285714288</v>
       </c>
       <c r="D304">
         <v>-0.12000000000000011</v>
@@ -4690,8 +4694,8 @@
       <c r="B305">
         <v>4.4999999999999929E-2</v>
       </c>
-      <c r="C305">
-        <v>-0.81000000000000227</v>
+      <c r="C305" s="3">
+        <v>-1.9285714285714128E-2</v>
       </c>
       <c r="D305">
         <v>-1.4000000000000234E-2</v>
@@ -4704,8 +4708,8 @@
       <c r="B306">
         <v>-4.8000000000000043E-2</v>
       </c>
-      <c r="C306">
-        <v>0.10999999999999943</v>
+      <c r="C306" s="3">
+        <v>2.6190476190475209E-3</v>
       </c>
       <c r="D306">
         <v>-5.7999999999999829E-2</v>
@@ -4718,8 +4722,8 @@
       <c r="B307">
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="C307">
-        <v>-0.10999999999999943</v>
+      <c r="C307" s="3">
+        <v>-2.6190476190475209E-3</v>
       </c>
       <c r="D307">
         <v>-9.9999999999997868E-3</v>
@@ -4732,8 +4736,8 @@
       <c r="B308">
         <v>5.7000000000000384E-2</v>
       </c>
-      <c r="C308">
-        <v>2.0400000000000063</v>
+      <c r="C308" s="3">
+        <v>4.8571428571428488E-2</v>
       </c>
       <c r="D308">
         <v>8.3999999999999631E-2</v>
@@ -4746,8 +4750,8 @@
       <c r="B309">
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="C309">
-        <v>-0.23999999999999488</v>
+      <c r="C309" s="3">
+        <v>-5.7142857142853387E-3</v>
       </c>
       <c r="D309">
         <v>-3.6999999999999922E-2</v>
@@ -4760,8 +4764,8 @@
       <c r="B310">
         <v>-9.8000000000000309E-2</v>
       </c>
-      <c r="C310">
-        <v>-0.15000000000000568</v>
+      <c r="C310" s="3">
+        <v>-3.5714285714290028E-3</v>
       </c>
       <c r="D310">
         <v>-4.6999999999999709E-2</v>
@@ -4774,8 +4778,8 @@
       <c r="B311">
         <v>-2.5999999999999801E-2</v>
       </c>
-      <c r="C311">
-        <v>-1.3799999999999955</v>
+      <c r="C311" s="3">
+        <v>-3.2857142857142474E-2</v>
       </c>
       <c r="D311">
         <v>-3.9000000000000146E-2</v>
@@ -4788,8 +4792,8 @@
       <c r="B312">
         <v>9.2000000000000082E-2</v>
       </c>
-      <c r="C312">
-        <v>2.539999999999992</v>
+      <c r="C312" s="3">
+        <v>6.047619047619035E-2</v>
       </c>
       <c r="D312">
         <v>7.099999999999973E-2</v>
@@ -4802,8 +4806,8 @@
       <c r="B313">
         <v>8.0999999999999961E-2</v>
       </c>
-      <c r="C313">
-        <v>1.6299999999999955</v>
+      <c r="C313" s="3">
+        <v>3.8809523809523405E-2</v>
       </c>
       <c r="D313">
         <v>2.9000000000000359E-2</v>
@@ -4816,8 +4820,8 @@
       <c r="B314">
         <v>-5.0000000000003375E-3</v>
       </c>
-      <c r="C314">
-        <v>2.4200000000000017</v>
+      <c r="C314" s="3">
+        <v>5.7619047619047681E-2</v>
       </c>
       <c r="D314">
         <v>-9.0000000000003411E-3</v>
@@ -4830,8 +4834,8 @@
       <c r="B315">
         <v>-1.499999999999968E-2</v>
       </c>
-      <c r="C315">
-        <v>0.62000000000000455</v>
+      <c r="C315" s="3">
+        <v>1.4761904761904976E-2</v>
       </c>
       <c r="D315">
         <v>1.1000000000000121E-2</v>
@@ -4844,8 +4848,8 @@
       <c r="B316">
         <v>-2.8000000000000025E-2</v>
       </c>
-      <c r="C316">
-        <v>1.1800000000000068</v>
+      <c r="C316" s="3">
+        <v>2.8095238095238173E-2</v>
       </c>
       <c r="D316">
         <v>-1.6000000000000014E-2</v>
@@ -4858,8 +4862,8 @@
       <c r="B317">
         <v>0.10199999999999987</v>
       </c>
-      <c r="C317">
-        <v>1.289999999999992</v>
+      <c r="C317" s="3">
+        <v>3.0714285714285694E-2</v>
       </c>
       <c r="D317">
         <v>4.3000000000000149E-2</v>
@@ -4872,8 +4876,8 @@
       <c r="B318">
         <v>0.15399999999999991</v>
       </c>
-      <c r="C318">
-        <v>1.6099999999999994</v>
+      <c r="C318" s="3">
+        <v>3.8333333333333108E-2</v>
       </c>
       <c r="D318">
         <v>4.4000000000000039E-2</v>
@@ -4886,8 +4890,8 @@
       <c r="B319">
         <v>2.4000000000000021E-2</v>
       </c>
-      <c r="C319">
-        <v>-1.2399999999999949</v>
+      <c r="C319" s="3">
+        <v>-2.9523809523809508E-2</v>
       </c>
       <c r="D319">
         <v>7.7999999999999847E-2</v>
@@ -4900,8 +4904,8 @@
       <c r="B320">
         <v>4.3000000000000149E-2</v>
       </c>
-      <c r="C320">
-        <v>0.73999999999999488</v>
+      <c r="C320" s="3">
+        <v>1.7619047619047645E-2</v>
       </c>
       <c r="D320">
         <v>3.0000000000000249E-2</v>
@@ -4914,8 +4918,8 @@
       <c r="B321">
         <v>1.9999999999997797E-3</v>
       </c>
-      <c r="C321">
-        <v>-2.6700000000000017</v>
+      <c r="C321" s="3">
+        <v>-6.3571428571428612E-2</v>
       </c>
       <c r="D321">
         <v>-9.0000000000000302E-2</v>
@@ -4928,8 +4932,8 @@
       <c r="B322">
         <v>-8.5999999999999854E-2</v>
       </c>
-      <c r="C322">
-        <v>-2.019999999999996</v>
+      <c r="C322" s="3">
+        <v>-4.8095238095237747E-2</v>
       </c>
       <c r="D322">
         <v>-0.12999999999999989</v>
@@ -4942,8 +4946,8 @@
       <c r="B323">
         <v>0.15200000000000014</v>
       </c>
-      <c r="C323">
-        <v>-1.269999999999996</v>
+      <c r="C323" s="3">
+        <v>-3.0238095238095397E-2</v>
       </c>
       <c r="D323">
         <v>-4.0000000000000036E-2</v>
@@ -4956,8 +4960,8 @@
       <c r="B324">
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="C324">
-        <v>1.7399999999999949</v>
+      <c r="C324" s="3">
+        <v>4.142857142857137E-2</v>
       </c>
       <c r="D324">
         <v>-2.1999999999999797E-2</v>
@@ -4970,8 +4974,8 @@
       <c r="B325">
         <v>-6.4999999999999947E-2</v>
       </c>
-      <c r="C325">
-        <v>0.28000000000000114</v>
+      <c r="C325" s="3">
+        <v>6.6666666666668206E-3</v>
       </c>
       <c r="D325">
         <v>-4.9000000000000377E-2</v>
@@ -4984,8 +4988,8 @@
       <c r="B326">
         <v>1.4000000000000234E-2</v>
       </c>
-      <c r="C326">
-        <v>3.2399999999999949</v>
+      <c r="C326" s="3">
+        <v>7.7142857142856958E-2</v>
       </c>
       <c r="D326">
         <v>4.0000000000000036E-3</v>
@@ -4998,8 +5002,8 @@
       <c r="B327">
         <v>-0.13500000000000023</v>
       </c>
-      <c r="C327">
-        <v>-1.3099999999999881</v>
+      <c r="C327" s="3">
+        <v>-3.1190476190475991E-2</v>
       </c>
       <c r="D327">
         <v>0.10899999999999999</v>
@@ -5012,8 +5016,8 @@
       <c r="B328">
         <v>-9.3999999999999861E-2</v>
       </c>
-      <c r="C328">
-        <v>-1.5300000000000011</v>
+      <c r="C328" s="3">
+        <v>-3.6428571428571477E-2</v>
       </c>
       <c r="D328">
         <v>-7.8999999999999737E-2</v>
@@ -5026,8 +5030,8 @@
       <c r="B329">
         <v>-0.11100000000000021</v>
       </c>
-      <c r="C329">
-        <v>-5.4300000000000068</v>
+      <c r="C329" s="3">
+        <v>-0.12928571428571445</v>
       </c>
       <c r="D329">
         <v>-0.14000000000000012</v>
@@ -5040,8 +5044,8 @@
       <c r="B330">
         <v>1.8000000000000238E-2</v>
       </c>
-      <c r="C330">
-        <v>3.230000000000004</v>
+      <c r="C330" s="3">
+        <v>7.6904761904762253E-2</v>
       </c>
       <c r="D330">
         <v>6.6000000000000281E-2</v>
@@ -5054,8 +5058,8 @@
       <c r="B331">
         <v>1.399999999999979E-2</v>
       </c>
-      <c r="C331">
-        <v>2.519999999999996</v>
+      <c r="C331" s="3">
+        <v>5.9999999999999609E-2</v>
       </c>
       <c r="D331">
         <v>8.0000000000000071E-3</v>
@@ -5068,8 +5072,8 @@
       <c r="B332">
         <v>6.899999999999995E-2</v>
       </c>
-      <c r="C332">
-        <v>2.4500000000000028</v>
+      <c r="C332" s="3">
+        <v>5.833333333333357E-2</v>
       </c>
       <c r="D332">
         <v>5.9999999999999609E-2</v>
@@ -5082,8 +5086,8 @@
       <c r="B333">
         <v>3.0000000000001137E-3</v>
       </c>
-      <c r="C333">
-        <v>-1.2000000000000028</v>
+      <c r="C333" s="3">
+        <v>-2.8571428571428914E-2</v>
       </c>
       <c r="D333">
         <v>-2.2999999999999687E-2</v>
@@ -5096,8 +5100,8 @@
       <c r="B334">
         <v>-1.5000000000000124E-2</v>
       </c>
-      <c r="C334">
-        <v>0.14000000000000057</v>
+      <c r="C334" s="3">
+        <v>3.3333333333334103E-3</v>
       </c>
       <c r="D334">
         <v>-4.0000000000000036E-3</v>
@@ -5110,8 +5114,8 @@
       <c r="B335">
         <v>-3.6000000000000032E-2</v>
       </c>
-      <c r="C335">
-        <v>-1.6799999999999926</v>
+      <c r="C335" s="3">
+        <v>-3.9999999999999591E-2</v>
       </c>
       <c r="D335">
         <v>-4.0999999999999925E-2</v>
@@ -5124,8 +5128,8 @@
       <c r="B336">
         <v>1.8000000000000238E-2</v>
       </c>
-      <c r="C336">
-        <v>0.82999999999999829</v>
+      <c r="C336" s="3">
+        <v>1.9761904761904425E-2</v>
       </c>
       <c r="D336">
         <v>1.0999999999999677E-2</v>
@@ -5138,8 +5142,8 @@
       <c r="B337">
         <v>1.7999999999999794E-2</v>
       </c>
-      <c r="C337">
-        <v>2.0499999999999972</v>
+      <c r="C337" s="3">
+        <v>4.880952380952408E-2</v>
       </c>
       <c r="D337">
         <v>4.4000000000000039E-2</v>
@@ -5152,8 +5156,8 @@
       <c r="B338">
         <v>-1.2999999999999901E-2</v>
       </c>
-      <c r="C338">
-        <v>0.39999999999999147</v>
+      <c r="C338" s="3">
+        <v>9.5238095238090459E-3</v>
       </c>
       <c r="D338">
         <v>1.2000000000000011E-2</v>
@@ -5166,8 +5170,8 @@
       <c r="B339">
         <v>-9.4999999999999751E-2</v>
       </c>
-      <c r="C339">
-        <v>-0.78999999999999204</v>
+      <c r="C339" s="3">
+        <v>-1.8809523809523387E-2</v>
       </c>
       <c r="D339">
         <v>-5.2999999999999936E-2</v>
@@ -5180,8 +5184,8 @@
       <c r="B340">
         <v>7.3999999999999844E-2</v>
       </c>
-      <c r="C340">
-        <v>4.5900000000000034</v>
+      <c r="C340" s="3">
+        <v>0.10928571428571443</v>
       </c>
       <c r="D340">
         <v>6.1999999999999833E-2</v>
@@ -5194,8 +5198,8 @@
       <c r="B341">
         <v>0.17899999999999983</v>
       </c>
-      <c r="C341">
-        <v>4.2999999999999972</v>
+      <c r="C341" s="3">
+        <v>0.10238095238095202</v>
       </c>
       <c r="D341">
         <v>6.9000000000000394E-2</v>
@@ -5208,8 +5212,8 @@
       <c r="B342">
         <v>0.12300000000000022</v>
       </c>
-      <c r="C342">
-        <v>2.1700000000000017</v>
+      <c r="C342" s="3">
+        <v>5.166666666666675E-2</v>
       </c>
       <c r="D342">
         <v>6.899999999999995E-2</v>
@@ -5222,8 +5226,8 @@
       <c r="B343">
         <v>-7.0000000000000284E-2</v>
       </c>
-      <c r="C343">
-        <v>-1.0400000000000063</v>
+      <c r="C343" s="3">
+        <v>-2.4761904761904763E-2</v>
       </c>
       <c r="D343">
         <v>-2.1000000000000352E-2</v>
@@ -5236,8 +5240,8 @@
       <c r="B344">
         <v>-2.5999999999999801E-2</v>
       </c>
-      <c r="C344">
-        <v>-0.43999999999999773</v>
+      <c r="C344" s="3">
+        <v>-1.0476190476190528E-2</v>
       </c>
       <c r="D344">
         <v>1.000000000000334E-3</v>
@@ -5250,8 +5254,8 @@
       <c r="B345">
         <v>-0.11900000000000022</v>
       </c>
-      <c r="C345">
-        <v>-0.37999999999999545</v>
+      <c r="C345" s="3">
+        <v>-9.047619047618749E-3</v>
       </c>
       <c r="D345">
         <v>-5.2000000000000046E-2</v>
@@ -5264,8 +5268,8 @@
       <c r="B346">
         <v>5.500000000000016E-2</v>
       </c>
-      <c r="C346">
-        <v>1.7999999999999972</v>
+      <c r="C346" s="3">
+        <v>4.2857142857142705E-2</v>
       </c>
       <c r="D346">
         <v>5.8999999999999719E-2</v>
@@ -5278,8 +5282,8 @@
       <c r="B347">
         <v>-1.9999999999997797E-3</v>
       </c>
-      <c r="C347">
-        <v>-1.4500000000000028</v>
+      <c r="C347" s="3">
+        <v>-3.4523809523809845E-2</v>
       </c>
       <c r="D347">
         <v>2.4000000000000021E-2</v>
@@ -5292,8 +5296,8 @@
       <c r="B348">
         <v>7.8999999999999737E-2</v>
       </c>
-      <c r="C348">
-        <v>2.8299999999999983</v>
+      <c r="C348" s="3">
+        <v>6.7380952380952319E-2</v>
       </c>
       <c r="D348">
         <v>7.6999999999999957E-2</v>
@@ -5306,8 +5310,8 @@
       <c r="B349">
         <v>-0.17799999999999994</v>
       </c>
-      <c r="C349">
-        <v>0.37000000000000455</v>
+      <c r="C349" s="3">
+        <v>8.8095238095240447E-3</v>
       </c>
       <c r="D349">
         <v>-8.0000000000000071E-3</v>
@@ -5320,8 +5324,8 @@
       <c r="B350">
         <v>-9.7999999999999865E-2</v>
       </c>
-      <c r="C350">
-        <v>-0.40999999999999659</v>
+      <c r="C350" s="3">
+        <v>-9.7619047619046384E-3</v>
       </c>
       <c r="D350">
         <v>-4.9999999999999822E-2</v>
@@ -5334,8 +5338,8 @@
       <c r="B351">
         <v>-5.699999999999994E-2</v>
       </c>
-      <c r="C351">
-        <v>-2.0300000000000011</v>
+      <c r="C351" s="3">
+        <v>-4.8333333333333339E-2</v>
       </c>
       <c r="D351">
         <v>-7.5000000000000178E-2</v>
@@ -5348,8 +5352,8 @@
       <c r="B352">
         <v>-3.3000000000000362E-2</v>
       </c>
-      <c r="C352">
-        <v>-3.1700000000000017</v>
+      <c r="C352" s="3">
+        <v>-7.5476190476190474E-2</v>
       </c>
       <c r="D352">
         <v>-4.4999999999999929E-2</v>
@@ -5362,8 +5366,8 @@
       <c r="B353">
         <v>-4.2999999999999705E-2</v>
       </c>
-      <c r="C353">
-        <v>6.0000000000002274E-2</v>
+      <c r="C353" s="3">
+        <v>1.4285714285713347E-3</v>
       </c>
       <c r="D353">
         <v>7.0000000000001172E-3</v>
@@ -5376,8 +5380,8 @@
       <c r="B354">
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="C354">
-        <v>-0.49000000000000909</v>
+      <c r="C354" s="3">
+        <v>-1.1666666666666714E-2</v>
       </c>
       <c r="D354">
         <v>4.8999999999999932E-2</v>
@@ -5390,8 +5394,8 @@
       <c r="B355">
         <v>2.0999999999999908E-2</v>
       </c>
-      <c r="C355">
-        <v>-1.1499999999999915</v>
+      <c r="C355" s="3">
+        <v>-2.7380952380952284E-2</v>
       </c>
       <c r="D355">
         <v>-9.9999999999997868E-3</v>
@@ -5404,8 +5408,8 @@
       <c r="B356">
         <v>-6.999999999999984E-2</v>
       </c>
-      <c r="C356">
-        <v>-3.710000000000008</v>
+      <c r="C356" s="3">
+        <v>-8.8333333333333375E-2</v>
       </c>
       <c r="D356">
         <v>-7.5000000000000178E-2</v>
@@ -5418,8 +5422,8 @@
       <c r="B357">
         <v>1.399999999999979E-2</v>
       </c>
-      <c r="C357">
-        <v>-0.8399999999999892</v>
+      <c r="C357" s="3">
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="D357">
         <v>3.0000000000001137E-3</v>
@@ -5432,8 +5436,8 @@
       <c r="B358">
         <v>-8.4000000000000075E-2</v>
       </c>
-      <c r="C358">
-        <v>-2.6100000000000136</v>
+      <c r="C358" s="3">
+        <v>-6.2142857142857277E-2</v>
       </c>
       <c r="D358">
         <v>-8.7000000000000188E-2</v>
@@ -5446,8 +5450,8 @@
       <c r="B359">
         <v>0.10000000000000009</v>
       </c>
-      <c r="C359">
-        <v>-0.38999999999998636</v>
+      <c r="C359" s="3">
+        <v>-9.2857142857138975E-3</v>
       </c>
       <c r="D359">
         <v>3.8000000000000256E-2</v>
@@ -5460,8 +5464,8 @@
       <c r="B360">
         <v>5.600000000000005E-2</v>
       </c>
-      <c r="C360">
-        <v>6.9999999999993179E-2</v>
+      <c r="C360" s="3">
+        <v>1.6666666666664831E-3</v>
       </c>
       <c r="D360">
         <v>6.4000000000000057E-2</v>
@@ -5474,8 +5478,8 @@
       <c r="B361">
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="C361">
-        <v>-0.79999999999999716</v>
+      <c r="C361" s="3">
+        <v>-1.904761904761898E-2</v>
       </c>
       <c r="D361">
         <v>7.7999999999999847E-2</v>
@@ -5488,8 +5492,8 @@
       <c r="B362">
         <v>2.2000000000000242E-2</v>
       </c>
-      <c r="C362">
-        <v>3.2199999999999989</v>
+      <c r="C362" s="3">
+        <v>7.6666666666666661E-2</v>
       </c>
       <c r="D362">
         <v>1.2000000000000011E-2</v>
@@ -5502,8 +5506,8 @@
       <c r="B363">
         <v>-5.500000000000016E-2</v>
       </c>
-      <c r="C363">
-        <v>1.0600000000000023</v>
+      <c r="C363" s="3">
+        <v>2.523809523809506E-2</v>
       </c>
       <c r="D363">
         <v>-5.400000000000027E-2</v>
@@ -5516,8 +5520,8 @@
       <c r="B364">
         <v>4.4999999999999929E-2</v>
       </c>
-      <c r="C364">
-        <v>0.64000000000000057</v>
+      <c r="C364" s="3">
+        <v>1.5238095238095273E-2</v>
       </c>
       <c r="D364">
         <v>1.2000000000000011E-2</v>
@@ -5530,8 +5534,8 @@
       <c r="B365">
         <v>0.10599999999999987</v>
       </c>
-      <c r="C365">
-        <v>1.3799999999999955</v>
+      <c r="C365" s="3">
+        <v>3.2857142857142918E-2</v>
       </c>
       <c r="D365">
         <v>7.5000000000000178E-2</v>
@@ -5544,8 +5548,8 @@
       <c r="B366">
         <v>-7.8999999999999737E-2</v>
       </c>
-      <c r="C366">
-        <v>-2.7199999999999989</v>
+      <c r="C366" s="3">
+        <v>-6.4761904761904798E-2</v>
       </c>
       <c r="D366">
         <v>-6.899999999999995E-2</v>
@@ -5558,8 +5562,8 @@
       <c r="B367">
         <v>-7.0000000000000284E-2</v>
       </c>
-      <c r="C367">
-        <v>-4.019999999999996</v>
+      <c r="C367" s="3">
+        <v>-9.5714285714285641E-2</v>
       </c>
       <c r="D367">
         <v>-7.7999999999999847E-2</v>
@@ -5572,8 +5576,8 @@
       <c r="B368">
         <v>-3.8999999999999702E-2</v>
       </c>
-      <c r="C368">
-        <v>0.61999999999999034</v>
+      <c r="C368" s="3">
+        <v>1.4761904761904532E-2</v>
       </c>
       <c r="D368">
         <v>2.8999999999999915E-2</v>
@@ -5586,8 +5590,8 @@
       <c r="B369">
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="C369">
-        <v>3.0400000000000063</v>
+      <c r="C369" s="3">
+        <v>7.2380952380952657E-2</v>
       </c>
       <c r="D369">
         <v>9.6000000000000085E-2</v>
@@ -5600,8 +5604,8 @@
       <c r="B370">
         <v>-1.6000000000000014E-2</v>
       </c>
-      <c r="C370">
-        <v>0.81999999999999318</v>
+      <c r="C370" s="3">
+        <v>1.9523809523809277E-2</v>
       </c>
       <c r="D370">
         <v>0.11099999999999977</v>
@@ -5614,8 +5618,8 @@
       <c r="B371">
         <v>1.6999999999999904E-2</v>
       </c>
-      <c r="C371">
-        <v>0.5</v>
+      <c r="C371" s="3">
+        <v>1.1904761904761862E-2</v>
       </c>
       <c r="D371">
         <v>-0.17099999999999982</v>
@@ -5628,8 +5632,8 @@
       <c r="B372">
         <v>0.1080000000000001</v>
       </c>
-      <c r="C372">
-        <v>2.460000000000008</v>
+      <c r="C372" s="3">
+        <v>5.8571428571428719E-2</v>
       </c>
       <c r="D372">
         <v>2.2999999999999687E-2</v>
@@ -5642,8 +5646,8 @@
       <c r="B373">
         <v>6.899999999999995E-2</v>
       </c>
-      <c r="C373">
-        <v>2.519999999999996</v>
+      <c r="C373" s="3">
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="D373">
         <v>0.10099999999999998</v>
@@ -5656,8 +5660,8 @@
       <c r="B374">
         <v>-3.6999999999999922E-2</v>
       </c>
-      <c r="C374">
-        <v>-0.26999999999999602</v>
+      <c r="C374" s="3">
+        <v>-6.4285714285712281E-3</v>
       </c>
       <c r="D374">
         <v>-3.1999999999999584E-2</v>
@@ -5670,8 +5674,8 @@
       <c r="B375">
         <v>0.17599999999999971</v>
       </c>
-      <c r="C375">
-        <v>0.31999999999999318</v>
+      <c r="C375" s="3">
+        <v>7.6190476190474143E-3</v>
       </c>
       <c r="D375">
         <v>-7.7000000000000401E-2</v>
@@ -5684,8 +5688,8 @@
       <c r="B376">
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="C376">
-        <v>-3.519999999999996</v>
+      <c r="C376" s="3">
+        <v>-8.3809523809523778E-2</v>
       </c>
       <c r="D376">
         <v>-7.8999999999999737E-2</v>
@@ -5698,8 +5702,8 @@
       <c r="B377">
         <v>-6.1999999999999833E-2</v>
       </c>
-      <c r="C377">
-        <v>0.15999999999999659</v>
+      <c r="C377" s="3">
+        <v>3.8095238095237072E-3</v>
       </c>
       <c r="D377">
         <v>-3.2999999999999918E-2</v>
@@ -5712,8 +5716,8 @@
       <c r="B378">
         <v>2.1999999999999797E-2</v>
       </c>
-      <c r="C378">
-        <v>0.99000000000000909</v>
+      <c r="C378" s="3">
+        <v>2.3571428571428577E-2</v>
       </c>
       <c r="D378">
         <v>2.1999999999999797E-2</v>
@@ -5726,8 +5730,8 @@
       <c r="B379">
         <v>-1.499999999999968E-2</v>
       </c>
-      <c r="C379">
-        <v>6.9999999999993179E-2</v>
+      <c r="C379" s="3">
+        <v>1.6666666666664831E-3</v>
       </c>
       <c r="D379">
         <v>-3.2000000000000028E-2</v>
@@ -5740,8 +5744,8 @@
       <c r="B380">
         <v>8.8999999999999968E-2</v>
       </c>
-      <c r="C380">
-        <v>2.2800000000000011</v>
+      <c r="C380" s="3">
+        <v>5.4285714285714715E-2</v>
       </c>
       <c r="D380">
         <v>3.0000000000000249E-2</v>
@@ -5754,8 +5758,8 @@
       <c r="B381">
         <v>5.699999999999994E-2</v>
       </c>
-      <c r="C381">
-        <v>1.2199999999999989</v>
+      <c r="C381" s="3">
+        <v>2.9047619047618767E-2</v>
       </c>
       <c r="D381">
         <v>6.5999999999999837E-2</v>
@@ -5768,8 +5772,8 @@
       <c r="B382">
         <v>4.4000000000000039E-2</v>
       </c>
-      <c r="C382">
-        <v>-1.8700000000000045</v>
+      <c r="C382" s="3">
+        <v>-4.4523809523809632E-2</v>
       </c>
       <c r="D382">
         <v>3.0000000000001137E-3</v>
@@ -5782,8 +5786,8 @@
       <c r="B383">
         <v>-8.8999999999999968E-2</v>
       </c>
-      <c r="C383">
-        <v>-1.8900000000000006</v>
+      <c r="C383" s="3">
+        <v>-4.4999999999999929E-2</v>
       </c>
       <c r="D383">
         <v>-6.0000000000000053E-2</v>
@@ -5796,8 +5800,8 @@
       <c r="B384">
         <v>-9.6000000000000085E-2</v>
       </c>
-      <c r="C384">
-        <v>-0.20999999999999375</v>
+      <c r="C384" s="3">
+        <v>-4.9999999999998934E-3</v>
       </c>
       <c r="D384">
         <v>-2.8999999999999915E-2</v>
@@ -5810,8 +5814,8 @@
       <c r="B385">
         <v>4.7000000000000153E-2</v>
       </c>
-      <c r="C385">
-        <v>1.6400000000000006</v>
+      <c r="C385" s="3">
+        <v>3.9047619047618998E-2</v>
       </c>
       <c r="D385">
         <v>3.6000000000000032E-2</v>
@@ -5824,8 +5828,8 @@
       <c r="B386">
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="C386">
-        <v>1.7999999999999972</v>
+      <c r="C386" s="3">
+        <v>4.2857142857142705E-2</v>
       </c>
       <c r="D386">
         <v>4.0000000000000036E-3</v>
@@ -5838,8 +5842,8 @@
       <c r="B387">
         <v>1.2999999999999901E-2</v>
       </c>
-      <c r="C387">
-        <v>-0.15999999999999659</v>
+      <c r="C387" s="3">
+        <v>-3.8095238095237072E-3</v>
       </c>
       <c r="D387">
         <v>-3.1000000000000139E-2</v>
@@ -5852,8 +5856,8 @@
       <c r="B388">
         <v>-5.699999999999994E-2</v>
       </c>
-      <c r="C388">
-        <v>-0.70000000000000284</v>
+      <c r="C388" s="3">
+        <v>-1.6666666666666607E-2</v>
       </c>
       <c r="D388">
         <v>-5.1000000000000156E-2</v>
@@ -5866,8 +5870,8 @@
       <c r="B389">
         <v>7.3999999999999844E-2</v>
       </c>
-      <c r="C389">
-        <v>2.7399999999999949</v>
+      <c r="C389" s="3">
+        <v>6.5238095238095095E-2</v>
       </c>
       <c r="D389">
         <v>6.3000000000000167E-2</v>
@@ -5880,8 +5884,8 @@
       <c r="B390">
         <v>7.6999999999999957E-2</v>
       </c>
-      <c r="C390">
-        <v>1.2600000000000051</v>
+      <c r="C390" s="3">
+        <v>3.0000000000000249E-2</v>
       </c>
       <c r="D390">
         <v>9.6000000000000085E-2</v>
@@ -5894,8 +5898,8 @@
       <c r="B391">
         <v>4.9999999999998934E-3</v>
       </c>
-      <c r="C391">
-        <v>-0.51999999999999602</v>
+      <c r="C391" s="3">
+        <v>-1.2380952380952159E-2</v>
       </c>
       <c r="D391">
         <v>-4.0000000000000036E-3</v>
@@ -5908,8 +5912,8 @@
       <c r="B392">
         <v>-6.2999999999999723E-2</v>
       </c>
-      <c r="C392">
-        <v>-1.25</v>
+      <c r="C392" s="3">
+        <v>-2.97619047619051E-2</v>
       </c>
       <c r="D392">
         <v>-6.7000000000000171E-2</v>
@@ -5922,8 +5926,8 @@
       <c r="B393">
         <v>-8.6000000000000298E-2</v>
       </c>
-      <c r="C393">
-        <v>-2.210000000000008</v>
+      <c r="C393" s="3">
+        <v>-5.2619047619047787E-2</v>
       </c>
       <c r="D393">
         <v>-7.2999999999999954E-2</v>
@@ -5936,8 +5940,8 @@
       <c r="B394">
         <v>-6.2999999999999723E-2</v>
       </c>
-      <c r="C394">
-        <v>-0.91999999999998749</v>
+      <c r="C394" s="3">
+        <v>-2.1904761904761649E-2</v>
       </c>
       <c r="D394">
         <v>-2.4999999999999911E-2</v>
@@ -5950,8 +5954,8 @@
       <c r="B395">
         <v>-2.3000000000000131E-2</v>
       </c>
-      <c r="C395">
-        <v>1.5799999999999983</v>
+      <c r="C395" s="3">
+        <v>3.7619047619047663E-2</v>
       </c>
       <c r="D395">
         <v>1.6999999999999904E-2</v>
@@ -5964,8 +5968,8 @@
       <c r="B396">
         <v>-3.9000000000000146E-2</v>
       </c>
-      <c r="C396">
-        <v>-3.4699999999999989</v>
+      <c r="C396" s="3">
+        <v>-8.2619047619047592E-2</v>
       </c>
       <c r="D396">
         <v>1.2999999999999901E-2</v>
@@ -5978,8 +5982,8 @@
       <c r="B397">
         <v>-8.6999999999999744E-2</v>
       </c>
-      <c r="C397">
-        <v>-2.2700000000000102</v>
+      <c r="C397" s="3">
+        <v>-5.4047619047619122E-2</v>
       </c>
       <c r="D397">
         <v>-1.499999999999968E-2</v>
@@ -5992,8 +5996,8 @@
       <c r="B398">
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="C398">
-        <v>-0.32999999999999829</v>
+      <c r="C398" s="3">
+        <v>-7.8571428571430069E-3</v>
       </c>
       <c r="D398">
         <v>-1.4000000000000234E-2</v>
@@ -6006,8 +6010,8 @@
       <c r="B399">
         <v>-1.1000000000000121E-2</v>
       </c>
-      <c r="C399">
-        <v>-2.2800000000000011</v>
+      <c r="C399" s="3">
+        <v>-5.428571428571427E-2</v>
       </c>
       <c r="D399">
         <v>-3.6000000000000032E-2</v>
@@ -6020,8 +6024,8 @@
       <c r="B400">
         <v>4.8999999999999932E-2</v>
       </c>
-      <c r="C400">
-        <v>-0.59000000000000341</v>
+      <c r="C400" s="3">
+        <v>-1.4047619047619087E-2</v>
       </c>
       <c r="D400">
         <v>2.7000000000000135E-2</v>
@@ -6034,8 +6038,8 @@
       <c r="B401">
         <v>-0.17199999999999971</v>
       </c>
-      <c r="C401">
-        <v>-0.27999999999998693</v>
+      <c r="C401" s="3">
+        <v>-6.6666666666663765E-3</v>
       </c>
       <c r="D401">
         <v>-2.0000000000000018E-2</v>
@@ -6048,8 +6052,8 @@
       <c r="B402">
         <v>-5.1000000000000156E-2</v>
       </c>
-      <c r="C402">
-        <v>-1.6000000000000085</v>
+      <c r="C402" s="3">
+        <v>-3.8095238095238404E-2</v>
       </c>
       <c r="D402">
         <v>-6.0000000000000053E-2</v>
@@ -6062,8 +6066,8 @@
       <c r="B403">
         <v>2.9999999999999805E-2</v>
       </c>
-      <c r="C403">
-        <v>1.1000000000000085</v>
+      <c r="C403" s="3">
+        <v>2.6190476190476542E-2</v>
       </c>
       <c r="D403">
         <v>-3.6000000000000032E-2</v>
@@ -6076,8 +6080,8 @@
       <c r="B404">
         <v>8.4999999999999964E-2</v>
       </c>
-      <c r="C404">
-        <v>-1.1500000000000057</v>
+      <c r="C404" s="3">
+        <v>-2.7380952380952728E-2</v>
       </c>
       <c r="D404">
         <v>-4.3000000000000149E-2</v>
@@ -6090,8 +6094,8 @@
       <c r="B405">
         <v>-0.1469999999999998</v>
       </c>
-      <c r="C405">
-        <v>-0.95000000000000284</v>
+      <c r="C405" s="3">
+        <v>-2.2619047619047539E-2</v>
       </c>
       <c r="D405">
         <v>-3.8999999999999702E-2</v>
@@ -6104,8 +6108,8 @@
       <c r="B406">
         <v>-0.17799999999999994</v>
       </c>
-      <c r="C406">
-        <v>-3.8199999999999932</v>
+      <c r="C406" s="3">
+        <v>-9.0952380952380896E-2</v>
       </c>
       <c r="D406">
         <v>-7.2000000000000064E-2</v>
@@ -6118,8 +6122,8 @@
       <c r="B407">
         <v>-0.12000000000000011</v>
       </c>
-      <c r="C407">
-        <v>-4.6600000000000108</v>
+      <c r="C407" s="3">
+        <v>-0.11095238095238114</v>
       </c>
       <c r="D407">
         <v>-8.8999999999999968E-2</v>
@@ -6132,8 +6136,8 @@
       <c r="B408">
         <v>-1.399999999999979E-2</v>
       </c>
-      <c r="C408">
-        <v>-1.1299999999999955</v>
+      <c r="C408" s="3">
+        <v>-2.6904761904761765E-2</v>
       </c>
       <c r="D408">
         <v>0</v>
@@ -6146,8 +6150,8 @@
       <c r="B409">
         <v>-2.0000000000002238E-3</v>
       </c>
-      <c r="C409">
-        <v>-0.56999999999999318</v>
+      <c r="C409" s="3">
+        <v>-1.3571428571428346E-2</v>
       </c>
       <c r="D409">
         <v>1.499999999999968E-2</v>
@@ -6160,8 +6164,8 @@
       <c r="B410">
         <v>-8.0000000000000071E-2</v>
       </c>
-      <c r="C410">
-        <v>-3.0200000000000102</v>
+      <c r="C410" s="3">
+        <v>-7.1904761904762138E-2</v>
       </c>
       <c r="D410">
         <v>-3.9999999999999591E-2</v>
@@ -6174,8 +6178,8 @@
       <c r="B411">
         <v>-3.8999999999999702E-2</v>
       </c>
-      <c r="C411">
-        <v>-1.7299999999999898</v>
+      <c r="C411" s="3">
+        <v>-4.1190476190476E-2</v>
       </c>
       <c r="D411">
         <v>-3.3000000000000362E-2</v>
@@ -6188,8 +6192,8 @@
       <c r="B412">
         <v>-3.2000000000000028E-2</v>
       </c>
-      <c r="C412">
-        <v>-1.1300000000000097</v>
+      <c r="C412" s="3">
+        <v>-2.6904761904762209E-2</v>
       </c>
       <c r="D412">
         <v>-4.6999999999999709E-2</v>
@@ -6202,8 +6206,8 @@
       <c r="B413">
         <v>-3.8000000000000256E-2</v>
       </c>
-      <c r="C413">
-        <v>-2.9499999999999886</v>
+      <c r="C413" s="3">
+        <v>-7.0238095238094767E-2</v>
       </c>
       <c r="D413">
         <v>-3.2000000000000028E-2</v>
@@ -6216,8 +6220,8 @@
       <c r="B414">
         <v>-0.18699999999999983</v>
       </c>
-      <c r="C414">
-        <v>-5.25</v>
+      <c r="C414" s="3">
+        <v>-0.125</v>
       </c>
       <c r="D414">
         <v>-0.20900000000000007</v>
@@ -6230,8 +6234,8 @@
       <c r="B415">
         <v>-0.15500000000000003</v>
       </c>
-      <c r="C415">
-        <v>-6.0700000000000074</v>
+      <c r="C415" s="3">
+        <v>-0.14452380952380972</v>
       </c>
       <c r="D415">
         <v>-9.2000000000000082E-2</v>
@@ -6244,8 +6248,8 @@
       <c r="B416">
         <v>-0.10499999999999998</v>
       </c>
-      <c r="C416">
-        <v>-5.32</v>
+      <c r="C416" s="3">
+        <v>-0.12666666666666671</v>
       </c>
       <c r="D416">
         <v>-7.8999999999999959E-2</v>
@@ -6258,8 +6262,8 @@
       <c r="B417">
         <v>-2.200000000000002E-2</v>
       </c>
-      <c r="C417">
-        <v>-4.9999999999997158E-2</v>
+      <c r="C417" s="3">
+        <v>-1.1904761904761862E-3</v>
       </c>
       <c r="D417">
         <v>-3.0999999999999917E-2</v>
@@ -6272,8 +6276,8 @@
       <c r="B418">
         <v>-8.8000000000000078E-2</v>
       </c>
-      <c r="C418">
-        <v>-2.3200000000000003</v>
+      <c r="C418" s="3">
+        <v>-5.5238095238095308E-2</v>
       </c>
       <c r="D418">
         <v>-0.10299999999999998</v>
@@ -6286,8 +6290,8 @@
       <c r="B419">
         <v>-9.6999999999999975E-2</v>
       </c>
-      <c r="C419">
-        <v>-4.6700000000000017</v>
+      <c r="C419" s="3">
+        <v>-0.11119047619047606</v>
       </c>
       <c r="D419">
         <v>-0.12200000000000011</v>
@@ -6300,8 +6304,8 @@
       <c r="B420">
         <v>-3.6999999999999922E-2</v>
       </c>
-      <c r="C420">
-        <v>-1.6700000000000017</v>
+      <c r="C420" s="3">
+        <v>-3.9761904761904887E-2</v>
       </c>
       <c r="D420">
         <v>-7.2000000000000064E-2</v>
@@ -6314,8 +6318,8 @@
       <c r="B421">
         <v>1.8999999999999906E-2</v>
       </c>
-      <c r="C421">
-        <v>-0.55999999999999517</v>
+      <c r="C421" s="3">
+        <v>-1.3333333333333197E-2</v>
       </c>
       <c r="D421">
         <v>-6.9999999999998952E-3</v>
@@ -6328,8 +6332,8 @@
       <c r="B422">
         <v>2.7000000000000135E-2</v>
       </c>
-      <c r="C422">
-        <v>-0.80000000000000426</v>
+      <c r="C422" s="3">
+        <v>-1.9047619047619202E-2</v>
       </c>
       <c r="D422">
         <v>8.999999999999897E-3</v>
@@ -6342,8 +6346,8 @@
       <c r="B423">
         <v>0.18599999999999994</v>
       </c>
-      <c r="C423">
-        <v>4.93</v>
+      <c r="C423" s="3">
+        <v>0.11738095238095236</v>
       </c>
       <c r="D423">
         <v>0.15500000000000003</v>
@@ -6356,8 +6360,8 @@
       <c r="B424">
         <v>3.6999999999999922E-2</v>
       </c>
-      <c r="C424">
-        <v>0.49000000000000199</v>
+      <c r="C424" s="3">
+        <v>1.1666666666666714E-2</v>
       </c>
       <c r="D424">
         <v>7.8000000000000069E-2</v>
@@ -6370,8 +6374,8 @@
       <c r="B425">
         <v>2.6000000000000023E-2</v>
       </c>
-      <c r="C425">
-        <v>0.64999999999999858</v>
+      <c r="C425" s="3">
+        <v>1.5476190476190421E-2</v>
       </c>
       <c r="D425">
         <v>0.13000000000000012</v>
@@ -6384,8 +6388,8 @@
       <c r="B426">
         <v>8.6999999999999966E-2</v>
       </c>
-      <c r="C426">
-        <v>-2.259999999999998</v>
+      <c r="C426" s="3">
+        <v>-5.3809523809523752E-2</v>
       </c>
       <c r="D426">
         <v>0.14599999999999991</v>
@@ -6398,8 +6402,8 @@
       <c r="B427">
         <v>0.21599999999999997</v>
       </c>
-      <c r="C427">
-        <v>0.86999999999999744</v>
+      <c r="C427" s="3">
+        <v>2.0714285714285685E-2</v>
       </c>
       <c r="D427">
         <v>-0.26200000000000001</v>
@@ -6412,8 +6416,8 @@
       <c r="B428">
         <v>-8.9999999999999858E-2</v>
       </c>
-      <c r="C428">
-        <v>-2.7299999999999969</v>
+      <c r="C428" s="3">
+        <v>-6.4999999999999947E-2</v>
       </c>
       <c r="D428">
         <v>-0.10200000000000009</v>
@@ -6426,8 +6430,8 @@
       <c r="B429">
         <v>-5.2000000000000046E-2</v>
       </c>
-      <c r="C429">
-        <v>-3.3299999999999983</v>
+      <c r="C429" s="3">
+        <v>-7.9285714285714182E-2</v>
       </c>
       <c r="D429">
         <v>-6.899999999999995E-2</v>
@@ -6440,8 +6444,8 @@
       <c r="B430">
         <v>5.8000000000000052E-2</v>
       </c>
-      <c r="C430">
-        <v>4.5499999999999972</v>
+      <c r="C430" s="3">
+        <v>0.10833333333333317</v>
       </c>
       <c r="D430">
         <v>1.2000000000000011E-2</v>
@@ -6454,8 +6458,8 @@
       <c r="B431">
         <v>-3.1000000000000139E-2</v>
       </c>
-      <c r="C431">
-        <v>-9.9999999999980105E-3</v>
+      <c r="C431" s="3">
+        <v>-2.3809523809514843E-4</v>
       </c>
       <c r="D431">
         <v>-1.6000000000000014E-2</v>
@@ -6468,8 +6472,8 @@
       <c r="B432">
         <v>9.000000000000119E-3</v>
       </c>
-      <c r="C432">
-        <v>2.9099999999999966</v>
+      <c r="C432" s="3">
+        <v>6.9285714285714173E-2</v>
       </c>
       <c r="D432">
         <v>2.8000000000000025E-2</v>
@@ -6482,8 +6486,8 @@
       <c r="B433">
         <v>8.5999999999999854E-2</v>
       </c>
-      <c r="C433">
-        <v>3.0200000000000031</v>
+      <c r="C433" s="3">
+        <v>7.1904761904762138E-2</v>
       </c>
       <c r="D433">
         <v>0.10499999999999998</v>
@@ -6496,8 +6500,8 @@
       <c r="B434">
         <v>6.2000000000000055E-2</v>
       </c>
-      <c r="C434">
-        <v>1.7299999999999969</v>
+      <c r="C434" s="3">
+        <v>4.1190476190476E-2</v>
       </c>
       <c r="D434">
         <v>3.8000000000000034E-2</v>
@@ -6510,8 +6514,8 @@
       <c r="B435">
         <v>7.4999999999999956E-2</v>
       </c>
-      <c r="C435">
-        <v>1.740000000000002</v>
+      <c r="C435" s="3">
+        <v>4.1428571428571592E-2</v>
       </c>
       <c r="D435">
         <v>5.8000000000000052E-2</v>
@@ -6524,8 +6528,8 @@
       <c r="B436">
         <v>-1.9999999999997797E-3</v>
       </c>
-      <c r="C436">
-        <v>1.4399999999999977</v>
+      <c r="C436" s="3">
+        <v>3.4285714285714031E-2</v>
       </c>
       <c r="D436">
         <v>3.6000000000000032E-2</v>
@@ -6538,8 +6542,8 @@
       <c r="B437">
         <v>1.2999999999999901E-2</v>
       </c>
-      <c r="C437">
-        <v>0.28999999999999915</v>
+      <c r="C437" s="3">
+        <v>6.904761904761969E-3</v>
       </c>
       <c r="D437">
         <v>6.9999999999998952E-3</v>
@@ -6552,8 +6556,8 @@
       <c r="B438">
         <v>7.0000000000001172E-3</v>
       </c>
-      <c r="C438">
-        <v>-0.78999999999999915</v>
+      <c r="C438" s="3">
+        <v>-1.8809523809523832E-2</v>
       </c>
       <c r="D438">
         <v>-3.2000000000000028E-2</v>
@@ -6566,8 +6570,8 @@
       <c r="B439">
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="C439">
-        <v>-0.83999999999999631</v>
+      <c r="C439" s="3">
+        <v>-1.9999999999999796E-2</v>
       </c>
       <c r="D439">
         <v>-6.4000000000000057E-2</v>
@@ -6580,8 +6584,8 @@
       <c r="B440">
         <v>2.9999999999999805E-2</v>
       </c>
-      <c r="C440">
-        <v>1.269999999999996</v>
+      <c r="C440" s="3">
+        <v>3.0238095238095175E-2</v>
       </c>
       <c r="D440">
         <v>-9.9999999999988987E-4</v>
@@ -6594,8 +6598,8 @@
       <c r="B441">
         <v>6.4999999999999947E-2</v>
       </c>
-      <c r="C441">
-        <v>0.44000000000000483</v>
+      <c r="C441" s="3">
+        <v>1.0476190476190528E-2</v>
       </c>
       <c r="D441">
         <v>1.0999999999999899E-2</v>
@@ -6608,8 +6612,8 @@
       <c r="B442">
         <v>1.000000000000334E-3</v>
       </c>
-      <c r="C442">
-        <v>-0.20000000000000284</v>
+      <c r="C442" s="3">
+        <v>-4.761904761904967E-3</v>
       </c>
       <c r="D442">
         <v>-1.6999999999999904E-2</v>
@@ -6622,8 +6626,8 @@
       <c r="B443">
         <v>-5.0000000000000266E-2</v>
       </c>
-      <c r="C443">
-        <v>0.17000000000000171</v>
+      <c r="C443" s="3">
+        <v>4.0476190476192997E-3</v>
       </c>
       <c r="D443">
         <v>-1.3000000000000123E-2</v>
@@ -6636,8 +6640,8 @@
       <c r="B444">
         <v>-8.999999999999897E-3</v>
       </c>
-      <c r="C444">
-        <v>-2.1400000000000006</v>
+      <c r="C444" s="3">
+        <v>-5.0952380952381082E-2</v>
       </c>
       <c r="D444">
         <v>-2.4999999999999911E-2</v>
@@ -6650,8 +6654,8 @@
       <c r="B445">
         <v>-5.2999999999999936E-2</v>
       </c>
-      <c r="C445">
-        <v>-5.5100000000000051</v>
+      <c r="C445" s="3">
+        <v>-0.1311904761904763</v>
       </c>
       <c r="D445">
         <v>-0.129</v>
@@ -6664,8 +6668,8 @@
       <c r="B446">
         <v>-7.6000000000000068E-2</v>
       </c>
-      <c r="C446">
-        <v>-0.71999999999999886</v>
+      <c r="C446" s="3">
+        <v>-1.7142857142857126E-2</v>
       </c>
       <c r="D446">
         <v>-3.2999999999999918E-2</v>
@@ -6678,8 +6682,8 @@
       <c r="B447">
         <v>-3.1000000000000139E-2</v>
       </c>
-      <c r="C447">
-        <v>-2.4299999999999997</v>
+      <c r="C447" s="3">
+        <v>-5.7857142857142829E-2</v>
       </c>
       <c r="D447">
         <v>-3.0000000000000027E-2</v>
@@ -6692,8 +6696,8 @@
       <c r="B448">
         <v>-5.699999999999994E-2</v>
       </c>
-      <c r="C448">
-        <v>-1.2999999999999972</v>
+      <c r="C448" s="3">
+        <v>-3.0952380952380842E-2</v>
       </c>
       <c r="D448">
         <v>-6.2999999999999945E-2</v>
@@ -6706,8 +6710,8 @@
       <c r="B449">
         <v>-0.16300000000000003</v>
       </c>
-      <c r="C449">
-        <v>-3.0399999999999991</v>
+      <c r="C449" s="3">
+        <v>-7.2380952380952435E-2</v>
       </c>
       <c r="D449">
         <v>-5.4000000000000048E-2</v>
@@ -6720,8 +6724,8 @@
       <c r="B450">
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="C450">
-        <v>-1.7100000000000009</v>
+      <c r="C450" s="3">
+        <v>-4.0714285714285703E-2</v>
       </c>
       <c r="D450">
         <v>3.2000000000000028E-2</v>
@@ -6734,8 +6738,8 @@
       <c r="B451">
         <v>-0.12199999999999989</v>
       </c>
-      <c r="C451">
-        <v>-1.8299999999999983</v>
+      <c r="C451" s="3">
+        <v>-4.3571428571428594E-2</v>
       </c>
       <c r="D451">
         <v>-5.600000000000005E-2</v>
@@ -6748,8 +6752,8 @@
       <c r="B452">
         <v>-0.13900000000000001</v>
       </c>
-      <c r="C452">
-        <v>-0.59000000000000341</v>
+      <c r="C452" s="3">
+        <v>-1.4047619047619087E-2</v>
       </c>
       <c r="D452">
         <v>-7.0000000000000062E-2</v>
@@ -6762,8 +6766,8 @@
       <c r="B453">
         <v>1.4000000000000012E-2</v>
       </c>
-      <c r="C453">
-        <v>5.9399999999999977</v>
+      <c r="C453" s="3">
+        <v>0.14142857142857146</v>
       </c>
       <c r="D453">
         <v>0.16700000000000004</v>
@@ -6776,8 +6780,8 @@
       <c r="B454">
         <v>-8.2000000000000073E-2</v>
       </c>
-      <c r="C454">
-        <v>-1.5700000000000003</v>
+      <c r="C454" s="3">
+        <v>-3.7380952380952515E-2</v>
       </c>
       <c r="D454">
         <v>-5.0999999999999934E-2</v>
@@ -6790,8 +6794,8 @@
       <c r="B455">
         <v>-3.0999999999999917E-2</v>
       </c>
-      <c r="C455">
-        <v>0.30000000000000426</v>
+      <c r="C455" s="3">
+        <v>7.1428571428573395E-3</v>
       </c>
       <c r="D455">
         <v>-5.1000000000000156E-2</v>
@@ -6804,8 +6808,8 @@
       <c r="B456">
         <v>4.1999999999999815E-2</v>
       </c>
-      <c r="C456">
-        <v>6.0000000000002274E-2</v>
+      <c r="C456" s="3">
+        <v>1.4285714285713347E-3</v>
       </c>
       <c r="D456">
         <v>7.0000000000001172E-3</v>
@@ -6818,8 +6822,8 @@
       <c r="B457">
         <v>-2.9999999999999805E-2</v>
       </c>
-      <c r="C457">
-        <v>-0.51000000000000512</v>
+      <c r="C457" s="3">
+        <v>-1.2142857142857233E-2</v>
       </c>
       <c r="D457">
         <v>-1.5000000000000124E-2</v>
@@ -6832,8 +6836,8 @@
       <c r="B458">
         <v>4.4999999999999929E-2</v>
       </c>
-      <c r="C458">
-        <v>3.3200000000000003</v>
+      <c r="C458" s="3">
+        <v>7.9047619047619033E-2</v>
       </c>
       <c r="D458">
         <v>8.1000000000000183E-2</v>
@@ -6846,8 +6850,8 @@
       <c r="B459">
         <v>-9.2999999999999972E-2</v>
       </c>
-      <c r="C459">
-        <v>-1.5899999999999963</v>
+      <c r="C459" s="3">
+        <v>-3.7857142857142589E-2</v>
       </c>
       <c r="D459">
         <v>-0.10200000000000009</v>
@@ -6860,8 +6864,8 @@
       <c r="B460">
         <v>1.6999999999999904E-2</v>
       </c>
-      <c r="C460">
-        <v>-1.4200000000000017</v>
+      <c r="C460" s="3">
+        <v>-3.3809523809523956E-2</v>
       </c>
       <c r="D460">
         <v>-3.0999999999999917E-2</v>
@@ -6874,8 +6878,8 @@
       <c r="B461">
         <v>5.0000000000001155E-3</v>
       </c>
-      <c r="C461">
-        <v>-0.17000000000000171</v>
+      <c r="C461" s="3">
+        <v>-4.0476190476190776E-3</v>
       </c>
       <c r="D461">
         <v>8.999999999999897E-3</v>
@@ -6888,8 +6892,8 @@
       <c r="B462">
         <v>5.2999999999999936E-2</v>
       </c>
-      <c r="C462">
-        <v>0.82000000000000028</v>
+      <c r="C462" s="3">
+        <v>1.9523809523809499E-2</v>
       </c>
       <c r="D462">
         <v>4.8999999999999932E-2</v>
@@ -6902,8 +6906,8 @@
       <c r="B463">
         <v>-7.8000000000000069E-2</v>
       </c>
-      <c r="C463">
-        <v>-3.3299999999999983</v>
+      <c r="C463" s="3">
+        <v>-7.9285714285714182E-2</v>
       </c>
       <c r="D463">
         <v>-7.2999999999999954E-2</v>
@@ -6916,8 +6920,8 @@
       <c r="B464">
         <v>-4.6999999999999931E-2</v>
       </c>
-      <c r="C464">
-        <v>-1.8200000000000003</v>
+      <c r="C464" s="3">
+        <v>-4.3333333333333335E-2</v>
       </c>
       <c r="D464">
         <v>-6.2999999999999945E-2</v>
@@ -6930,8 +6934,8 @@
       <c r="B465">
         <v>0.10899999999999999</v>
       </c>
-      <c r="C465">
-        <v>1.5200000000000031</v>
+      <c r="C465" s="3">
+        <v>3.6190476190476217E-2</v>
       </c>
       <c r="D465">
         <v>6.9999999999998952E-3</v>
@@ -6944,8 +6948,8 @@
       <c r="B466">
         <v>-5.699999999999994E-2</v>
       </c>
-      <c r="C466">
-        <v>-1.4400000000000048</v>
+      <c r="C466" s="3">
+        <v>-3.4285714285714364E-2</v>
       </c>
       <c r="D466">
         <v>-3.9999999999999813E-2</v>
@@ -6958,8 +6962,8 @@
       <c r="B467">
         <v>-7.4999999999999956E-2</v>
       </c>
-      <c r="C467">
-        <v>-3.9600000000000009</v>
+      <c r="C467" s="3">
+        <v>-9.4285714285714306E-2</v>
       </c>
       <c r="D467">
         <v>-0.1120000000000001</v>
@@ -6972,8 +6976,8 @@
       <c r="B468">
         <v>1.2999999999999901E-2</v>
       </c>
-      <c r="C468">
-        <v>-1.1699999999999946</v>
+      <c r="C468" s="3">
+        <v>-2.7857142857142692E-2</v>
       </c>
       <c r="D468">
         <v>-0.10999999999999988</v>
@@ -6986,8 +6990,8 @@
       <c r="B469">
         <v>-3.0999999999999917E-2</v>
       </c>
-      <c r="C469">
-        <v>0.84999999999999432</v>
+      <c r="C469" s="3">
+        <v>2.0238095238095055E-2</v>
       </c>
       <c r="D469">
         <v>-1.8000000000000016E-2</v>
@@ -7000,8 +7004,8 @@
       <c r="B470">
         <v>2.7999999999999803E-2</v>
       </c>
-      <c r="C470">
-        <v>0.46000000000000085</v>
+      <c r="C470" s="3">
+        <v>1.0952380952380936E-2</v>
       </c>
       <c r="D470">
         <v>-2.0000000000000018E-3</v>
@@ -7014,8 +7018,8 @@
       <c r="B471">
         <v>-5.3999999999999826E-2</v>
       </c>
-      <c r="C471">
-        <v>-2.4499999999999957</v>
+      <c r="C471" s="3">
+        <v>-5.8333333333333237E-2</v>
       </c>
       <c r="D471">
         <v>-1.0000000000000009E-2</v>
@@ -7028,8 +7032,8 @@
       <c r="B472">
         <v>-0.129</v>
       </c>
-      <c r="C472">
-        <v>-4.0400000000000027</v>
+      <c r="C472" s="3">
+        <v>-9.6190476190476271E-2</v>
       </c>
       <c r="D472">
         <v>-0.1120000000000001</v>
@@ -7042,8 +7046,8 @@
       <c r="B473">
         <v>-2.8000000000000025E-2</v>
       </c>
-      <c r="C473">
-        <v>-1.4100000000000001</v>
+      <c r="C473" s="3">
+        <v>-3.3571428571428474E-2</v>
       </c>
       <c r="D473">
         <v>-6.0999999999999943E-2</v>
@@ -7056,8 +7060,8 @@
       <c r="B474">
         <v>2.0999999999999908E-2</v>
       </c>
-      <c r="C474">
-        <v>3.009999999999998</v>
+      <c r="C474" s="3">
+        <v>7.1666666666666545E-2</v>
       </c>
       <c r="D474">
         <v>8.5999999999999854E-2</v>
@@ -7070,8 +7074,8 @@
       <c r="B475">
         <v>-3.6999999999999922E-2</v>
       </c>
-      <c r="C475">
-        <v>-0.90999999999999659</v>
+      <c r="C475" s="3">
+        <v>-2.1666666666666612E-2</v>
       </c>
       <c r="D475">
         <v>5.0000000000000044E-2</v>
@@ -7084,8 +7088,8 @@
       <c r="B476">
         <v>-6.800000000000006E-2</v>
       </c>
-      <c r="C476">
-        <v>-3.1300000000000026</v>
+      <c r="C476" s="3">
+        <v>-7.4523809523809548E-2</v>
       </c>
       <c r="D476">
         <v>-4.4000000000000039E-2</v>
@@ -7098,8 +7102,8 @@
       <c r="B477">
         <v>2.1000000000000019E-2</v>
       </c>
-      <c r="C477">
-        <v>1.8800000000000026</v>
+      <c r="C477" s="3">
+        <v>4.4761904761904892E-2</v>
       </c>
       <c r="D477">
         <v>4.6000000000000041E-2</v>
@@ -7112,8 +7116,8 @@
       <c r="B478">
         <v>3.3000000000000029E-2</v>
       </c>
-      <c r="C478">
-        <v>2.240000000000002</v>
+      <c r="C478" s="3">
+        <v>5.3333333333333344E-2</v>
       </c>
       <c r="D478">
         <v>-2.9999999999998916E-3</v>
@@ -7126,8 +7130,8 @@
       <c r="B479">
         <v>0.24899999999999989</v>
       </c>
-      <c r="C479">
-        <v>2.3899999999999935</v>
+      <c r="C479" s="3">
+        <v>5.690476190476168E-2</v>
       </c>
       <c r="D479">
         <v>6.0999999999999943E-2</v>
@@ -7140,8 +7144,8 @@
       <c r="B480">
         <v>0.16800000000000015</v>
       </c>
-      <c r="C480">
-        <v>3.1500000000000057</v>
+      <c r="C480" s="3">
+        <v>7.5000000000000178E-2</v>
       </c>
       <c r="D480">
         <v>0.10499999999999998</v>
@@ -7154,8 +7158,8 @@
       <c r="B481">
         <v>-4.0000000000000036E-3</v>
       </c>
-      <c r="C481">
-        <v>0.50999999999999801</v>
+      <c r="C481" s="3">
+        <v>1.2142857142857122E-2</v>
       </c>
       <c r="D481">
         <v>2.0000000000000018E-3</v>
@@ -7168,8 +7172,8 @@
       <c r="B482">
         <v>4.6000000000000041E-2</v>
       </c>
-      <c r="C482">
-        <v>1.8299999999999983</v>
+      <c r="C482" s="3">
+        <v>4.3571428571428483E-2</v>
       </c>
       <c r="D482">
         <v>3.0000000000001137E-3</v>
@@ -7182,8 +7186,8 @@
       <c r="B483">
         <v>-3.2000000000000028E-2</v>
       </c>
-      <c r="C483">
-        <v>-1.9299999999999997</v>
+      <c r="C483" s="3">
+        <v>-4.5952380952380967E-2</v>
       </c>
       <c r="D483">
         <v>-6.1000000000000165E-2</v>
@@ -7196,8 +7200,8 @@
       <c r="B484">
         <v>-3.8000000000000034E-2</v>
       </c>
-      <c r="C484">
-        <v>-0.96000000000000085</v>
+      <c r="C484" s="3">
+        <v>-2.2857142857142798E-2</v>
       </c>
       <c r="D484">
         <v>-3.6000000000000032E-2</v>
@@ -7210,8 +7214,8 @@
       <c r="B485">
         <v>0.10899999999999999</v>
       </c>
-      <c r="C485">
-        <v>3.9699999999999989</v>
+      <c r="C485" s="3">
+        <v>9.4523809523809454E-2</v>
       </c>
       <c r="D485">
         <v>0.12300000000000022</v>
@@ -7224,8 +7228,8 @@
       <c r="B486">
         <v>-1.4000000000000012E-2</v>
       </c>
-      <c r="C486">
-        <v>0.85000000000000142</v>
+      <c r="C486" s="3">
+        <v>2.0238095238095277E-2</v>
       </c>
       <c r="D486">
         <v>3.8999999999999924E-2</v>
@@ -7238,8 +7242,8 @@
       <c r="B487">
         <v>7.4999999999999956E-2</v>
       </c>
-      <c r="C487">
-        <v>2.7100000000000009</v>
+      <c r="C487" s="3">
+        <v>6.452380952380965E-2</v>
       </c>
       <c r="D487">
         <v>6.899999999999995E-2</v>
@@ -7252,8 +7256,8 @@
       <c r="B488">
         <v>-6.0000000000000053E-2</v>
       </c>
-      <c r="C488">
-        <v>-0.54999999999999716</v>
+      <c r="C488" s="3">
+        <v>-1.3095238095238049E-2</v>
       </c>
       <c r="D488">
         <v>-2.0000000000000018E-2</v>
@@ -7266,8 +7270,8 @@
       <c r="B489">
         <v>2.7000000000000135E-2</v>
       </c>
-      <c r="C489">
-        <v>1.2100000000000009</v>
+      <c r="C489" s="3">
+        <v>2.880952380952384E-2</v>
       </c>
       <c r="D489">
         <v>2.7000000000000135E-2</v>
@@ -7280,8 +7284,8 @@
       <c r="B490">
         <v>9.5999999999999863E-2</v>
       </c>
-      <c r="C490">
-        <v>2.5799999999999983</v>
+      <c r="C490" s="3">
+        <v>6.1428571428571388E-2</v>
       </c>
       <c r="D490">
         <v>0.10799999999999987</v>
@@ -7294,8 +7298,8 @@
       <c r="B491">
         <v>7.0000000000001172E-3</v>
       </c>
-      <c r="C491">
-        <v>0.97999999999999687</v>
+      <c r="C491" s="3">
+        <v>2.3333333333333206E-2</v>
       </c>
       <c r="D491">
         <v>2.3000000000000131E-2</v>
@@ -7308,8 +7312,8 @@
       <c r="B492">
         <v>-2.6000000000000023E-2</v>
       </c>
-      <c r="C492">
-        <v>-0.10000000000000142</v>
+      <c r="C492" s="3">
+        <v>-2.3809523809523725E-3</v>
       </c>
       <c r="D492">
         <v>0</v>
@@ -7322,8 +7326,8 @@
       <c r="B493">
         <v>-1.8000000000000016E-2</v>
       </c>
-      <c r="C493">
-        <v>1.2700000000000031</v>
+      <c r="C493" s="3">
+        <v>3.0238095238095175E-2</v>
       </c>
       <c r="D493">
         <v>4.0999999999999925E-2</v>
@@ -7336,8 +7340,8 @@
       <c r="B494">
         <v>-8.8999999999999968E-2</v>
       </c>
-      <c r="C494">
-        <v>-2.2700000000000031</v>
+      <c r="C494" s="3">
+        <v>-5.4047619047619122E-2</v>
       </c>
       <c r="D494">
         <v>-5.600000000000005E-2</v>
@@ -7350,8 +7354,8 @@
       <c r="B495">
         <v>7.2000000000000064E-2</v>
       </c>
-      <c r="C495">
-        <v>1.1100000000000065</v>
+      <c r="C495" s="3">
+        <v>2.642857142857169E-2</v>
       </c>
       <c r="D495">
         <v>2.4999999999999911E-2</v>
@@ -7364,8 +7368,8 @@
       <c r="B496">
         <v>-7.3000000000000176E-2</v>
       </c>
-      <c r="C496">
-        <v>-0.74000000000000199</v>
+      <c r="C496" s="3">
+        <v>-1.7619047619047645E-2</v>
       </c>
       <c r="D496">
         <v>-1.8999999999999906E-2</v>
@@ -7378,8 +7382,8 @@
       <c r="B497">
         <v>-0.10599999999999987</v>
       </c>
-      <c r="C497">
-        <v>-2.1300000000000026</v>
+      <c r="C497" s="3">
+        <v>-5.0714285714285934E-2</v>
       </c>
       <c r="D497">
         <v>-5.0999999999999934E-2</v>
@@ -7392,8 +7396,8 @@
       <c r="B498">
         <v>6.9999999999998952E-3</v>
       </c>
-      <c r="C498">
-        <v>-0.55999999999999517</v>
+      <c r="C498" s="3">
+        <v>-1.3333333333333197E-2</v>
       </c>
       <c r="D498">
         <v>-2.200000000000002E-2</v>
@@ -7406,8 +7410,8 @@
       <c r="B499">
         <v>-3.6999999999999922E-2</v>
       </c>
-      <c r="C499">
-        <v>-0.84000000000000341</v>
+      <c r="C499" s="3">
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="D499">
         <v>-3.400000000000003E-2</v>
@@ -7420,8 +7424,8 @@
       <c r="B500">
         <v>-4.4000000000000039E-2</v>
       </c>
-      <c r="C500">
-        <v>-2.6099999999999994</v>
+      <c r="C500" s="3">
+        <v>-6.2142857142857055E-2</v>
       </c>
       <c r="D500">
         <v>-8.0999999999999961E-2</v>
@@ -7434,8 +7438,8 @@
       <c r="B501">
         <v>1.7000000000000126E-2</v>
       </c>
-      <c r="C501">
-        <v>-1.3100000000000023</v>
+      <c r="C501" s="3">
+        <v>-3.1190476190476324E-2</v>
       </c>
       <c r="D501">
         <v>-9.000000000000119E-3</v>
@@ -7448,8 +7452,8 @@
       <c r="B502">
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="C502">
-        <v>2.2700000000000031</v>
+      <c r="C502" s="3">
+        <v>5.4047619047619233E-2</v>
       </c>
       <c r="D502">
         <v>6.800000000000006E-2</v>
@@ -7462,8 +7466,8 @@
       <c r="B503">
         <v>0.10699999999999998</v>
       </c>
-      <c r="C503">
-        <v>4.07</v>
+      <c r="C503" s="3">
+        <v>9.6904761904761827E-2</v>
       </c>
       <c r="D503">
         <v>0.13200000000000012</v>
@@ -7476,8 +7480,8 @@
       <c r="B504">
         <v>4.7999999999999821E-2</v>
       </c>
-      <c r="C504">
-        <v>0.21000000000000085</v>
+      <c r="C504" s="3">
+        <v>5.0000000000001155E-3</v>
       </c>
       <c r="D504">
         <v>8.999999999999897E-3</v>
@@ -7490,8 +7494,8 @@
       <c r="B505">
         <v>-0.123</v>
       </c>
-      <c r="C505">
-        <v>-2.25</v>
+      <c r="C505" s="3">
+        <v>-5.3571428571428603E-2</v>
       </c>
       <c r="D505">
         <v>-6.6000000000000059E-2</v>
@@ -7504,8 +7508,8 @@
       <c r="B506">
         <v>-1.9999999999999796E-2</v>
       </c>
-      <c r="C506">
-        <v>0.82999999999999829</v>
+      <c r="C506" s="3">
+        <v>1.9761904761904647E-2</v>
       </c>
       <c r="D506">
         <v>5.0000000000001155E-3</v>
@@ -7518,8 +7522,8 @@
       <c r="B507">
         <v>4.3999999999999817E-2</v>
       </c>
-      <c r="C507">
-        <v>-1.6199999999999974</v>
+      <c r="C507" s="3">
+        <v>-3.8571428571428479E-2</v>
       </c>
       <c r="D507">
         <v>-2.4000000000000021E-2</v>
@@ -7532,8 +7536,8 @@
       <c r="B508">
         <v>-1.0999999999999899E-2</v>
       </c>
-      <c r="C508">
-        <v>0.23999999999999488</v>
+      <c r="C508" s="3">
+        <v>5.7142857142855608E-3</v>
       </c>
       <c r="D508">
         <v>4.9999999999998934E-3</v>
@@ -7546,8 +7550,8 @@
       <c r="B509">
         <v>5.2999999999999936E-2</v>
       </c>
-      <c r="C509">
-        <v>2.1600000000000037</v>
+      <c r="C509" s="3">
+        <v>5.1428571428571601E-2</v>
       </c>
       <c r="D509">
         <v>6.0000000000000053E-2</v>
@@ -7560,8 +7564,8 @@
       <c r="B510">
         <v>4.3000000000000149E-2</v>
       </c>
-      <c r="C510">
-        <v>2.7800000000000011</v>
+      <c r="C510" s="3">
+        <v>6.6190476190476133E-2</v>
       </c>
       <c r="D510">
         <v>9.4999999999999973E-2</v>
@@ -7574,8 +7578,8 @@
       <c r="B511">
         <v>-9.000000000000119E-3</v>
       </c>
-      <c r="C511">
-        <v>0.9199999999999946</v>
+      <c r="C511" s="3">
+        <v>2.1904761904761871E-2</v>
       </c>
       <c r="D511">
         <v>2.0000000000000018E-3</v>
@@ -7588,8 +7592,8 @@
       <c r="B512">
         <v>2.6999999999999913E-2</v>
       </c>
-      <c r="C512">
-        <v>0.17999999999999972</v>
+      <c r="C512" s="3">
+        <v>4.2857142857142261E-3</v>
       </c>
       <c r="D512">
         <v>-6.0000000000000053E-3</v>
@@ -7602,8 +7606,8 @@
       <c r="B513">
         <v>-1.7999999999999794E-2</v>
       </c>
-      <c r="C513">
-        <v>-1</v>
+      <c r="C513" s="3">
+        <v>-2.3809523809523947E-2</v>
       </c>
       <c r="D513">
         <v>-8.0000000000000071E-3</v>
@@ -7616,8 +7620,8 @@
       <c r="B514">
         <v>-5.2000000000000046E-2</v>
       </c>
-      <c r="C514">
-        <v>-4.0999999999999943</v>
+      <c r="C514" s="3">
+        <v>-9.7619047619047494E-2</v>
       </c>
       <c r="D514">
         <v>-8.7999999999999856E-2</v>
@@ -7630,8 +7634,8 @@
       <c r="B515">
         <v>-7.8000000000000069E-2</v>
       </c>
-      <c r="C515">
-        <v>-0.57000000000000028</v>
+      <c r="C515" s="3">
+        <v>-1.3571428571428568E-2</v>
       </c>
       <c r="D515">
         <v>-3.300000000000014E-2</v>
@@ -7644,8 +7648,8 @@
       <c r="B516">
         <v>-3.6000000000000032E-2</v>
       </c>
-      <c r="C516">
-        <v>0.20999999999999375</v>
+      <c r="C516" s="3">
+        <v>4.9999999999998934E-3</v>
       </c>
       <c r="D516">
         <v>-6.0000000000000053E-3</v>
@@ -7658,8 +7662,8 @@
       <c r="B517">
         <v>8.6000000000000076E-2</v>
       </c>
-      <c r="C517">
-        <v>2.6700000000000017</v>
+      <c r="C517" s="3">
+        <v>6.3571428571428612E-2</v>
       </c>
       <c r="D517">
         <v>8.8999999999999968E-2</v>
@@ -7672,8 +7676,8 @@
       <c r="B518">
         <v>6.800000000000006E-2</v>
       </c>
-      <c r="C518">
-        <v>1.0700000000000003</v>
+      <c r="C518" s="3">
+        <v>2.547619047619043E-2</v>
       </c>
       <c r="D518">
         <v>4.7000000000000153E-2</v>
@@ -7686,8 +7690,8 @@
       <c r="B519">
         <v>4.5999999999999819E-2</v>
       </c>
-      <c r="C519">
-        <v>2.0700000000000003</v>
+      <c r="C519" s="3">
+        <v>4.9285714285714377E-2</v>
       </c>
       <c r="D519">
         <v>6.4999999999999947E-2</v>
@@ -7700,8 +7704,8 @@
       <c r="B520">
         <v>2.3000000000000131E-2</v>
       </c>
-      <c r="C520">
-        <v>0.96000000000000085</v>
+      <c r="C520" s="3">
+        <v>2.2857142857142909E-2</v>
       </c>
       <c r="D520">
         <v>3.0999999999999917E-2</v>
@@ -7714,8 +7718,8 @@
       <c r="B521">
         <v>5.2999999999999936E-2</v>
       </c>
-      <c r="C521">
-        <v>0.63000000000000256</v>
+      <c r="C521" s="3">
+        <v>1.5000000000000124E-2</v>
       </c>
       <c r="D521">
         <v>-6.0000000000000053E-3</v>
@@ -7728,8 +7732,8 @@
       <c r="B522">
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="C522">
-        <v>1.2999999999999972</v>
+      <c r="C522" s="3">
+        <v>3.0952380952380842E-2</v>
       </c>
       <c r="D522">
         <v>4.2000000000000037E-2</v>
@@ -7742,8 +7746,8 @@
       <c r="B523">
         <v>-3.400000000000003E-2</v>
       </c>
-      <c r="C523">
-        <v>-0.51999999999999602</v>
+      <c r="C523" s="3">
+        <v>-1.2380952380952381E-2</v>
       </c>
       <c r="D523">
         <v>-1.0000000000000009E-2</v>
@@ -7756,8 +7760,8 @@
       <c r="B524">
         <v>-4.8000000000000043E-2</v>
       </c>
-      <c r="C524">
-        <v>-1.2600000000000051</v>
+      <c r="C524" s="3">
+        <v>-3.0000000000000027E-2</v>
       </c>
       <c r="D524">
         <v>-4.6000000000000041E-2</v>
@@ -7770,8 +7774,8 @@
       <c r="B525">
         <v>-2.4999999999999911E-2</v>
       </c>
-      <c r="C525">
-        <v>-0.23999999999999488</v>
+      <c r="C525" s="3">
+        <v>-5.7142857142855608E-3</v>
       </c>
       <c r="D525">
         <v>-1.4999999999999902E-2</v>
@@ -7784,8 +7788,8 @@
       <c r="B526">
         <v>-1.5000000000000124E-2</v>
       </c>
-      <c r="C526">
-        <v>1.2899999999999991</v>
+      <c r="C526" s="3">
+        <v>3.0714285714285694E-2</v>
       </c>
       <c r="D526">
         <v>-3.0000000000001137E-3</v>
@@ -7798,8 +7802,8 @@
       <c r="B527">
         <v>-8.0000000000000071E-3</v>
       </c>
-      <c r="C527">
-        <v>0.21000000000000085</v>
+      <c r="C527" s="3">
+        <v>4.9999999999998934E-3</v>
       </c>
       <c r="D527">
         <v>1.4000000000000012E-2</v>
@@ -7812,8 +7816,8 @@
       <c r="B528">
         <v>3.0000000000001137E-3</v>
       </c>
-      <c r="C528">
-        <v>-0.46000000000000085</v>
+      <c r="C528" s="3">
+        <v>-1.0952380952380825E-2</v>
       </c>
       <c r="D528">
         <v>-2.0000000000000018E-3</v>
@@ -7826,8 +7830,8 @@
       <c r="B529">
         <v>-6.0000000000000053E-3</v>
       </c>
-      <c r="C529">
-        <v>0.32000000000000028</v>
+      <c r="C529" s="3">
+        <v>7.6190476190476364E-3</v>
       </c>
       <c r="D529">
         <v>-8.0000000000000071E-3</v>
@@ -7840,8 +7844,8 @@
       <c r="B530">
         <v>-2.3000000000000131E-2</v>
       </c>
-      <c r="C530">
-        <v>0.82000000000000028</v>
+      <c r="C530" s="3">
+        <v>1.9523809523809499E-2</v>
       </c>
       <c r="D530">
         <v>1.0000000000000009E-2</v>
@@ -7854,8 +7858,8 @@
       <c r="B531">
         <v>9.1000000000000192E-2</v>
       </c>
-      <c r="C531">
-        <v>-0.45000000000000284</v>
+      <c r="C531" s="3">
+        <v>-1.0714285714285898E-2</v>
       </c>
       <c r="D531">
         <v>-2.9999999999999805E-2</v>
@@ -7868,8 +7872,8 @@
       <c r="B532">
         <v>4.1999999999999815E-2</v>
       </c>
-      <c r="C532">
-        <v>-2.6899999999999977</v>
+      <c r="C532" s="3">
+        <v>-6.4047619047618909E-2</v>
       </c>
       <c r="D532">
         <v>-5.0000000000000044E-2</v>
@@ -7882,8 +7886,8 @@
       <c r="B533">
         <v>-5.7999999999999829E-2</v>
       </c>
-      <c r="C533">
-        <v>-2.3800000000000026</v>
+      <c r="C533" s="3">
+        <v>-5.6666666666666865E-2</v>
       </c>
       <c r="D533">
         <v>-5.8000000000000052E-2</v>
@@ -7896,8 +7900,8 @@
       <c r="B534">
         <v>1.4999999999999902E-2</v>
       </c>
-      <c r="C534">
-        <v>-0.64999999999999858</v>
+      <c r="C534" s="3">
+        <v>-1.5476190476190421E-2</v>
       </c>
       <c r="D534">
         <v>-4.0000000000000036E-3</v>
@@ -7910,8 +7914,8 @@
       <c r="B535">
         <v>5.8000000000000052E-2</v>
       </c>
-      <c r="C535">
-        <v>1.4600000000000009</v>
+      <c r="C535" s="3">
+        <v>3.4761904761904772E-2</v>
       </c>
       <c r="D535">
         <v>3.8999999999999924E-2</v>
@@ -7924,8 +7928,8 @@
       <c r="B536">
         <v>6.0000000000000053E-2</v>
       </c>
-      <c r="C536">
-        <v>1.9600000000000009</v>
+      <c r="C536" s="3">
+        <v>4.6666666666666856E-2</v>
       </c>
       <c r="D536">
         <v>6.1000000000000165E-2</v>
@@ -7938,8 +7942,8 @@
       <c r="B537">
         <v>2.6999999999999913E-2</v>
       </c>
-      <c r="C537">
-        <v>1.9199999999999946</v>
+      <c r="C537" s="3">
+        <v>4.5714285714285596E-2</v>
       </c>
       <c r="D537">
         <v>4.9999999999999822E-2</v>
@@ -7952,8 +7956,8 @@
       <c r="B538">
         <v>-6.6999999999999948E-2</v>
       </c>
-      <c r="C538">
-        <v>-2.1099999999999994</v>
+      <c r="C538" s="3">
+        <v>-5.0238095238095415E-2</v>
       </c>
       <c r="D538">
         <v>-5.5999999999999828E-2</v>
@@ -7966,8 +7970,8 @@
       <c r="B539">
         <v>-9.4000000000000083E-2</v>
       </c>
-      <c r="C539">
-        <v>-1.7399999999999949</v>
+      <c r="C539" s="3">
+        <v>-4.1428571428571148E-2</v>
       </c>
       <c r="D539">
         <v>-6.7000000000000171E-2</v>
@@ -7980,8 +7984,8 @@
       <c r="B540">
         <v>-7.4999999999999956E-2</v>
       </c>
-      <c r="C540">
-        <v>-2.1300000000000026</v>
+      <c r="C540" s="3">
+        <v>-5.0714285714285934E-2</v>
       </c>
       <c r="D540">
         <v>-7.0999999999999952E-2</v>
@@ -7994,8 +7998,8 @@
       <c r="B541">
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="C541">
-        <v>-0.14999999999999858</v>
+      <c r="C541" s="3">
+        <v>-3.5714285714283367E-3</v>
       </c>
       <c r="D541">
         <v>1.5000000000000124E-2</v>
@@ -8008,8 +8012,8 @@
       <c r="B542">
         <v>7.5000000000000178E-2</v>
       </c>
-      <c r="C542">
-        <v>2.1899999999999977</v>
+      <c r="C542" s="3">
+        <v>5.2142857142857046E-2</v>
       </c>
       <c r="D542">
         <v>6.6999999999999948E-2</v>
@@ -8022,8 +8026,8 @@
       <c r="B543">
         <v>3.3999999999999808E-2</v>
       </c>
-      <c r="C543">
-        <v>1.2000000000000028</v>
+      <c r="C543" s="3">
+        <v>2.8571428571428692E-2</v>
       </c>
       <c r="D543">
         <v>4.8000000000000043E-2</v>
@@ -8036,8 +8040,8 @@
       <c r="B544">
         <v>-3.8999999999999924E-2</v>
       </c>
-      <c r="C544">
-        <v>-1.9500000000000028</v>
+      <c r="C544" s="3">
+        <v>-4.6428571428571708E-2</v>
       </c>
       <c r="D544">
         <v>-7.3000000000000176E-2</v>
@@ -8050,8 +8054,8 @@
       <c r="B545">
         <v>-9.099999999999997E-2</v>
       </c>
-      <c r="C545">
-        <v>-1.9399999999999977</v>
+      <c r="C545" s="3">
+        <v>-4.6190476190476115E-2</v>
       </c>
       <c r="D545">
         <v>-7.3999999999999844E-2</v>
@@ -8064,8 +8068,8 @@
       <c r="B546">
         <v>-5.4000000000000048E-2</v>
       </c>
-      <c r="C546">
-        <v>-1.2700000000000031</v>
+      <c r="C546" s="3">
+        <v>-3.0238095238095175E-2</v>
       </c>
       <c r="D546">
         <v>-1.4000000000000012E-2</v>
@@ -8078,8 +8082,8 @@
       <c r="B547">
         <v>-3.0999999999999917E-2</v>
       </c>
-      <c r="C547">
-        <v>-2.1499999999999986</v>
+      <c r="C547" s="3">
+        <v>-5.1190476190476231E-2</v>
       </c>
       <c r="D547">
         <v>-4.2000000000000037E-2</v>
@@ -8092,8 +8096,8 @@
       <c r="B548">
         <v>4.6000000000000041E-2</v>
       </c>
-      <c r="C548">
-        <v>1.5300000000000011</v>
+      <c r="C548" s="3">
+        <v>3.6428571428571477E-2</v>
       </c>
       <c r="D548">
         <v>4.6999999999999931E-2</v>
@@ -8106,8 +8110,8 @@
       <c r="B549">
         <v>3.8999999999999924E-2</v>
       </c>
-      <c r="C549">
-        <v>0.82000000000000028</v>
+      <c r="C549" s="3">
+        <v>1.9523809523809499E-2</v>
       </c>
       <c r="D549">
         <v>5.0000000000000044E-2</v>
@@ -8120,8 +8124,8 @@
       <c r="B550">
         <v>8.999999999999897E-3</v>
       </c>
-      <c r="C550">
-        <v>1.9999999999996021E-2</v>
+      <c r="C550" s="3">
+        <v>4.7619047619051891E-4</v>
       </c>
       <c r="D550">
         <v>2.0000000000000018E-3</v>
@@ -8134,8 +8138,8 @@
       <c r="B551">
         <v>5.9000000000000163E-2</v>
       </c>
-      <c r="C551">
-        <v>0.91000000000000369</v>
+      <c r="C551" s="3">
+        <v>2.1666666666666723E-2</v>
       </c>
       <c r="D551">
         <v>4.2000000000000037E-2</v>
@@ -8148,8 +8152,8 @@
       <c r="B552">
         <v>3.400000000000003E-2</v>
       </c>
-      <c r="C552">
-        <v>1.9299999999999997</v>
+      <c r="C552" s="3">
+        <v>4.5952380952380967E-2</v>
       </c>
       <c r="D552">
         <v>6.0999999999999943E-2</v>
@@ -8162,8 +8166,8 @@
       <c r="B553">
         <v>3.9999999999999813E-2</v>
       </c>
-      <c r="C553">
-        <v>1.1599999999999966</v>
+      <c r="C553" s="3">
+        <v>2.7619047619047432E-2</v>
       </c>
       <c r="D553">
         <v>6.2999999999999945E-2</v>
@@ -8176,8 +8180,8 @@
       <c r="B554">
         <v>-4.0999999999999925E-2</v>
       </c>
-      <c r="C554">
-        <v>-0.39999999999999858</v>
+      <c r="C554" s="3">
+        <v>-9.52380952380949E-3</v>
       </c>
       <c r="D554">
         <v>-1.0000000000000009E-2</v>
@@ -8190,8 +8194,8 @@
       <c r="B555">
         <v>-3.0999999999999917E-2</v>
       </c>
-      <c r="C555">
-        <v>-1.6099999999999994</v>
+      <c r="C555" s="3">
+        <v>-3.833333333333333E-2</v>
       </c>
       <c r="D555">
         <v>-4.1999999999999815E-2</v>
@@ -8204,8 +8208,8 @@
       <c r="B556">
         <v>3.8999999999999924E-2</v>
       </c>
-      <c r="C556">
-        <v>0.24000000000000199</v>
+      <c r="C556" s="3">
+        <v>5.7142857142857828E-3</v>
       </c>
       <c r="D556">
         <v>1.0000000000000009E-2</v>
@@ -8218,8 +8222,8 @@
       <c r="B557">
         <v>0.22900000000000009</v>
       </c>
-      <c r="C557">
-        <v>-1.0399999999999991</v>
+      <c r="C557" s="3">
+        <v>-2.4761904761904763E-2</v>
       </c>
       <c r="D557">
         <v>8.9999999999999858E-2</v>
@@ -8232,8 +8236,8 @@
       <c r="B558">
         <v>-0.18400000000000016</v>
       </c>
-      <c r="C558">
-        <v>1.8999999999999986</v>
+      <c r="C558" s="3">
+        <v>4.5238095238095299E-2</v>
       </c>
       <c r="D558">
         <v>6.899999999999995E-2</v>
@@ -8246,8 +8250,8 @@
       <c r="B559">
         <v>-2.4000000000000021E-2</v>
       </c>
-      <c r="C559">
-        <v>0.47999999999999687</v>
+      <c r="C559" s="3">
+        <v>1.1428571428571344E-2</v>
       </c>
       <c r="D559">
         <v>1.0000000000001119E-3</v>
@@ -8260,8 +8264,8 @@
       <c r="B560">
         <v>1.2000000000000011E-2</v>
       </c>
-      <c r="C560">
-        <v>1.1200000000000045</v>
+      <c r="C560" s="3">
+        <v>2.6666666666666616E-2</v>
       </c>
       <c r="D560">
         <v>3.2000000000000028E-2</v>
@@ -8274,8 +8278,8 @@
       <c r="B561">
         <v>5.0000000000001155E-3</v>
       </c>
-      <c r="C561">
-        <v>1.6899999999999977</v>
+      <c r="C561" s="3">
+        <v>4.0238095238095184E-2</v>
       </c>
       <c r="D561">
         <v>4.0000000000000036E-2</v>
@@ -8288,8 +8292,8 @@
       <c r="B562">
         <v>-8.8999999999999968E-2</v>
       </c>
-      <c r="C562">
-        <v>-1.6799999999999997</v>
+      <c r="C562" s="3">
+        <v>-3.9999999999999813E-2</v>
       </c>
       <c r="D562">
         <v>-7.4000000000000066E-2</v>
@@ -8302,8 +8306,8 @@
       <c r="B563">
         <v>2.8000000000000025E-2</v>
       </c>
-      <c r="C563">
-        <v>0.85999999999999943</v>
+      <c r="C563" s="3">
+        <v>2.0476190476190315E-2</v>
       </c>
       <c r="D563">
         <v>1.4000000000000012E-2</v>
@@ -8316,8 +8320,8 @@
       <c r="B564">
         <v>4.0999999999999925E-2</v>
       </c>
-      <c r="C564">
-        <v>0.64000000000000057</v>
+      <c r="C564" s="3">
+        <v>1.5238095238095273E-2</v>
       </c>
       <c r="D564">
         <v>2.2999999999999909E-2</v>
@@ -8330,8 +8334,8 @@
       <c r="B565">
         <v>8.6999999999999966E-2</v>
       </c>
-      <c r="C565">
-        <v>0.90999999999999659</v>
+      <c r="C565" s="3">
+        <v>2.1666666666666723E-2</v>
       </c>
       <c r="D565">
         <v>2.6000000000000023E-2</v>
@@ -8344,8 +8348,8 @@
       <c r="B566">
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="C566">
-        <v>1.980000000000004</v>
+      <c r="C566" s="3">
+        <v>4.7142857142857153E-2</v>
       </c>
       <c r="D566">
         <v>4.6000000000000041E-2</v>
@@ -8358,8 +8362,8 @@
       <c r="B567">
         <v>5.2000000000000046E-2</v>
       </c>
-      <c r="C567">
-        <v>2.5300000000000011</v>
+      <c r="C567" s="3">
+        <v>6.0238095238095202E-2</v>
       </c>
       <c r="D567">
         <v>6.0000000000000053E-2</v>
@@ -8372,8 +8376,8 @@
       <c r="B568">
         <v>-7.2000000000000064E-2</v>
       </c>
-      <c r="C568">
-        <v>-1.230000000000004</v>
+      <c r="C568" s="3">
+        <v>-2.9285714285714359E-2</v>
       </c>
       <c r="D568">
         <v>-1.4000000000000012E-2</v>
@@ -8386,8 +8390,8 @@
       <c r="B569">
         <v>1.2000000000000011E-2</v>
       </c>
-      <c r="C569">
-        <v>1.0799999999999983</v>
+      <c r="C569" s="3">
+        <v>2.5714285714285801E-2</v>
       </c>
       <c r="D569">
         <v>1.4999999999999902E-2</v>
@@ -8400,8 +8404,8 @@
       <c r="B570">
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="C570">
-        <v>0.85000000000000142</v>
+      <c r="C570" s="3">
+        <v>2.0238095238095166E-2</v>
       </c>
       <c r="D570">
         <v>-2.9999999999998916E-3</v>
@@ -8414,8 +8418,8 @@
       <c r="B571">
         <v>-5.4000000000000048E-2</v>
       </c>
-      <c r="C571">
-        <v>-0.80999999999999517</v>
+      <c r="C571" s="3">
+        <v>-1.9285714285714128E-2</v>
       </c>
       <c r="D571">
         <v>-3.2000000000000028E-2</v>
@@ -8428,8 +8432,8 @@
       <c r="B572">
         <v>-1.8999999999999906E-2</v>
       </c>
-      <c r="C572">
-        <v>0.18999999999999773</v>
+      <c r="C572" s="3">
+        <v>4.5238095238093745E-3</v>
       </c>
       <c r="D572">
         <v>2.0999999999999908E-2</v>
@@ -8442,8 +8446,8 @@
       <c r="B573">
         <v>4.4000000000000039E-2</v>
       </c>
-      <c r="C573">
-        <v>0.69999999999999574</v>
+      <c r="C573" s="3">
+        <v>1.6666666666666607E-2</v>
       </c>
       <c r="D573">
         <v>2.6000000000000023E-2</v>
@@ -8456,8 +8460,8 @@
       <c r="B574">
         <v>6.999999999999984E-2</v>
       </c>
-      <c r="C574">
-        <v>2.0600000000000023</v>
+      <c r="C574" s="3">
+        <v>4.9047619047619229E-2</v>
       </c>
       <c r="D574">
         <v>0.10600000000000009</v>
@@ -8470,8 +8474,8 @@
       <c r="B575">
         <v>-4.9999999999998934E-3</v>
       </c>
-      <c r="C575">
-        <v>1.2000000000000028</v>
+      <c r="C575" s="3">
+        <v>2.857142857142847E-2</v>
       </c>
       <c r="D575">
         <v>1.9000000000000128E-2</v>
@@ -8484,8 +8488,8 @@
       <c r="B576">
         <v>4.0999999999999925E-2</v>
       </c>
-      <c r="C576">
-        <v>2.1000000000000014</v>
+      <c r="C576" s="3">
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="D576">
         <v>0</v>
@@ -8498,8 +8502,8 @@
       <c r="B577">
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="C577">
-        <v>0.58999999999999631</v>
+      <c r="C577" s="3">
+        <v>1.4047619047619087E-2</v>
       </c>
       <c r="D577">
         <v>-3.0000000000001137E-3</v>
@@ -8512,8 +8516,8 @@
       <c r="B578">
         <v>5.2999999999999936E-2</v>
       </c>
-      <c r="C578">
-        <v>1.1800000000000068</v>
+      <c r="C578" s="3">
+        <v>2.8095238095238173E-2</v>
       </c>
       <c r="D578">
         <v>3.2000000000000028E-2</v>
@@ -8526,8 +8530,8 @@
       <c r="B579">
         <v>-1.0999999999999899E-2</v>
       </c>
-      <c r="C579">
-        <v>0.16999999999998749</v>
+      <c r="C579" s="3">
+        <v>4.0476190476188556E-3</v>
       </c>
       <c r="D579">
         <v>-2.2000000000000242E-2</v>
@@ -8540,8 +8544,8 @@
       <c r="B580">
         <v>-0.12400000000000011</v>
       </c>
-      <c r="C580">
-        <v>-3.269999999999996</v>
+      <c r="C580" s="3">
+        <v>-7.7857142857142847E-2</v>
       </c>
       <c r="D580">
         <v>-0.1359999999999999</v>
@@ -8554,8 +8558,8 @@
       <c r="B581">
         <v>-6.3999999999999835E-2</v>
       </c>
-      <c r="C581">
-        <v>-1.519999999999996</v>
+      <c r="C581" s="3">
+        <v>-3.6190476190476106E-2</v>
       </c>
       <c r="D581">
         <v>-6.999999999999984E-2</v>
@@ -8568,8 +8572,8 @@
       <c r="B582">
         <v>5.3999999999999826E-2</v>
       </c>
-      <c r="C582">
-        <v>1.8999999999999986</v>
+      <c r="C582" s="3">
+        <v>4.5238095238095299E-2</v>
       </c>
       <c r="D582">
         <v>6.6999999999999948E-2</v>
@@ -8582,8 +8586,8 @@
       <c r="B583">
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="C583">
-        <v>-0.16000000000000369</v>
+      <c r="C583" s="3">
+        <v>-3.8095238095239292E-3</v>
       </c>
       <c r="D583">
         <v>-1.3000000000000123E-2</v>
@@ -8596,8 +8600,8 @@
       <c r="B584">
         <v>7.2999999999999954E-2</v>
       </c>
-      <c r="C584">
-        <v>-0.45999999999999375</v>
+      <c r="C584" s="3">
+        <v>-1.0952380952380825E-2</v>
       </c>
       <c r="D584">
         <v>-4.2000000000000037E-2</v>
@@ -8610,8 +8614,8 @@
       <c r="B585">
         <v>5.0000000000001155E-3</v>
       </c>
-      <c r="C585">
-        <v>-0.39000000000000057</v>
+      <c r="C585" s="3">
+        <v>-9.2857142857143415E-3</v>
       </c>
       <c r="D585">
         <v>2.0000000000000018E-3</v>
@@ -8624,8 +8628,8 @@
       <c r="B586">
         <v>7.4000000000000066E-2</v>
       </c>
-      <c r="C586">
-        <v>2.8499999999999943</v>
+      <c r="C586" s="3">
+        <v>6.7857142857142616E-2</v>
       </c>
       <c r="D586">
         <v>8.8000000000000078E-2</v>
@@ -8638,8 +8642,8 @@
       <c r="B587">
         <v>2.3999999999999799E-2</v>
       </c>
-      <c r="C587">
-        <v>0.85000000000000853</v>
+      <c r="C587" s="3">
+        <v>2.023809523809561E-2</v>
       </c>
       <c r="D587">
         <v>4.6000000000000041E-2</v>
@@ -8652,8 +8656,8 @@
       <c r="B588">
         <v>-4.1999999999999815E-2</v>
       </c>
-      <c r="C588">
-        <v>-1.9100000000000037</v>
+      <c r="C588" s="3">
+        <v>-4.547619047619067E-2</v>
       </c>
       <c r="D588">
         <v>-4.2999999999999927E-2</v>
@@ -8666,8 +8670,8 @@
       <c r="B589">
         <v>7.2000000000000064E-2</v>
       </c>
-      <c r="C589">
-        <v>2.9400000000000048</v>
+      <c r="C589" s="3">
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="D589">
         <v>9.099999999999997E-2</v>
@@ -8680,8 +8684,8 @@
       <c r="B590">
         <v>2.1999999999999797E-2</v>
       </c>
-      <c r="C590">
-        <v>1.539999999999992</v>
+      <c r="C590" s="3">
+        <v>3.6666666666666625E-2</v>
       </c>
       <c r="D590">
         <v>2.1999999999999797E-2</v>
@@ -8694,8 +8698,8 @@
       <c r="B591">
         <v>4.4999999999999929E-2</v>
       </c>
-      <c r="C591">
-        <v>0.56000000000000227</v>
+      <c r="C591" s="3">
+        <v>1.3333333333333419E-2</v>
       </c>
       <c r="D591">
         <v>5.2999999999999936E-2</v>
@@ -8708,8 +8712,8 @@
       <c r="B592">
         <v>-9.9999999999997868E-3</v>
       </c>
-      <c r="C592">
-        <v>0.23999999999999488</v>
+      <c r="C592" s="3">
+        <v>5.7142857142855608E-3</v>
       </c>
       <c r="D592">
         <v>-1.2000000000000011E-2</v>
@@ -8722,8 +8726,8 @@
       <c r="B593">
         <v>5.7999999999999829E-2</v>
       </c>
-      <c r="C593">
-        <v>2.2199999999999989</v>
+      <c r="C593" s="3">
+        <v>5.2857142857142714E-2</v>
       </c>
       <c r="D593">
         <v>7.0000000000000284E-2</v>
@@ -8736,8 +8740,8 @@
       <c r="B594">
         <v>6.800000000000006E-2</v>
       </c>
-      <c r="C594">
-        <v>0.71000000000000796</v>
+      <c r="C594" s="3">
+        <v>1.69047619047622E-2</v>
       </c>
       <c r="D594">
         <v>6.1999999999999833E-2</v>
@@ -8750,8 +8754,8 @@
       <c r="B595">
         <v>1.4000000000000234E-2</v>
       </c>
-      <c r="C595">
-        <v>-0.35000000000000853</v>
+      <c r="C595" s="3">
+        <v>-8.3333333333335258E-3</v>
       </c>
       <c r="D595">
         <v>9.9999999999988987E-4</v>
@@ -8764,8 +8768,8 @@
       <c r="B596">
         <v>-7.7000000000000401E-2</v>
       </c>
-      <c r="C596">
-        <v>-3.8299999999999983</v>
+      <c r="C596" s="3">
+        <v>-9.1190476190476266E-2</v>
       </c>
       <c r="D596">
         <v>-6.4999999999999947E-2</v>
@@ -8778,8 +8782,8 @@
       <c r="B597">
         <v>-5.699999999999994E-2</v>
       </c>
-      <c r="C597">
-        <v>-1.789999999999992</v>
+      <c r="C597" s="3">
+        <v>-4.2619047619047334E-2</v>
       </c>
       <c r="D597">
         <v>-4.5999999999999819E-2</v>
@@ -8792,8 +8796,8 @@
       <c r="B598">
         <v>-1.8999999999999684E-2</v>
       </c>
-      <c r="C598">
-        <v>0.86999999999999034</v>
+      <c r="C598" s="3">
+        <v>2.0714285714285463E-2</v>
       </c>
       <c r="D598">
         <v>-2.0000000000002238E-3</v>
@@ -8806,8 +8810,8 @@
       <c r="B599">
         <v>-4.7000000000000153E-2</v>
       </c>
-      <c r="C599">
-        <v>4.0000000000006253E-2</v>
+      <c r="C599" s="3">
+        <v>9.5238095238103782E-4</v>
       </c>
       <c r="D599">
         <v>-3.9999999999999591E-2</v>
@@ -8820,8 +8824,8 @@
       <c r="B600">
         <v>7.3999999999999844E-2</v>
       </c>
-      <c r="C600">
-        <v>5.5400000000000063</v>
+      <c r="C600" s="3">
+        <v>0.13190476190476219</v>
       </c>
       <c r="D600">
         <v>4.7999999999999599E-2</v>
@@ -8834,8 +8838,8 @@
       <c r="B601">
         <v>2.0000000000002238E-3</v>
       </c>
-      <c r="C601">
-        <v>2</v>
+      <c r="C601" s="3">
+        <v>4.761904761904745E-2</v>
       </c>
       <c r="D601">
         <v>7.0000000000001172E-3</v>
@@ -8848,8 +8852,8 @@
       <c r="B602">
         <v>-6.0000000000002274E-3</v>
       </c>
-      <c r="C602">
-        <v>-1.8500000000000085</v>
+      <c r="C602" s="3">
+        <v>-4.4047619047619113E-2</v>
       </c>
       <c r="D602">
         <v>-1.1000000000000121E-2</v>
@@ -8862,8 +8866,8 @@
       <c r="B603">
         <v>-7.2999999999999954E-2</v>
       </c>
-      <c r="C603">
-        <v>-2.980000000000004</v>
+      <c r="C603" s="3">
+        <v>-7.09523809523811E-2</v>
       </c>
       <c r="D603">
         <v>-7.2999999999999954E-2</v>
@@ -8876,8 +8880,8 @@
       <c r="B604">
         <v>8.9999999999999858E-2</v>
       </c>
-      <c r="C604">
-        <v>-0.15999999999999659</v>
+      <c r="C604" s="3">
+        <v>-3.8095238095237072E-3</v>
       </c>
       <c r="D604">
         <v>6.4999999999999947E-2</v>
@@ -8890,7 +8894,7 @@
       <c r="B605">
         <v>-3.2999999999999918E-2</v>
       </c>
-      <c r="C605">
+      <c r="C605" s="3">
         <v>0</v>
       </c>
       <c r="D605">
@@ -8904,8 +8908,8 @@
       <c r="B606">
         <v>-4.8000000000000043E-2</v>
       </c>
-      <c r="C606">
-        <v>-0.89000000000000057</v>
+      <c r="C606" s="3">
+        <v>-2.1190476190476204E-2</v>
       </c>
       <c r="D606">
         <v>2.9999999999996696E-3</v>
@@ -8918,8 +8922,8 @@
       <c r="B607">
         <v>-4.2999999999999705E-2</v>
       </c>
-      <c r="C607">
-        <v>-1.789999999999992</v>
+      <c r="C607" s="3">
+        <v>-4.2619047619047556E-2</v>
       </c>
       <c r="D607">
         <v>-2.4999999999999911E-2</v>
@@ -8932,8 +8936,8 @@
       <c r="B608">
         <v>4.4999999999999929E-2</v>
       </c>
-      <c r="C608">
-        <v>1.519999999999996</v>
+      <c r="C608" s="3">
+        <v>3.6190476190476106E-2</v>
       </c>
       <c r="D608">
         <v>4.7000000000000153E-2</v>
@@ -8946,8 +8950,8 @@
       <c r="B609">
         <v>6.4000000000000057E-2</v>
       </c>
-      <c r="C609">
-        <v>1.75</v>
+      <c r="C609" s="3">
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="D609">
         <v>7.5000000000000178E-2</v>
@@ -8960,8 +8964,8 @@
       <c r="B610">
         <v>-0.13700000000000001</v>
       </c>
-      <c r="C610">
-        <v>-0.60999999999999943</v>
+      <c r="C610" s="3">
+        <v>-1.4523809523809383E-2</v>
       </c>
       <c r="D610">
         <v>0</v>
@@ -8974,8 +8978,8 @@
       <c r="B611">
         <v>1.8999999999999906E-2</v>
       </c>
-      <c r="C611">
-        <v>0.17000000000000171</v>
+      <c r="C611" s="3">
+        <v>4.0476190476190776E-3</v>
       </c>
       <c r="D611">
         <v>0</v>
@@ -8988,8 +8992,8 @@
       <c r="B612">
         <v>1.3000000000000123E-2</v>
       </c>
-      <c r="C612">
-        <v>1.3400000000000034</v>
+      <c r="C612" s="3">
+        <v>3.190476190476188E-2</v>
       </c>
       <c r="D612">
         <v>-3.0000000000001137E-3</v>
@@ -9002,8 +9006,8 @@
       <c r="B613">
         <v>6.5999999999999837E-2</v>
       </c>
-      <c r="C613">
-        <v>1.9699999999999989</v>
+      <c r="C613" s="3">
+        <v>4.6904761904761783E-2</v>
       </c>
       <c r="D613">
         <v>8.4000000000000075E-2</v>
@@ -9016,8 +9020,8 @@
       <c r="B614">
         <v>4.3000000000000149E-2</v>
       </c>
-      <c r="C614">
-        <v>2.8599999999999994</v>
+      <c r="C614" s="3">
+        <v>6.8095238095238209E-2</v>
       </c>
       <c r="D614">
         <v>9.5999999999999641E-2</v>
@@ -9030,8 +9034,8 @@
       <c r="B615">
         <v>-0.1030000000000002</v>
       </c>
-      <c r="C615">
-        <v>-2.1700000000000017</v>
+      <c r="C615" s="3">
+        <v>-5.166666666666675E-2</v>
       </c>
       <c r="D615">
         <v>-3.5999999999999588E-2</v>
@@ -9044,8 +9048,8 @@
       <c r="B616">
         <v>-8.3999999999999853E-2</v>
       </c>
-      <c r="C616">
-        <v>-2.710000000000008</v>
+      <c r="C616" s="3">
+        <v>-6.452380952380965E-2</v>
       </c>
       <c r="D616">
         <v>-5.8000000000000274E-2</v>
@@ -9058,8 +9062,8 @@
       <c r="B617">
         <v>-9.000000000000008E-2</v>
       </c>
-      <c r="C617">
-        <v>-2.769999999999996</v>
+      <c r="C617" s="3">
+        <v>-6.5952380952380985E-2</v>
       </c>
       <c r="D617">
         <v>-3.5000000000000142E-2</v>
@@ -9072,8 +9076,8 @@
       <c r="B618">
         <v>-7.4000000000000066E-2</v>
       </c>
-      <c r="C618">
-        <v>-2.4000000000000057</v>
+      <c r="C618" s="3">
+        <v>-5.7142857142857162E-2</v>
       </c>
       <c r="D618">
         <v>-4.3999999999999595E-2</v>
@@ -9086,8 +9090,8 @@
       <c r="B619">
         <v>-0.10499999999999998</v>
       </c>
-      <c r="C619">
-        <v>-3.4999999999999929</v>
+      <c r="C619" s="3">
+        <v>-8.3333333333333259E-2</v>
       </c>
       <c r="D619">
         <v>-4.3000000000000149E-2</v>
@@ -9100,8 +9104,8 @@
       <c r="B620">
         <v>-8.4999999999999964E-2</v>
       </c>
-      <c r="C620">
-        <v>-4.6099999999999994</v>
+      <c r="C620" s="3">
+        <v>-0.10976190476190473</v>
       </c>
       <c r="D620">
         <v>-0.10099999999999998</v>
@@ -9114,8 +9118,8 @@
       <c r="B621">
         <v>-7.6999999999999957E-2</v>
       </c>
-      <c r="C621">
-        <v>-2.990000000000002</v>
+      <c r="C621" s="3">
+        <v>-7.1190476190476248E-2</v>
       </c>
       <c r="D621">
         <v>-0.11299999999999999</v>
@@ -9128,8 +9132,8 @@
       <c r="B622">
         <v>-6.6999999999999948E-2</v>
       </c>
-      <c r="C622">
-        <v>-2.7999999999999972</v>
+      <c r="C622" s="3">
+        <v>-6.6666666666666652E-2</v>
       </c>
       <c r="D622">
         <v>-0.1180000000000001</v>
@@ -9142,8 +9146,8 @@
       <c r="B623">
         <v>1.6999999999999904E-2</v>
       </c>
-      <c r="C623">
-        <v>1.4699999999999989</v>
+      <c r="C623" s="3">
+        <v>3.5000000000000142E-2</v>
       </c>
       <c r="D623">
         <v>2.2999999999999909E-2</v>
@@ -9156,8 +9160,8 @@
       <c r="B624">
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="C624">
-        <v>-1.1199999999999974</v>
+      <c r="C624" s="3">
+        <v>-2.6666666666666616E-2</v>
       </c>
       <c r="D624">
         <v>-3.0999999999999917E-2</v>
@@ -9170,8 +9174,8 @@
       <c r="B625">
         <v>-7.9999999999999849E-2</v>
       </c>
-      <c r="C625">
-        <v>-4.5600000000000023</v>
+      <c r="C625" s="3">
+        <v>-0.10857142857142876</v>
       </c>
       <c r="D625">
         <v>-7.8999999999999959E-2</v>
@@ -9184,8 +9188,8 @@
       <c r="B626">
         <v>-5.600000000000005E-2</v>
       </c>
-      <c r="C626">
-        <v>-2.7199999999999989</v>
+      <c r="C626" s="3">
+        <v>-6.4761904761904576E-2</v>
       </c>
       <c r="D626">
         <v>-8.8999999999999968E-2</v>
@@ -9198,8 +9202,8 @@
       <c r="B627">
         <v>2.8000000000000025E-2</v>
       </c>
-      <c r="C627">
-        <v>2.2399999999999949</v>
+      <c r="C627" s="3">
+        <v>5.3333333333333233E-2</v>
       </c>
       <c r="D627">
         <v>2.8999999999999915E-2</v>
@@ -9212,8 +9216,8 @@
       <c r="B628">
         <v>6.1999999999999833E-2</v>
       </c>
-      <c r="C628">
-        <v>4.490000000000002</v>
+      <c r="C628" s="3">
+        <v>0.10690476190476184</v>
       </c>
       <c r="D628">
         <v>0.14000000000000012</v>
@@ -9226,8 +9230,8 @@
       <c r="B629">
         <v>2.3000000000000131E-2</v>
       </c>
-      <c r="C629">
-        <v>1.1899999999999977</v>
+      <c r="C629" s="3">
+        <v>2.8333333333333321E-2</v>
       </c>
       <c r="D629">
         <v>2.9999999999999805E-2</v>
@@ -9240,8 +9244,8 @@
       <c r="B630">
         <v>-2.4000000000000021E-2</v>
       </c>
-      <c r="C630">
-        <v>1</v>
+      <c r="C630" s="3">
+        <v>2.3809523809523725E-2</v>
       </c>
       <c r="D630">
         <v>8.0000000000000071E-3</v>
@@ -9254,8 +9258,8 @@
       <c r="B631">
         <v>-1.8000000000000016E-2</v>
       </c>
-      <c r="C631">
-        <v>0.56000000000000227</v>
+      <c r="C631" s="3">
+        <v>1.3333333333333419E-2</v>
       </c>
       <c r="D631">
         <v>-6.9999999999998952E-3</v>
@@ -9268,8 +9272,8 @@
       <c r="B632">
         <v>6.4999999999999947E-2</v>
       </c>
-      <c r="C632">
-        <v>-0.19999999999999574</v>
+      <c r="C632" s="3">
+        <v>-4.7619047619045229E-3</v>
       </c>
       <c r="D632">
         <v>2.0000000000000018E-2</v>
@@ -9282,8 +9286,8 @@
       <c r="B633">
         <v>4.1000000000000147E-2</v>
       </c>
-      <c r="C633">
-        <v>0.35999999999999943</v>
+      <c r="C633" s="3">
+        <v>8.5714285714284522E-3</v>
       </c>
       <c r="D633">
         <v>4.0999999999999925E-2</v>
@@ -9296,8 +9300,8 @@
       <c r="B634">
         <v>0.11299999999999999</v>
       </c>
-      <c r="C634">
-        <v>2.6799999999999997</v>
+      <c r="C634" s="3">
+        <v>6.380952380952376E-2</v>
       </c>
       <c r="D634">
         <v>7.4000000000000066E-2</v>
@@ -9310,8 +9314,8 @@
       <c r="B635">
         <v>3.2999999999999918E-2</v>
       </c>
-      <c r="C635">
-        <v>-0.37000000000000455</v>
+      <c r="C635" s="3">
+        <v>-8.8095238095238226E-3</v>
       </c>
       <c r="D635">
         <v>-1.6000000000000014E-2</v>
@@ -9324,8 +9328,8 @@
       <c r="B636">
         <v>0.15799999999999992</v>
       </c>
-      <c r="C636">
-        <v>0.23000000000000398</v>
+      <c r="C636" s="3">
+        <v>5.4761904761904123E-3</v>
       </c>
       <c r="D636">
         <v>8.0000000000000071E-3</v>
@@ -9338,8 +9342,8 @@
       <c r="B637">
         <v>5.8000000000000052E-2</v>
       </c>
-      <c r="C637">
-        <v>1.3900000000000006</v>
+      <c r="C637" s="3">
+        <v>3.3095238095238289E-2</v>
       </c>
       <c r="D637">
         <v>-2.6999999999999913E-2</v>
@@ -9352,8 +9356,8 @@
       <c r="B638">
         <v>6.6999999999999948E-2</v>
       </c>
-      <c r="C638">
-        <v>1.5799999999999983</v>
+      <c r="C638" s="3">
+        <v>3.7619047619047441E-2</v>
       </c>
       <c r="D638">
         <v>-1.0000000000001119E-3</v>
@@ -9366,8 +9370,8 @@
       <c r="B639">
         <v>5.0000000000001155E-3</v>
       </c>
-      <c r="C639">
-        <v>0.13000000000000256</v>
+      <c r="C639" s="3">
+        <v>3.0952380952382619E-3</v>
       </c>
       <c r="D639">
         <v>-4.9999999999998934E-3</v>
@@ -9380,8 +9384,8 @@
       <c r="B640">
         <v>2.4000000000000021E-2</v>
       </c>
-      <c r="C640">
-        <v>2.8399999999999963</v>
+      <c r="C640" s="3">
+        <v>6.7619047619047468E-2</v>
       </c>
       <c r="D640">
         <v>3.2999999999999918E-2</v>
@@ -9394,8 +9398,8 @@
       <c r="B641">
         <v>8.7999999999999856E-2</v>
       </c>
-      <c r="C641">
-        <v>1.730000000000004</v>
+      <c r="C641" s="3">
+        <v>4.1190476190476222E-2</v>
       </c>
       <c r="D641">
         <v>5.3999999999999826E-2</v>
@@ -9408,8 +9412,8 @@
       <c r="B642">
         <v>2.0999999999999908E-2</v>
       </c>
-      <c r="C642">
-        <v>-0.25</v>
+      <c r="C642" s="3">
+        <v>-5.9523809523809312E-3</v>
       </c>
       <c r="D642">
         <v>5.0000000000003375E-3</v>
@@ -9422,8 +9426,8 @@
       <c r="B643">
         <v>7.9000000000000181E-2</v>
       </c>
-      <c r="C643">
-        <v>1.4399999999999977</v>
+      <c r="C643" s="3">
+        <v>3.4285714285714253E-2</v>
       </c>
       <c r="D643">
         <v>2.2999999999999687E-2</v>
@@ -9436,8 +9440,8 @@
       <c r="B644">
         <v>-6.1999999999999833E-2</v>
       </c>
-      <c r="C644">
-        <v>-2.3299999999999983</v>
+      <c r="C644" s="3">
+        <v>-5.5476190476190457E-2</v>
       </c>
       <c r="D644">
         <v>-1.7999999999999794E-2</v>
@@ -9450,8 +9454,8 @@
       <c r="B645">
         <v>-8.6000000000000076E-2</v>
       </c>
-      <c r="C645">
-        <v>-1.1200000000000045</v>
+      <c r="C645" s="3">
+        <v>-2.6666666666666616E-2</v>
       </c>
       <c r="D645">
         <v>-2.4999999999999911E-2</v>
@@ -9464,8 +9468,8 @@
       <c r="B646">
         <v>3.499999999999992E-2</v>
       </c>
-      <c r="C646">
-        <v>0.26000000000000512</v>
+      <c r="C646" s="3">
+        <v>6.1904761904763017E-3</v>
       </c>
       <c r="D646">
         <v>2.8999999999999915E-2</v>
@@ -9478,8 +9482,8 @@
       <c r="B647">
         <v>-3.8000000000000034E-2</v>
       </c>
-      <c r="C647">
-        <v>-1.2800000000000011</v>
+      <c r="C647" s="3">
+        <v>-3.0476190476190546E-2</v>
       </c>
       <c r="D647">
         <v>-5.2999999999999936E-2</v>
@@ -9492,8 +9496,8 @@
       <c r="B648">
         <v>-7.8000000000000069E-2</v>
       </c>
-      <c r="C648">
-        <v>-3.480000000000004</v>
+      <c r="C648" s="3">
+        <v>-8.2857142857142962E-2</v>
       </c>
       <c r="D648">
         <v>-9.8000000000000087E-2</v>
@@ -9506,8 +9510,8 @@
       <c r="B649">
         <v>-0.17499999999999982</v>
       </c>
-      <c r="C649">
-        <v>-4.3299999999999983</v>
+      <c r="C649" s="3">
+        <v>-0.10309523809523813</v>
       </c>
       <c r="D649">
         <v>-0.125</v>
@@ -9520,8 +9524,8 @@
       <c r="B650">
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="C650">
-        <v>-0.50999999999999801</v>
+      <c r="C650" s="3">
+        <v>-1.2142857142857011E-2</v>
       </c>
       <c r="D650">
         <v>4.9999999999998934E-3</v>
@@ -9534,8 +9538,8 @@
       <c r="B651">
         <v>3.2999999999999918E-2</v>
       </c>
-      <c r="C651">
-        <v>2.2399999999999949</v>
+      <c r="C651" s="3">
+        <v>5.3333333333333233E-2</v>
       </c>
       <c r="D651">
         <v>4.2000000000000037E-2</v>
@@ -9548,8 +9552,8 @@
       <c r="B652">
         <v>0.15999999999999992</v>
       </c>
-      <c r="C652">
-        <v>3.8700000000000045</v>
+      <c r="C652" s="3">
+        <v>9.2142857142857082E-2</v>
       </c>
       <c r="D652">
         <v>8.8999999999999968E-2</v>
@@ -9562,8 +9566,8 @@
       <c r="B653">
         <v>-6.0000000000000053E-3</v>
       </c>
-      <c r="C653">
-        <v>-1.0900000000000034</v>
+      <c r="C653" s="3">
+        <v>-2.5952380952380949E-2</v>
       </c>
       <c r="D653">
         <v>-2.8999999999999915E-2</v>
@@ -9576,8 +9580,8 @@
       <c r="B654">
         <v>4.8000000000000043E-2</v>
       </c>
-      <c r="C654">
-        <v>1.7600000000000051</v>
+      <c r="C654" s="3">
+        <v>4.1904761904762111E-2</v>
       </c>
       <c r="D654">
         <v>4.0000000000000036E-2</v>
@@ -9590,8 +9594,8 @@
       <c r="B655">
         <v>-8.4999999999999964E-2</v>
       </c>
-      <c r="C655">
-        <v>-2.2900000000000063</v>
+      <c r="C655" s="3">
+        <v>-5.4523809523809641E-2</v>
       </c>
       <c r="D655">
         <v>-5.1000000000000156E-2</v>
@@ -9604,8 +9608,8 @@
       <c r="B656">
         <v>-1.4999999999999902E-2</v>
       </c>
-      <c r="C656">
-        <v>-0.75999999999999801</v>
+      <c r="C656" s="3">
+        <v>-1.8095238095238164E-2</v>
       </c>
       <c r="D656">
         <v>1.0000000000000009E-2</v>
@@ -9618,8 +9622,8 @@
       <c r="B657">
         <v>-2.100000000000013E-2</v>
       </c>
-      <c r="C657">
-        <v>0.39999999999999858</v>
+      <c r="C657" s="3">
+        <v>9.52380952380949E-3</v>
       </c>
       <c r="D657">
         <v>1.0000000000001119E-3</v>
@@ -9632,8 +9636,8 @@
       <c r="B658">
         <v>-0.16999999999999993</v>
       </c>
-      <c r="C658">
-        <v>-3.3299999999999983</v>
+      <c r="C658" s="3">
+        <v>-7.9285714285714182E-2</v>
       </c>
       <c r="D658">
         <v>-0.1120000000000001</v>
@@ -9646,8 +9650,8 @@
       <c r="B659">
         <v>4.9999999999998934E-3</v>
       </c>
-      <c r="C659">
-        <v>2.0300000000000011</v>
+      <c r="C659" s="3">
+        <v>4.8333333333333339E-2</v>
       </c>
       <c r="D659">
         <v>3.1000000000000139E-2</v>
@@ -9660,8 +9664,8 @@
       <c r="B660">
         <v>-4.0000000000000036E-3</v>
       </c>
-      <c r="C660">
-        <v>0.22999999999999687</v>
+      <c r="C660" s="3">
+        <v>5.4761904761904123E-3</v>
       </c>
       <c r="D660">
         <v>1.0000000000000009E-2</v>
@@ -9674,8 +9678,8 @@
       <c r="B661">
         <v>-2.0999999999999908E-2</v>
       </c>
-      <c r="C661">
-        <v>-0.32000000000000028</v>
+      <c r="C661" s="3">
+        <v>-7.6190476190476364E-3</v>
       </c>
       <c r="D661">
         <v>-1.0000000000000009E-2</v>
@@ -9688,8 +9692,8 @@
       <c r="B662">
         <v>-0.1180000000000001</v>
       </c>
-      <c r="C662">
-        <v>0.39000000000000057</v>
+      <c r="C662" s="3">
+        <v>9.2857142857143415E-3</v>
       </c>
       <c r="D662">
         <v>3.8000000000000034E-2</v>
@@ -9702,8 +9706,8 @@
       <c r="B663">
         <v>3.9000000000000146E-2</v>
       </c>
-      <c r="C663">
-        <v>0.57000000000000028</v>
+      <c r="C663" s="3">
+        <v>1.3571428571428568E-2</v>
       </c>
       <c r="D663">
         <v>3.6999999999999922E-2</v>
@@ -9716,8 +9720,8 @@
       <c r="B664">
         <v>0.123</v>
       </c>
-      <c r="C664">
-        <v>3.1200000000000045</v>
+      <c r="C664" s="3">
+        <v>7.4285714285714288E-2</v>
       </c>
       <c r="D664">
         <v>0.10299999999999998</v>
@@ -9730,8 +9734,8 @@
       <c r="B665">
         <v>-3.8000000000000034E-2</v>
       </c>
-      <c r="C665">
-        <v>-2.3599999999999994</v>
+      <c r="C665" s="3">
+        <v>-5.6190476190476124E-2</v>
       </c>
       <c r="D665">
         <v>-4.4999999999999929E-2</v>
@@ -9744,8 +9748,8 @@
       <c r="B666">
         <v>-8.4000000000000075E-2</v>
       </c>
-      <c r="C666">
-        <v>-3.8300000000000054</v>
+      <c r="C666" s="3">
+        <v>-9.1190476190476266E-2</v>
       </c>
       <c r="D666">
         <v>-7.3000000000000176E-2</v>
@@ -9758,8 +9762,8 @@
       <c r="B667">
         <v>2.9000000000000137E-2</v>
       </c>
-      <c r="C667">
-        <v>0.12000000000000455</v>
+      <c r="C667" s="3">
+        <v>2.8571428571428914E-3</v>
       </c>
       <c r="D667">
         <v>3.2000000000000028E-2</v>
@@ -9772,8 +9776,8 @@
       <c r="B668">
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="C668">
-        <v>0.25</v>
+      <c r="C668" s="3">
+        <v>5.9523809523809312E-3</v>
       </c>
       <c r="D668">
         <v>1.1000000000000121E-2</v>
@@ -9786,8 +9790,8 @@
       <c r="B669">
         <v>2.0999999999999908E-2</v>
       </c>
-      <c r="C669">
-        <v>1.7800000000000011</v>
+      <c r="C669" s="3">
+        <v>4.2380952380952408E-2</v>
       </c>
       <c r="D669">
         <v>3.0000000000000027E-2</v>
@@ -9800,8 +9804,8 @@
       <c r="B670">
         <v>2.0999999999999908E-2</v>
       </c>
-      <c r="C670">
-        <v>8.9999999999996305E-2</v>
+      <c r="C670" s="3">
+        <v>2.142857142857002E-3</v>
       </c>
       <c r="D670">
         <v>-3.400000000000003E-2</v>
@@ -9814,8 +9818,8 @@
       <c r="B671">
         <v>-1.4999999999999902E-2</v>
       </c>
-      <c r="C671">
-        <v>1.5399999999999991</v>
+      <c r="C671" s="3">
+        <v>3.6666666666666847E-2</v>
       </c>
       <c r="D671">
         <v>4.0000000000000036E-3</v>
@@ -9828,8 +9832,8 @@
       <c r="B672">
         <v>-2.4999999999999911E-2</v>
       </c>
-      <c r="C672">
-        <v>0.14999999999999858</v>
+      <c r="C672" s="3">
+        <v>3.5714285714283367E-3</v>
       </c>
       <c r="D672">
         <v>-1.5000000000000124E-2</v>
@@ -9842,8 +9846,8 @@
       <c r="B673">
         <v>2.9999999999999805E-2</v>
       </c>
-      <c r="C673">
-        <v>9.0000000000003411E-2</v>
+      <c r="C673" s="3">
+        <v>2.1428571428572241E-3</v>
       </c>
       <c r="D673">
         <v>-1.2000000000000011E-2</v>
@@ -9856,8 +9860,8 @@
       <c r="B674">
         <v>1.5000000000000124E-2</v>
       </c>
-      <c r="C674">
-        <v>0.42000000000000171</v>
+      <c r="C674" s="3">
+        <v>1.0000000000000231E-2</v>
       </c>
       <c r="D674">
         <v>2.9000000000000137E-2</v>
@@ -9870,8 +9874,8 @@
       <c r="B675">
         <v>-6.4999999999999947E-2</v>
       </c>
-      <c r="C675">
-        <v>5.9999999999995168E-2</v>
+      <c r="C675" s="3">
+        <v>1.4285714285711126E-3</v>
       </c>
       <c r="D675">
         <v>-2.0000000000000018E-2</v>
@@ -9884,8 +9888,8 @@
       <c r="B676">
         <v>4.2999999999999927E-2</v>
       </c>
-      <c r="C676">
-        <v>1.6300000000000026</v>
+      <c r="C676" s="3">
+        <v>3.8809523809524071E-2</v>
       </c>
       <c r="D676">
         <v>4.0000000000000036E-2</v>
@@ -9898,8 +9902,8 @@
       <c r="B677">
         <v>4.4000000000000039E-2</v>
       </c>
-      <c r="C677">
-        <v>1.5</v>
+      <c r="C677" s="3">
+        <v>3.5714285714285587E-2</v>
       </c>
       <c r="D677">
         <v>6.6999999999999726E-2</v>
@@ -9912,8 +9916,8 @@
       <c r="B678">
         <v>4.2999999999999927E-2</v>
       </c>
-      <c r="C678">
-        <v>0.47999999999999687</v>
+      <c r="C678" s="3">
+        <v>1.1428571428571344E-2</v>
       </c>
       <c r="D678">
         <v>1.7000000000000348E-2</v>
